--- a/Assets/Level_Tool.xlsx
+++ b/Assets/Level_Tool.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scote/Downloads/SpaceCab-Fuel-and-Fare 2/Assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scote/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4AF8EFC7-3795-EB4D-B741-C617B5926BE9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{565BC5E5-2B75-0F41-BCF0-A74CFBFA420B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59560" yWindow="1040" windowWidth="28040" windowHeight="26880" xr2:uid="{034143F2-81DD-E240-A4FE-E146F63DCD7B}"/>
+    <workbookView xWindow="78480" yWindow="1520" windowWidth="28040" windowHeight="26880" xr2:uid="{034143F2-81DD-E240-A4FE-E146F63DCD7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="20">
   <si>
     <t xml:space="preserve">PLAT1, </t>
   </si>
@@ -580,8 +580,8 @@
   </sheetPr>
   <dimension ref="A1:AJ121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AJ18" sqref="A1:AJ18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="P44" sqref="P44:P55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -739,586 +739,1606 @@
       </c>
     </row>
     <row r="4" spans="1:36" ht="16" customHeight="1">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="11"/>
-      <c r="AG4" s="11"/>
-      <c r="AH4" s="11"/>
+      <c r="A4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="S4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="T4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="U4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="V4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="W4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="X4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH4" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="AJ4" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="16" customHeight="1">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="11"/>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="11"/>
-      <c r="AF5" s="11"/>
-      <c r="AG5" s="11"/>
-      <c r="AH5" s="11"/>
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="AJ5" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="16" customHeight="1">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="11"/>
-      <c r="AG6" s="11"/>
-      <c r="AH6" s="11"/>
+      <c r="A6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="AJ6" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="16" customHeight="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="11"/>
-      <c r="AG7" s="11"/>
-      <c r="AH7" s="11"/>
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH7" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AJ7" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:36" ht="16" customHeight="1">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="11"/>
-      <c r="AG8" s="11"/>
-      <c r="AH8" s="11"/>
+      <c r="A8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AJ8" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="16" customHeight="1">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="11"/>
-      <c r="AE9" s="11"/>
-      <c r="AF9" s="11"/>
-      <c r="AG9" s="11"/>
-      <c r="AH9" s="11"/>
+      <c r="A9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH9" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="AJ9" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="16" customHeight="1">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="11"/>
-      <c r="AG10" s="11"/>
-      <c r="AH10" s="11"/>
+      <c r="A10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="AJ10" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:36" ht="16" customHeight="1">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="11"/>
-      <c r="AD11" s="11"/>
-      <c r="AE11" s="11"/>
-      <c r="AF11" s="11"/>
-      <c r="AG11" s="11"/>
-      <c r="AH11" s="11"/>
+      <c r="A11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="AJ11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:36" ht="16" customHeight="1">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="11"/>
-      <c r="AG12" s="11"/>
-      <c r="AH12" s="11"/>
+      <c r="A12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="AJ12" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:36" ht="16" customHeight="1">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="11"/>
-      <c r="AC13" s="11"/>
-      <c r="AD13" s="11"/>
-      <c r="AE13" s="11"/>
-      <c r="AF13" s="11"/>
-      <c r="AG13" s="11"/>
-      <c r="AH13" s="11"/>
+      <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="AJ13" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:36" ht="16" customHeight="1">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="11"/>
-      <c r="AB14" s="11"/>
-      <c r="AC14" s="11"/>
-      <c r="AD14" s="11"/>
-      <c r="AE14" s="11"/>
-      <c r="AF14" s="11"/>
-      <c r="AG14" s="11"/>
-      <c r="AH14" s="11"/>
+      <c r="A14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="X14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH14" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="AJ14" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:36" ht="16" customHeight="1">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="11"/>
-      <c r="AC15" s="11"/>
-      <c r="AD15" s="11"/>
-      <c r="AE15" s="11"/>
-      <c r="AF15" s="11"/>
-      <c r="AG15" s="11"/>
-      <c r="AH15" s="11"/>
+      <c r="A15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="X15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH15" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="AJ15" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:36" ht="16" customHeight="1">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="11"/>
-      <c r="AC16" s="11"/>
-      <c r="AD16" s="11"/>
-      <c r="AE16" s="11"/>
-      <c r="AF16" s="11"/>
-      <c r="AG16" s="11"/>
-      <c r="AH16" s="11"/>
+      <c r="A16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="X16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH16" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="AJ16" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:36" ht="16" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="11"/>
-      <c r="AD17" s="11"/>
-      <c r="AE17" s="11"/>
-      <c r="AF17" s="11"/>
-      <c r="AG17" s="11"/>
-      <c r="AH17" s="11"/>
+      <c r="A17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="T17" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="U17" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="V17" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="W17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="X17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH17" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="AJ17" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:36" ht="16" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="11"/>
-      <c r="AD18" s="11"/>
-      <c r="AE18" s="11"/>
-      <c r="AF18" s="11"/>
-      <c r="AG18" s="11"/>
-      <c r="AH18" s="11"/>
+      <c r="A18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="T18" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="U18" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="V18" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="W18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="X18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH18" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="AJ18" s="17" t="s">
         <v>19</v>
       </c>
@@ -1541,544 +2561,1564 @@
       <c r="AH23" s="1"/>
     </row>
     <row r="24" spans="1:36">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="11"/>
-      <c r="AB24" s="11"/>
-      <c r="AC24" s="11"/>
-      <c r="AD24" s="11"/>
-      <c r="AE24" s="11"/>
-      <c r="AF24" s="11"/>
-      <c r="AG24" s="11"/>
-      <c r="AH24" s="11"/>
+      <c r="A24" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N24" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O24" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="P24" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="R24" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="S24" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="T24" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="U24" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="V24" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="W24" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="X24" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y24" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z24" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA24" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB24" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH24" s="15" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="25" spans="1:36">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="11"/>
-      <c r="Z25" s="11"/>
-      <c r="AA25" s="11"/>
-      <c r="AB25" s="11"/>
-      <c r="AC25" s="11"/>
-      <c r="AD25" s="11"/>
-      <c r="AE25" s="11"/>
-      <c r="AF25" s="11"/>
-      <c r="AG25" s="11"/>
-      <c r="AH25" s="11"/>
+      <c r="A25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG25" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH25" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:36">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="11"/>
-      <c r="AA26" s="11"/>
-      <c r="AB26" s="11"/>
-      <c r="AC26" s="11"/>
-      <c r="AD26" s="11"/>
-      <c r="AE26" s="11"/>
-      <c r="AF26" s="11"/>
-      <c r="AG26" s="11"/>
-      <c r="AH26" s="11"/>
+      <c r="A26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG26" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH26" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:36">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="11"/>
-      <c r="AA27" s="11"/>
-      <c r="AB27" s="11"/>
-      <c r="AC27" s="11"/>
-      <c r="AD27" s="11"/>
-      <c r="AE27" s="11"/>
-      <c r="AF27" s="11"/>
-      <c r="AG27" s="11"/>
-      <c r="AH27" s="11"/>
+      <c r="A27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH27" s="13" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="28" spans="1:36">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="11"/>
-      <c r="Z28" s="11"/>
-      <c r="AA28" s="11"/>
-      <c r="AB28" s="11"/>
-      <c r="AC28" s="11"/>
-      <c r="AD28" s="11"/>
-      <c r="AE28" s="11"/>
-      <c r="AF28" s="11"/>
-      <c r="AG28" s="11"/>
-      <c r="AH28" s="11"/>
+      <c r="A28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M28" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB28" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC28" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD28" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE28" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF28" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG28" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH28" s="13" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="29" spans="1:36">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="11"/>
-      <c r="Z29" s="11"/>
-      <c r="AA29" s="11"/>
-      <c r="AB29" s="11"/>
-      <c r="AC29" s="11"/>
-      <c r="AD29" s="11"/>
-      <c r="AE29" s="11"/>
-      <c r="AF29" s="11"/>
-      <c r="AG29" s="11"/>
-      <c r="AH29" s="11"/>
+      <c r="A29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB29" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC29" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD29" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE29" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF29" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG29" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH29" s="15" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="30" spans="1:36">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="11"/>
-      <c r="X30" s="11"/>
-      <c r="Y30" s="11"/>
-      <c r="Z30" s="11"/>
-      <c r="AA30" s="11"/>
-      <c r="AB30" s="11"/>
-      <c r="AC30" s="11"/>
-      <c r="AD30" s="11"/>
-      <c r="AE30" s="11"/>
-      <c r="AF30" s="11"/>
-      <c r="AG30" s="11"/>
-      <c r="AH30" s="11"/>
+      <c r="A30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH30" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:36">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="11"/>
-      <c r="X31" s="11"/>
-      <c r="Y31" s="11"/>
-      <c r="Z31" s="11"/>
-      <c r="AA31" s="11"/>
-      <c r="AB31" s="11"/>
-      <c r="AC31" s="11"/>
-      <c r="AD31" s="11"/>
-      <c r="AE31" s="11"/>
-      <c r="AF31" s="11"/>
-      <c r="AG31" s="11"/>
-      <c r="AH31" s="11"/>
+      <c r="A31" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH31" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:36">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="11"/>
-      <c r="T32" s="11"/>
-      <c r="U32" s="11"/>
-      <c r="V32" s="11"/>
-      <c r="W32" s="11"/>
-      <c r="X32" s="11"/>
-      <c r="Y32" s="11"/>
-      <c r="Z32" s="11"/>
-      <c r="AA32" s="11"/>
-      <c r="AB32" s="11"/>
-      <c r="AC32" s="11"/>
-      <c r="AD32" s="11"/>
-      <c r="AE32" s="11"/>
-      <c r="AF32" s="11"/>
-      <c r="AG32" s="11"/>
-      <c r="AH32" s="11"/>
+      <c r="A32" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P32" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q32" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="S32" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="T32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB32" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC32" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD32" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE32" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF32" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG32" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH32" s="8" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="33" spans="1:34">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11"/>
-      <c r="V33" s="11"/>
-      <c r="W33" s="11"/>
-      <c r="X33" s="11"/>
-      <c r="Y33" s="11"/>
-      <c r="Z33" s="11"/>
-      <c r="AA33" s="11"/>
-      <c r="AB33" s="11"/>
-      <c r="AC33" s="11"/>
-      <c r="AD33" s="11"/>
-      <c r="AE33" s="11"/>
-      <c r="AF33" s="11"/>
-      <c r="AG33" s="11"/>
-      <c r="AH33" s="11"/>
+      <c r="A33" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P33" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q33" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="R33" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="S33" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="T33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB33" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC33" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD33" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE33" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF33" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG33" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH33" s="15" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="34" spans="1:34">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="11"/>
-      <c r="V34" s="11"/>
-      <c r="W34" s="11"/>
-      <c r="X34" s="11"/>
-      <c r="Y34" s="11"/>
-      <c r="Z34" s="11"/>
-      <c r="AA34" s="11"/>
-      <c r="AB34" s="11"/>
-      <c r="AC34" s="11"/>
-      <c r="AD34" s="11"/>
-      <c r="AE34" s="11"/>
-      <c r="AF34" s="11"/>
-      <c r="AG34" s="11"/>
-      <c r="AH34" s="11"/>
+      <c r="A34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH34" s="15" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="35" spans="1:34">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="11"/>
-      <c r="V35" s="11"/>
-      <c r="W35" s="11"/>
-      <c r="X35" s="11"/>
-      <c r="Y35" s="11"/>
-      <c r="Z35" s="11"/>
-      <c r="AA35" s="11"/>
-      <c r="AB35" s="11"/>
-      <c r="AC35" s="11"/>
-      <c r="AD35" s="11"/>
-      <c r="AE35" s="11"/>
-      <c r="AF35" s="11"/>
-      <c r="AG35" s="11"/>
-      <c r="AH35" s="11"/>
+      <c r="A35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH35" s="15" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="36" spans="1:34">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11"/>
-      <c r="U36" s="11"/>
-      <c r="V36" s="11"/>
-      <c r="W36" s="11"/>
-      <c r="X36" s="11"/>
-      <c r="Y36" s="11"/>
-      <c r="Z36" s="11"/>
-      <c r="AA36" s="11"/>
-      <c r="AB36" s="11"/>
-      <c r="AC36" s="11"/>
-      <c r="AD36" s="11"/>
-      <c r="AE36" s="11"/>
-      <c r="AF36" s="11"/>
-      <c r="AG36" s="11"/>
-      <c r="AH36" s="11"/>
+      <c r="A36" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH36" s="15" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="37" spans="1:34">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="11"/>
-      <c r="T37" s="11"/>
-      <c r="U37" s="11"/>
-      <c r="V37" s="11"/>
-      <c r="W37" s="11"/>
-      <c r="X37" s="11"/>
-      <c r="Y37" s="11"/>
-      <c r="Z37" s="11"/>
-      <c r="AA37" s="11"/>
-      <c r="AB37" s="11"/>
-      <c r="AC37" s="11"/>
-      <c r="AD37" s="11"/>
-      <c r="AE37" s="11"/>
-      <c r="AF37" s="11"/>
-      <c r="AG37" s="11"/>
-      <c r="AH37" s="11"/>
+      <c r="A37" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="R37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="S37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="T37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="U37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="V37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="W37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="X37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA37" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB37" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC37" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD37" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE37" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF37" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG37" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH37" s="15" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="38" spans="1:34">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11"/>
-      <c r="U38" s="11"/>
-      <c r="V38" s="11"/>
-      <c r="W38" s="11"/>
-      <c r="X38" s="11"/>
-      <c r="Y38" s="11"/>
-      <c r="Z38" s="11"/>
-      <c r="AA38" s="11"/>
-      <c r="AB38" s="11"/>
-      <c r="AC38" s="11"/>
-      <c r="AD38" s="11"/>
-      <c r="AE38" s="11"/>
-      <c r="AF38" s="11"/>
-      <c r="AG38" s="11"/>
-      <c r="AH38" s="11"/>
+      <c r="A38" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB38" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC38" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD38" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE38" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF38" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG38" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH38" s="15" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="39" spans="1:34">
       <c r="A39" s="18"/>
@@ -2298,544 +4338,1564 @@
       <c r="AH43" s="1"/>
     </row>
     <row r="44" spans="1:34">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="11"/>
-      <c r="R44" s="11"/>
-      <c r="S44" s="11"/>
-      <c r="T44" s="11"/>
-      <c r="U44" s="11"/>
-      <c r="V44" s="11"/>
-      <c r="W44" s="11"/>
-      <c r="X44" s="11"/>
-      <c r="Y44" s="11"/>
-      <c r="Z44" s="11"/>
-      <c r="AA44" s="11"/>
-      <c r="AB44" s="11"/>
-      <c r="AC44" s="11"/>
-      <c r="AD44" s="11"/>
-      <c r="AE44" s="11"/>
-      <c r="AF44" s="11"/>
-      <c r="AG44" s="11"/>
-      <c r="AH44" s="11"/>
+      <c r="A44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="S44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="T44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="U44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="V44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="W44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="X44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE44" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF44" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG44" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH44" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="45" spans="1:34">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="11"/>
-      <c r="P45" s="11"/>
-      <c r="Q45" s="11"/>
-      <c r="R45" s="11"/>
-      <c r="S45" s="11"/>
-      <c r="T45" s="11"/>
-      <c r="U45" s="11"/>
-      <c r="V45" s="11"/>
-      <c r="W45" s="11"/>
-      <c r="X45" s="11"/>
-      <c r="Y45" s="11"/>
-      <c r="Z45" s="11"/>
-      <c r="AA45" s="11"/>
-      <c r="AB45" s="11"/>
-      <c r="AC45" s="11"/>
-      <c r="AD45" s="11"/>
-      <c r="AE45" s="11"/>
-      <c r="AF45" s="11"/>
-      <c r="AG45" s="11"/>
-      <c r="AH45" s="11"/>
+      <c r="A45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH45" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:34">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="11"/>
-      <c r="R46" s="11"/>
-      <c r="S46" s="11"/>
-      <c r="T46" s="11"/>
-      <c r="U46" s="11"/>
-      <c r="V46" s="11"/>
-      <c r="W46" s="11"/>
-      <c r="X46" s="11"/>
-      <c r="Y46" s="11"/>
-      <c r="Z46" s="11"/>
-      <c r="AA46" s="11"/>
-      <c r="AB46" s="11"/>
-      <c r="AC46" s="11"/>
-      <c r="AD46" s="11"/>
-      <c r="AE46" s="11"/>
-      <c r="AF46" s="11"/>
-      <c r="AG46" s="11"/>
-      <c r="AH46" s="11"/>
+      <c r="A46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH46" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:34">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="11"/>
-      <c r="R47" s="11"/>
-      <c r="S47" s="11"/>
-      <c r="T47" s="11"/>
-      <c r="U47" s="11"/>
-      <c r="V47" s="11"/>
-      <c r="W47" s="11"/>
-      <c r="X47" s="11"/>
-      <c r="Y47" s="11"/>
-      <c r="Z47" s="11"/>
-      <c r="AA47" s="11"/>
-      <c r="AB47" s="11"/>
-      <c r="AC47" s="11"/>
-      <c r="AD47" s="11"/>
-      <c r="AE47" s="11"/>
-      <c r="AF47" s="11"/>
-      <c r="AG47" s="11"/>
-      <c r="AH47" s="11"/>
+      <c r="A47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH47" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:34">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="11"/>
-      <c r="R48" s="11"/>
-      <c r="S48" s="11"/>
-      <c r="T48" s="11"/>
-      <c r="U48" s="11"/>
-      <c r="V48" s="11"/>
-      <c r="W48" s="11"/>
-      <c r="X48" s="11"/>
-      <c r="Y48" s="11"/>
-      <c r="Z48" s="11"/>
-      <c r="AA48" s="11"/>
-      <c r="AB48" s="11"/>
-      <c r="AC48" s="11"/>
-      <c r="AD48" s="11"/>
-      <c r="AE48" s="11"/>
-      <c r="AF48" s="11"/>
-      <c r="AG48" s="11"/>
-      <c r="AH48" s="11"/>
+      <c r="A48" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O48" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P48" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R48" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S48" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T48" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U48" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V48" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W48" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X48" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y48" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z48" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA48" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB48" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC48" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD48" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE48" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF48" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG48" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH48" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:34">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="11"/>
-      <c r="R49" s="11"/>
-      <c r="S49" s="11"/>
-      <c r="T49" s="11"/>
-      <c r="U49" s="11"/>
-      <c r="V49" s="11"/>
-      <c r="W49" s="11"/>
-      <c r="X49" s="11"/>
-      <c r="Y49" s="11"/>
-      <c r="Z49" s="11"/>
-      <c r="AA49" s="11"/>
-      <c r="AB49" s="11"/>
-      <c r="AC49" s="11"/>
-      <c r="AD49" s="11"/>
-      <c r="AE49" s="11"/>
-      <c r="AF49" s="11"/>
-      <c r="AG49" s="11"/>
-      <c r="AH49" s="11"/>
+      <c r="A49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O49" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P49" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q49" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="S49" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="T49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH49" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:34">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="11"/>
-      <c r="N50" s="11"/>
-      <c r="O50" s="11"/>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="11"/>
-      <c r="R50" s="11"/>
-      <c r="S50" s="11"/>
-      <c r="T50" s="11"/>
-      <c r="U50" s="11"/>
-      <c r="V50" s="11"/>
-      <c r="W50" s="11"/>
-      <c r="X50" s="11"/>
-      <c r="Y50" s="11"/>
-      <c r="Z50" s="11"/>
-      <c r="AA50" s="11"/>
-      <c r="AB50" s="11"/>
-      <c r="AC50" s="11"/>
-      <c r="AD50" s="11"/>
-      <c r="AE50" s="11"/>
-      <c r="AF50" s="11"/>
-      <c r="AG50" s="11"/>
-      <c r="AH50" s="11"/>
+      <c r="A50" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O50" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P50" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q50" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R50" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="S50" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="T50" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U50" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V50" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W50" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X50" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y50" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z50" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA50" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB50" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC50" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD50" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE50" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF50" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG50" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH50" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="1:34">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="11"/>
-      <c r="M51" s="11"/>
-      <c r="N51" s="11"/>
-      <c r="O51" s="11"/>
-      <c r="P51" s="11"/>
-      <c r="Q51" s="11"/>
-      <c r="R51" s="11"/>
-      <c r="S51" s="11"/>
-      <c r="T51" s="11"/>
-      <c r="U51" s="11"/>
-      <c r="V51" s="11"/>
-      <c r="W51" s="11"/>
-      <c r="X51" s="11"/>
-      <c r="Y51" s="11"/>
-      <c r="Z51" s="11"/>
-      <c r="AA51" s="11"/>
-      <c r="AB51" s="11"/>
-      <c r="AC51" s="11"/>
-      <c r="AD51" s="11"/>
-      <c r="AE51" s="11"/>
-      <c r="AF51" s="11"/>
-      <c r="AG51" s="11"/>
-      <c r="AH51" s="11"/>
+      <c r="A51" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L51" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M51" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N51" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="O51" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P51" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q51" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="R51" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="S51" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="T51" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U51" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V51" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W51" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X51" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y51" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z51" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA51" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB51" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC51" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD51" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE51" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF51" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG51" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH51" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" spans="1:34">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="11"/>
-      <c r="M52" s="11"/>
-      <c r="N52" s="11"/>
-      <c r="O52" s="11"/>
-      <c r="P52" s="11"/>
-      <c r="Q52" s="11"/>
-      <c r="R52" s="11"/>
-      <c r="S52" s="11"/>
-      <c r="T52" s="11"/>
-      <c r="U52" s="11"/>
-      <c r="V52" s="11"/>
-      <c r="W52" s="11"/>
-      <c r="X52" s="11"/>
-      <c r="Y52" s="11"/>
-      <c r="Z52" s="11"/>
-      <c r="AA52" s="11"/>
-      <c r="AB52" s="11"/>
-      <c r="AC52" s="11"/>
-      <c r="AD52" s="11"/>
-      <c r="AE52" s="11"/>
-      <c r="AF52" s="11"/>
-      <c r="AG52" s="11"/>
-      <c r="AH52" s="11"/>
+      <c r="A52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M52" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N52" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O52" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH52" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="1:34">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="11"/>
-      <c r="R53" s="11"/>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11"/>
-      <c r="U53" s="11"/>
-      <c r="V53" s="11"/>
-      <c r="W53" s="11"/>
-      <c r="X53" s="11"/>
-      <c r="Y53" s="11"/>
-      <c r="Z53" s="11"/>
-      <c r="AA53" s="11"/>
-      <c r="AB53" s="11"/>
-      <c r="AC53" s="11"/>
-      <c r="AD53" s="11"/>
-      <c r="AE53" s="11"/>
-      <c r="AF53" s="11"/>
-      <c r="AG53" s="11"/>
-      <c r="AH53" s="11"/>
+      <c r="A53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O53" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH53" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="1:34">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11"/>
-      <c r="K54" s="11"/>
-      <c r="L54" s="11"/>
-      <c r="M54" s="11"/>
-      <c r="N54" s="11"/>
-      <c r="O54" s="11"/>
-      <c r="P54" s="11"/>
-      <c r="Q54" s="11"/>
-      <c r="R54" s="11"/>
-      <c r="S54" s="11"/>
-      <c r="T54" s="11"/>
-      <c r="U54" s="11"/>
-      <c r="V54" s="11"/>
-      <c r="W54" s="11"/>
-      <c r="X54" s="11"/>
-      <c r="Y54" s="11"/>
-      <c r="Z54" s="11"/>
-      <c r="AA54" s="11"/>
-      <c r="AB54" s="11"/>
-      <c r="AC54" s="11"/>
-      <c r="AD54" s="11"/>
-      <c r="AE54" s="11"/>
-      <c r="AF54" s="11"/>
-      <c r="AG54" s="11"/>
-      <c r="AH54" s="11"/>
+      <c r="A54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O54" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH54" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" spans="1:34">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="11"/>
-      <c r="M55" s="11"/>
-      <c r="N55" s="11"/>
-      <c r="O55" s="11"/>
-      <c r="P55" s="11"/>
-      <c r="Q55" s="11"/>
-      <c r="R55" s="11"/>
-      <c r="S55" s="11"/>
-      <c r="T55" s="11"/>
-      <c r="U55" s="11"/>
-      <c r="V55" s="11"/>
-      <c r="W55" s="11"/>
-      <c r="X55" s="11"/>
-      <c r="Y55" s="11"/>
-      <c r="Z55" s="11"/>
-      <c r="AA55" s="11"/>
-      <c r="AB55" s="11"/>
-      <c r="AC55" s="11"/>
-      <c r="AD55" s="11"/>
-      <c r="AE55" s="11"/>
-      <c r="AF55" s="11"/>
-      <c r="AG55" s="11"/>
-      <c r="AH55" s="11"/>
+      <c r="A55" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J55" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K55" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L55" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M55" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="N55" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="O55" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P55" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q55" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="R55" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="S55" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="T55" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="U55" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="V55" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="W55" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="X55" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y55" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z55" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA55" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB55" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC55" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD55" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE55" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF55" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG55" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH55" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="1:34">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="11"/>
-      <c r="L56" s="11"/>
-      <c r="M56" s="11"/>
-      <c r="N56" s="11"/>
-      <c r="O56" s="11"/>
-      <c r="P56" s="11"/>
-      <c r="Q56" s="11"/>
-      <c r="R56" s="11"/>
-      <c r="S56" s="11"/>
-      <c r="T56" s="11"/>
-      <c r="U56" s="11"/>
-      <c r="V56" s="11"/>
-      <c r="W56" s="11"/>
-      <c r="X56" s="11"/>
-      <c r="Y56" s="11"/>
-      <c r="Z56" s="11"/>
-      <c r="AA56" s="11"/>
-      <c r="AB56" s="11"/>
-      <c r="AC56" s="11"/>
-      <c r="AD56" s="11"/>
-      <c r="AE56" s="11"/>
-      <c r="AF56" s="11"/>
-      <c r="AG56" s="11"/>
-      <c r="AH56" s="11"/>
+      <c r="A56" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M56" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N56" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="O56" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q56" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="R56" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="S56" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="T56" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="U56" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="V56" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W56" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="X56" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y56" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z56" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA56" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB56" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC56" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD56" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE56" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF56" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG56" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH56" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="57" spans="1:34">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
-      <c r="L57" s="11"/>
-      <c r="M57" s="11"/>
-      <c r="N57" s="11"/>
-      <c r="O57" s="11"/>
-      <c r="P57" s="11"/>
-      <c r="Q57" s="11"/>
-      <c r="R57" s="11"/>
-      <c r="S57" s="11"/>
-      <c r="T57" s="11"/>
-      <c r="U57" s="11"/>
-      <c r="V57" s="11"/>
-      <c r="W57" s="11"/>
-      <c r="X57" s="11"/>
-      <c r="Y57" s="11"/>
-      <c r="Z57" s="11"/>
-      <c r="AA57" s="11"/>
-      <c r="AB57" s="11"/>
-      <c r="AC57" s="11"/>
-      <c r="AD57" s="11"/>
-      <c r="AE57" s="11"/>
-      <c r="AF57" s="11"/>
-      <c r="AG57" s="11"/>
-      <c r="AH57" s="11"/>
+      <c r="A57" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="S57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="T57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="U57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="V57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="W57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="X57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA57" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB57" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC57" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD57" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE57" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF57" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG57" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH57" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:34">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="11"/>
-      <c r="M58" s="11"/>
-      <c r="N58" s="11"/>
-      <c r="O58" s="11"/>
-      <c r="P58" s="11"/>
-      <c r="Q58" s="11"/>
-      <c r="R58" s="11"/>
-      <c r="S58" s="11"/>
-      <c r="T58" s="11"/>
-      <c r="U58" s="11"/>
-      <c r="V58" s="11"/>
-      <c r="W58" s="11"/>
-      <c r="X58" s="11"/>
-      <c r="Y58" s="11"/>
-      <c r="Z58" s="11"/>
-      <c r="AA58" s="11"/>
-      <c r="AB58" s="11"/>
-      <c r="AC58" s="11"/>
-      <c r="AD58" s="11"/>
-      <c r="AE58" s="11"/>
-      <c r="AF58" s="11"/>
-      <c r="AG58" s="11"/>
-      <c r="AH58" s="11"/>
+      <c r="A58" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M58" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N58" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O58" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P58" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q58" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R58" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="S58" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="T58" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="U58" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="V58" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="W58" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="X58" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y58" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z58" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA58" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB58" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC58" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD58" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE58" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF58" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG58" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH58" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" spans="1:34">
       <c r="A59" s="18"/>

--- a/Assets/Level_Tool.xlsx
+++ b/Assets/Level_Tool.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scote/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scote/Desktop/DOSSIER PERSO/ArduBoy Projects files/SpaceCab/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{565BC5E5-2B75-0F41-BCF0-A74CFBFA420B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C672B682-D2D7-3642-BB3F-3DD6C30B71CD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="78480" yWindow="1520" windowWidth="28040" windowHeight="26880" xr2:uid="{034143F2-81DD-E240-A4FE-E146F63DCD7B}"/>
+    <workbookView xWindow="71200" yWindow="1400" windowWidth="28040" windowHeight="26880" xr2:uid="{034143F2-81DD-E240-A4FE-E146F63DCD7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="20">
   <si>
     <t xml:space="preserve">PLAT1, </t>
   </si>
@@ -214,7 +214,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -222,26 +222,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -253,7 +238,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
@@ -580,8 +564,8 @@
   </sheetPr>
   <dimension ref="A1:AJ121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="P44" sqref="P44:P55"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="W76" sqref="W76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -739,106 +723,106 @@
       </c>
     </row>
     <row r="4" spans="1:36" ht="16" customHeight="1">
-      <c r="A4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="P4" s="14" t="s">
+      <c r="A4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="14" t="s">
+      <c r="Q4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="14" t="s">
+      <c r="R4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="S4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="T4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="U4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="V4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="W4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="X4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="AH4" s="15" t="s">
+      <c r="S4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="U4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="V4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="W4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="X4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH4" s="14" t="s">
         <v>14</v>
       </c>
       <c r="AJ4" s="3" t="s">
@@ -1376,7 +1360,7 @@
       <c r="AH9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AJ9" s="14" t="s">
+      <c r="AJ9" s="13" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1483,7 +1467,7 @@
       <c r="AH10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AJ10" s="15" t="s">
+      <c r="AJ10" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2018,7 +2002,7 @@
       <c r="AH15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AJ15" s="12" t="s">
+      <c r="AJ15" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2083,7 +2067,7 @@
       <c r="T16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="U16" s="12" t="s">
+      <c r="U16" s="11" t="s">
         <v>16</v>
       </c>
       <c r="V16" s="4" t="s">
@@ -2125,7 +2109,7 @@
       <c r="AH16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AJ16" s="13" t="s">
+      <c r="AJ16" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2187,13 +2171,13 @@
       <c r="S17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="T17" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="U17" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="V17" s="15" t="s">
+      <c r="T17" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="U17" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="V17" s="14" t="s">
         <v>14</v>
       </c>
       <c r="W17" s="5" t="s">
@@ -2232,7 +2216,7 @@
       <c r="AH17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AJ17" s="16" t="s">
+      <c r="AJ17" s="15" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2294,13 +2278,13 @@
       <c r="S18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="T18" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="U18" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="V18" s="15" t="s">
+      <c r="T18" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="U18" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="V18" s="14" t="s">
         <v>14</v>
       </c>
       <c r="W18" s="5" t="s">
@@ -2339,81 +2323,81 @@
       <c r="AH18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AJ18" s="17" t="s">
+      <c r="AJ18" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:36">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="18"/>
-      <c r="W19" s="18"/>
-      <c r="X19" s="18"/>
-      <c r="Y19" s="18"/>
-      <c r="Z19" s="18"/>
-      <c r="AA19" s="18"/>
-      <c r="AB19" s="18"/>
-      <c r="AC19" s="18"/>
-      <c r="AD19" s="18"/>
-      <c r="AE19" s="18"/>
-      <c r="AF19" s="18"/>
-      <c r="AG19" s="18"/>
-      <c r="AH19" s="18"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="17"/>
+      <c r="AF19" s="17"/>
+      <c r="AG19" s="17"/>
+      <c r="AH19" s="17"/>
     </row>
     <row r="20" spans="1:36">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="18"/>
-      <c r="V20" s="18"/>
-      <c r="W20" s="18"/>
-      <c r="X20" s="18"/>
-      <c r="Y20" s="18"/>
-      <c r="Z20" s="18"/>
-      <c r="AA20" s="18"/>
-      <c r="AB20" s="18"/>
-      <c r="AC20" s="18"/>
-      <c r="AD20" s="18"/>
-      <c r="AE20" s="18"/>
-      <c r="AF20" s="18"/>
-      <c r="AG20" s="18"/>
-      <c r="AH20" s="18"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="17"/>
+      <c r="AF20" s="17"/>
+      <c r="AG20" s="17"/>
+      <c r="AH20" s="17"/>
     </row>
     <row r="21" spans="1:36">
       <c r="A21" t="s">
@@ -2561,106 +2545,106 @@
       <c r="AH23" s="1"/>
     </row>
     <row r="24" spans="1:36">
-      <c r="A24" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="L24" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="M24" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="N24" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="O24" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="P24" s="14" t="s">
+      <c r="A24" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N24" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="O24" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P24" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="Q24" s="14" t="s">
+      <c r="Q24" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="R24" s="14" t="s">
+      <c r="R24" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="S24" s="14" t="s">
+      <c r="S24" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="T24" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="U24" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="V24" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="W24" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="X24" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y24" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z24" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA24" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB24" s="15" t="s">
+      <c r="T24" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="U24" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="V24" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="W24" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="X24" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y24" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z24" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA24" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB24" s="14" t="s">
         <v>14</v>
       </c>
       <c r="AC24" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AD24" s="13" t="s">
+      <c r="AD24" s="12" t="s">
         <v>17</v>
       </c>
       <c r="AE24" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AF24" s="13" t="s">
+      <c r="AF24" s="12" t="s">
         <v>17</v>
       </c>
       <c r="AG24" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AH24" s="15" t="s">
+      <c r="AH24" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2749,19 +2733,19 @@
       <c r="AB25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AC25" s="13" t="s">
+      <c r="AC25" s="12" t="s">
         <v>17</v>
       </c>
       <c r="AD25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AE25" s="13" t="s">
+      <c r="AE25" s="12" t="s">
         <v>17</v>
       </c>
       <c r="AF25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AG25" s="13" t="s">
+      <c r="AG25" s="12" t="s">
         <v>17</v>
       </c>
       <c r="AH25" s="4" t="s">
@@ -2853,19 +2837,19 @@
       <c r="AB26" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AC26" s="13" t="s">
+      <c r="AC26" s="12" t="s">
         <v>17</v>
       </c>
       <c r="AD26" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AE26" s="13" t="s">
+      <c r="AE26" s="12" t="s">
         <v>17</v>
       </c>
       <c r="AF26" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AG26" s="13" t="s">
+      <c r="AG26" s="12" t="s">
         <v>17</v>
       </c>
       <c r="AH26" s="4" t="s">
@@ -2906,7 +2890,7 @@
       <c r="K27" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L27" s="12" t="s">
+      <c r="L27" s="11" t="s">
         <v>16</v>
       </c>
       <c r="M27" s="4" t="s">
@@ -2954,7 +2938,7 @@
       <c r="AA27" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AB27" s="13" t="s">
+      <c r="AB27" s="12" t="s">
         <v>17</v>
       </c>
       <c r="AC27" s="4" t="s">
@@ -2972,7 +2956,7 @@
       <c r="AG27" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AH27" s="13" t="s">
+      <c r="AH27" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2983,13 +2967,13 @@
       <c r="B28" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="12" t="s">
         <v>17</v>
       </c>
       <c r="F28" s="4" t="s">
@@ -3007,13 +2991,13 @@
       <c r="J28" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K28" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="L28" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="M28" s="15" t="s">
+      <c r="K28" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M28" s="14" t="s">
         <v>14</v>
       </c>
       <c r="N28" s="4" t="s">
@@ -3058,7 +3042,7 @@
       <c r="AA28" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="AB28" s="13" t="s">
+      <c r="AB28" s="12" t="s">
         <v>17</v>
       </c>
       <c r="AC28" s="8" t="s">
@@ -3076,7 +3060,7 @@
       <c r="AG28" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="AH28" s="13" t="s">
+      <c r="AH28" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3084,19 +3068,19 @@
       <c r="A29" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="12" t="s">
         <v>17</v>
       </c>
       <c r="G29" s="4" t="s">
@@ -3159,28 +3143,28 @@
       <c r="Z29" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AA29" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB29" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC29" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD29" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE29" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF29" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG29" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="AH29" s="15" t="s">
+      <c r="AA29" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB29" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC29" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD29" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE29" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF29" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG29" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH29" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3188,19 +3172,19 @@
       <c r="A30" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="12" t="s">
         <v>17</v>
       </c>
       <c r="G30" s="4" t="s">
@@ -3289,7 +3273,7 @@
       </c>
     </row>
     <row r="31" spans="1:36">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -3307,7 +3291,7 @@
       <c r="F31" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G31" s="13" t="s">
+      <c r="G31" s="12" t="s">
         <v>17</v>
       </c>
       <c r="H31" s="4" t="s">
@@ -3393,7 +3377,7 @@
       </c>
     </row>
     <row r="32" spans="1:36">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="8" t="s">
@@ -3411,7 +3395,7 @@
       <c r="F32" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G32" s="13" t="s">
+      <c r="G32" s="12" t="s">
         <v>17</v>
       </c>
       <c r="H32" s="8" t="s">
@@ -3497,28 +3481,28 @@
       </c>
     </row>
     <row r="33" spans="1:34">
-      <c r="A33" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" s="15" t="s">
+      <c r="A33" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="14" t="s">
         <v>14</v>
       </c>
       <c r="I33" s="4" t="s">
@@ -3542,16 +3526,16 @@
       <c r="O33" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="P33" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q33" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="R33" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="S33" s="15" t="s">
+      <c r="P33" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q33" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="R33" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="S33" s="14" t="s">
         <v>14</v>
       </c>
       <c r="T33" s="4" t="s">
@@ -3575,28 +3559,28 @@
       <c r="Z33" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AA33" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB33" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC33" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD33" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE33" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF33" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG33" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="AH33" s="15" t="s">
+      <c r="AA33" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB33" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC33" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD33" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE33" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF33" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG33" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH33" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3700,7 +3684,7 @@
       <c r="AG34" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AH34" s="15" t="s">
+      <c r="AH34" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3804,7 +3788,7 @@
       <c r="AG35" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AH35" s="15" t="s">
+      <c r="AH35" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3908,33 +3892,33 @@
       <c r="AG36" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AH36" s="15" t="s">
+      <c r="AH36" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:34">
-      <c r="A37" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H37" s="15" t="s">
+      <c r="A37" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="14" t="s">
         <v>14</v>
       </c>
       <c r="I37" s="6" t="s">
@@ -4012,33 +3996,33 @@
       <c r="AG37" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="AH37" s="15" t="s">
+      <c r="AH37" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:34">
-      <c r="A38" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H38" s="15" t="s">
+      <c r="A38" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="14" t="s">
         <v>14</v>
       </c>
       <c r="I38" s="3" t="s">
@@ -4095,102 +4079,102 @@
       <c r="Z38" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AA38" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB38" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC38" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD38" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE38" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF38" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG38" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="AH38" s="15" t="s">
+      <c r="AA38" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB38" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC38" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD38" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE38" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF38" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG38" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH38" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:34">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18"/>
-      <c r="U39" s="18"/>
-      <c r="V39" s="18"/>
-      <c r="W39" s="18"/>
-      <c r="X39" s="18"/>
-      <c r="Y39" s="18"/>
-      <c r="Z39" s="18"/>
-      <c r="AA39" s="18"/>
-      <c r="AB39" s="18"/>
-      <c r="AC39" s="18"/>
-      <c r="AD39" s="18"/>
-      <c r="AE39" s="18"/>
-      <c r="AF39" s="18"/>
-      <c r="AG39" s="18"/>
-      <c r="AH39" s="18"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="17"/>
+      <c r="V39" s="17"/>
+      <c r="W39" s="17"/>
+      <c r="X39" s="17"/>
+      <c r="Y39" s="17"/>
+      <c r="Z39" s="17"/>
+      <c r="AA39" s="17"/>
+      <c r="AB39" s="17"/>
+      <c r="AC39" s="17"/>
+      <c r="AD39" s="17"/>
+      <c r="AE39" s="17"/>
+      <c r="AF39" s="17"/>
+      <c r="AG39" s="17"/>
+      <c r="AH39" s="17"/>
     </row>
     <row r="40" spans="1:34">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="18"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="18"/>
-      <c r="V40" s="18"/>
-      <c r="W40" s="18"/>
-      <c r="X40" s="18"/>
-      <c r="Y40" s="18"/>
-      <c r="Z40" s="18"/>
-      <c r="AA40" s="18"/>
-      <c r="AB40" s="18"/>
-      <c r="AC40" s="18"/>
-      <c r="AD40" s="18"/>
-      <c r="AE40" s="18"/>
-      <c r="AF40" s="18"/>
-      <c r="AG40" s="18"/>
-      <c r="AH40" s="18"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="17"/>
+      <c r="V40" s="17"/>
+      <c r="W40" s="17"/>
+      <c r="X40" s="17"/>
+      <c r="Y40" s="17"/>
+      <c r="Z40" s="17"/>
+      <c r="AA40" s="17"/>
+      <c r="AB40" s="17"/>
+      <c r="AC40" s="17"/>
+      <c r="AD40" s="17"/>
+      <c r="AE40" s="17"/>
+      <c r="AF40" s="17"/>
+      <c r="AG40" s="17"/>
+      <c r="AH40" s="17"/>
     </row>
     <row r="41" spans="1:34">
       <c r="A41" t="s">
@@ -4428,13 +4412,13 @@
       <c r="AD44" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AE44" s="14" t="s">
+      <c r="AE44" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="AF44" s="14" t="s">
+      <c r="AF44" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="AG44" s="14" t="s">
+      <c r="AG44" s="13" t="s">
         <v>4</v>
       </c>
       <c r="AH44" s="5" t="s">
@@ -4757,16 +4741,16 @@
       <c r="A48" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B48" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" s="15" t="s">
+      <c r="B48" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F48" s="4" t="s">
@@ -5040,7 +5024,7 @@
       <c r="Z50" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="AA50" s="12" t="s">
+      <c r="AA50" s="11" t="s">
         <v>16</v>
       </c>
       <c r="AB50" s="8" t="s">
@@ -5093,8 +5077,8 @@
       <c r="I51" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J51" s="4" t="s">
-        <v>1</v>
+      <c r="J51" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="K51" s="8" t="s">
         <v>2</v>
@@ -5111,16 +5095,16 @@
       <c r="O51" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P51" s="16" t="s">
+      <c r="P51" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="Q51" s="16" t="s">
+      <c r="Q51" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="R51" s="16" t="s">
+      <c r="R51" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="S51" s="16" t="s">
+      <c r="S51" s="15" t="s">
         <v>18</v>
       </c>
       <c r="T51" s="4" t="s">
@@ -5138,16 +5122,16 @@
       <c r="X51" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="Y51" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z51" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA51" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB51" s="15" t="s">
+      <c r="Y51" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z51" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA51" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB51" s="14" t="s">
         <v>14</v>
       </c>
       <c r="AC51" s="4" t="s">
@@ -5197,8 +5181,8 @@
       <c r="I52" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J52" s="4" t="s">
-        <v>1</v>
+      <c r="J52" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="K52" s="5" t="s">
         <v>15</v>
@@ -5301,20 +5285,20 @@
       <c r="I53" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J53" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="L53" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="M53" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="N53" s="4" t="s">
-        <v>1</v>
+      <c r="J53" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K53" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L53" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M53" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N53" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="O53" s="5" t="s">
         <v>15</v>
@@ -5794,14 +5778,14 @@
       </c>
     </row>
     <row r="58" spans="1:34">
-      <c r="A58" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>1</v>
+      <c r="A58" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>15</v>
@@ -5869,105 +5853,105 @@
       <c r="Y58" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Z58" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA58" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB58" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC58" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD58" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE58" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF58" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG58" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH58" s="4" t="s">
-        <v>1</v>
+      <c r="Z58" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA58" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB58" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC58" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD58" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE58" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF58" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG58" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH58" s="16" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:34">
-      <c r="A59" s="18"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
-      <c r="L59" s="18"/>
-      <c r="M59" s="18"/>
-      <c r="N59" s="18"/>
-      <c r="O59" s="18"/>
-      <c r="P59" s="18"/>
-      <c r="Q59" s="18"/>
-      <c r="R59" s="18"/>
-      <c r="S59" s="18"/>
-      <c r="T59" s="18"/>
-      <c r="U59" s="18"/>
-      <c r="V59" s="18"/>
-      <c r="W59" s="18"/>
-      <c r="X59" s="18"/>
-      <c r="Y59" s="18"/>
-      <c r="Z59" s="18"/>
-      <c r="AA59" s="18"/>
-      <c r="AB59" s="18"/>
-      <c r="AC59" s="18"/>
-      <c r="AD59" s="18"/>
-      <c r="AE59" s="18"/>
-      <c r="AF59" s="18"/>
-      <c r="AG59" s="18"/>
-      <c r="AH59" s="18"/>
+      <c r="A59" s="17"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
+      <c r="R59" s="17"/>
+      <c r="S59" s="17"/>
+      <c r="T59" s="17"/>
+      <c r="U59" s="17"/>
+      <c r="V59" s="17"/>
+      <c r="W59" s="17"/>
+      <c r="X59" s="17"/>
+      <c r="Y59" s="17"/>
+      <c r="Z59" s="17"/>
+      <c r="AA59" s="17"/>
+      <c r="AB59" s="17"/>
+      <c r="AC59" s="17"/>
+      <c r="AD59" s="17"/>
+      <c r="AE59" s="17"/>
+      <c r="AF59" s="17"/>
+      <c r="AG59" s="17"/>
+      <c r="AH59" s="17"/>
     </row>
     <row r="60" spans="1:34">
-      <c r="A60" s="18"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
-      <c r="K60" s="18"/>
-      <c r="L60" s="18"/>
-      <c r="M60" s="18"/>
-      <c r="N60" s="18"/>
-      <c r="O60" s="18"/>
-      <c r="P60" s="18"/>
-      <c r="Q60" s="18"/>
-      <c r="R60" s="18"/>
-      <c r="S60" s="18"/>
-      <c r="T60" s="18"/>
-      <c r="U60" s="18"/>
-      <c r="V60" s="18"/>
-      <c r="W60" s="18"/>
-      <c r="X60" s="18"/>
-      <c r="Y60" s="18"/>
-      <c r="Z60" s="18"/>
-      <c r="AA60" s="18"/>
-      <c r="AB60" s="18"/>
-      <c r="AC60" s="18"/>
-      <c r="AD60" s="18"/>
-      <c r="AE60" s="18"/>
-      <c r="AF60" s="18"/>
-      <c r="AG60" s="18"/>
-      <c r="AH60" s="18"/>
+      <c r="A60" s="17"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
+      <c r="R60" s="17"/>
+      <c r="S60" s="17"/>
+      <c r="T60" s="17"/>
+      <c r="U60" s="17"/>
+      <c r="V60" s="17"/>
+      <c r="W60" s="17"/>
+      <c r="X60" s="17"/>
+      <c r="Y60" s="17"/>
+      <c r="Z60" s="17"/>
+      <c r="AA60" s="17"/>
+      <c r="AB60" s="17"/>
+      <c r="AC60" s="17"/>
+      <c r="AD60" s="17"/>
+      <c r="AE60" s="17"/>
+      <c r="AF60" s="17"/>
+      <c r="AG60" s="17"/>
+      <c r="AH60" s="17"/>
     </row>
     <row r="61" spans="1:34">
       <c r="A61" t="s">
@@ -6115,2092 +6099,3112 @@
       <c r="AH63" s="1"/>
     </row>
     <row r="64" spans="1:34">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11"/>
-      <c r="K64" s="11"/>
-      <c r="L64" s="11"/>
-      <c r="M64" s="11"/>
-      <c r="N64" s="11"/>
-      <c r="O64" s="11"/>
-      <c r="P64" s="11"/>
-      <c r="Q64" s="11"/>
-      <c r="R64" s="11"/>
-      <c r="S64" s="11"/>
-      <c r="T64" s="11"/>
-      <c r="U64" s="11"/>
-      <c r="V64" s="11"/>
-      <c r="W64" s="11"/>
-      <c r="X64" s="11"/>
-      <c r="Y64" s="11"/>
-      <c r="Z64" s="11"/>
-      <c r="AA64" s="11"/>
-      <c r="AB64" s="11"/>
-      <c r="AC64" s="11"/>
-      <c r="AD64" s="11"/>
-      <c r="AE64" s="11"/>
-      <c r="AF64" s="11"/>
-      <c r="AG64" s="11"/>
-      <c r="AH64" s="11"/>
+      <c r="A64" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I64" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J64" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K64" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L64" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M64" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N64" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="O64" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P64" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q64" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="R64" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="S64" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="T64" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="U64" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="V64" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="W64" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="X64" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y64" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z64" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA64" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB64" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC64" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD64" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE64" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF64" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG64" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH64" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="65" spans="1:34">
-      <c r="A65" s="11"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="11"/>
-      <c r="K65" s="11"/>
-      <c r="L65" s="11"/>
-      <c r="M65" s="11"/>
-      <c r="N65" s="11"/>
-      <c r="O65" s="11"/>
-      <c r="P65" s="11"/>
-      <c r="Q65" s="11"/>
-      <c r="R65" s="11"/>
-      <c r="S65" s="11"/>
-      <c r="T65" s="11"/>
-      <c r="U65" s="11"/>
-      <c r="V65" s="11"/>
-      <c r="W65" s="11"/>
-      <c r="X65" s="11"/>
-      <c r="Y65" s="11"/>
-      <c r="Z65" s="11"/>
-      <c r="AA65" s="11"/>
-      <c r="AB65" s="11"/>
-      <c r="AC65" s="11"/>
-      <c r="AD65" s="11"/>
-      <c r="AE65" s="11"/>
-      <c r="AF65" s="11"/>
-      <c r="AG65" s="11"/>
-      <c r="AH65" s="11"/>
+      <c r="A65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH65" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="66" spans="1:34">
-      <c r="A66" s="11"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="11"/>
-      <c r="K66" s="11"/>
-      <c r="L66" s="11"/>
-      <c r="M66" s="11"/>
-      <c r="N66" s="11"/>
-      <c r="O66" s="11"/>
-      <c r="P66" s="11"/>
-      <c r="Q66" s="11"/>
-      <c r="R66" s="11"/>
-      <c r="S66" s="11"/>
-      <c r="T66" s="11"/>
-      <c r="U66" s="11"/>
-      <c r="V66" s="11"/>
-      <c r="W66" s="11"/>
-      <c r="X66" s="11"/>
-      <c r="Y66" s="11"/>
-      <c r="Z66" s="11"/>
-      <c r="AA66" s="11"/>
-      <c r="AB66" s="11"/>
-      <c r="AC66" s="11"/>
-      <c r="AD66" s="11"/>
-      <c r="AE66" s="11"/>
-      <c r="AF66" s="11"/>
-      <c r="AG66" s="11"/>
-      <c r="AH66" s="11"/>
+      <c r="A66" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N66" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O66" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P66" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R66" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S66" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T66" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U66" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V66" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W66" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X66" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y66" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z66" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA66" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB66" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC66" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD66" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE66" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF66" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG66" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH66" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="67" spans="1:34">
-      <c r="A67" s="11"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="11"/>
-      <c r="K67" s="11"/>
-      <c r="L67" s="11"/>
-      <c r="M67" s="11"/>
-      <c r="N67" s="11"/>
-      <c r="O67" s="11"/>
-      <c r="P67" s="11"/>
-      <c r="Q67" s="11"/>
-      <c r="R67" s="11"/>
-      <c r="S67" s="11"/>
-      <c r="T67" s="11"/>
-      <c r="U67" s="11"/>
-      <c r="V67" s="11"/>
-      <c r="W67" s="11"/>
-      <c r="X67" s="11"/>
-      <c r="Y67" s="11"/>
-      <c r="Z67" s="11"/>
-      <c r="AA67" s="11"/>
-      <c r="AB67" s="11"/>
-      <c r="AC67" s="11"/>
-      <c r="AD67" s="11"/>
-      <c r="AE67" s="11"/>
-      <c r="AF67" s="11"/>
-      <c r="AG67" s="11"/>
-      <c r="AH67" s="11"/>
+      <c r="A67" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L67" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M67" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N67" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O67" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P67" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q67" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R67" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S67" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T67" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U67" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V67" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="W67" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="X67" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y67" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z67" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA67" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB67" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC67" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD67" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE67" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF67" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG67" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH67" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="68" spans="1:34">
-      <c r="A68" s="11"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="11"/>
-      <c r="K68" s="11"/>
-      <c r="L68" s="11"/>
-      <c r="M68" s="11"/>
-      <c r="N68" s="11"/>
-      <c r="O68" s="11"/>
-      <c r="P68" s="11"/>
-      <c r="Q68" s="11"/>
-      <c r="R68" s="11"/>
-      <c r="S68" s="11"/>
-      <c r="T68" s="11"/>
-      <c r="U68" s="11"/>
-      <c r="V68" s="11"/>
-      <c r="W68" s="11"/>
-      <c r="X68" s="11"/>
-      <c r="Y68" s="11"/>
-      <c r="Z68" s="11"/>
-      <c r="AA68" s="11"/>
-      <c r="AB68" s="11"/>
-      <c r="AC68" s="11"/>
-      <c r="AD68" s="11"/>
-      <c r="AE68" s="11"/>
-      <c r="AF68" s="11"/>
-      <c r="AG68" s="11"/>
-      <c r="AH68" s="11"/>
+      <c r="A68" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L68" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M68" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N68" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O68" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P68" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R68" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S68" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T68" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U68" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V68" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="W68" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="X68" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y68" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z68" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA68" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB68" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC68" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD68" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE68" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF68" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG68" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH68" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" spans="1:34">
-      <c r="A69" s="11"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="11"/>
-      <c r="J69" s="11"/>
-      <c r="K69" s="11"/>
-      <c r="L69" s="11"/>
-      <c r="M69" s="11"/>
-      <c r="N69" s="11"/>
-      <c r="O69" s="11"/>
-      <c r="P69" s="11"/>
-      <c r="Q69" s="11"/>
-      <c r="R69" s="11"/>
-      <c r="S69" s="11"/>
-      <c r="T69" s="11"/>
-      <c r="U69" s="11"/>
-      <c r="V69" s="11"/>
-      <c r="W69" s="11"/>
-      <c r="X69" s="11"/>
-      <c r="Y69" s="11"/>
-      <c r="Z69" s="11"/>
-      <c r="AA69" s="11"/>
-      <c r="AB69" s="11"/>
-      <c r="AC69" s="11"/>
-      <c r="AD69" s="11"/>
-      <c r="AE69" s="11"/>
-      <c r="AF69" s="11"/>
-      <c r="AG69" s="11"/>
-      <c r="AH69" s="11"/>
+      <c r="A69" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L69" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M69" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N69" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O69" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P69" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q69" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R69" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S69" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T69" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U69" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V69" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="W69" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="X69" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y69" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z69" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA69" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB69" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC69" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD69" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE69" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF69" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG69" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH69" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="1:34">
-      <c r="A70" s="11"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
-      <c r="J70" s="11"/>
-      <c r="K70" s="11"/>
-      <c r="L70" s="11"/>
-      <c r="M70" s="11"/>
-      <c r="N70" s="11"/>
-      <c r="O70" s="11"/>
-      <c r="P70" s="11"/>
-      <c r="Q70" s="11"/>
-      <c r="R70" s="11"/>
-      <c r="S70" s="11"/>
-      <c r="T70" s="11"/>
-      <c r="U70" s="11"/>
-      <c r="V70" s="11"/>
-      <c r="W70" s="11"/>
-      <c r="X70" s="11"/>
-      <c r="Y70" s="11"/>
-      <c r="Z70" s="11"/>
-      <c r="AA70" s="11"/>
-      <c r="AB70" s="11"/>
-      <c r="AC70" s="11"/>
-      <c r="AD70" s="11"/>
-      <c r="AE70" s="11"/>
-      <c r="AF70" s="11"/>
-      <c r="AG70" s="11"/>
-      <c r="AH70" s="11"/>
+      <c r="A70" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L70" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M70" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N70" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O70" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P70" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R70" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S70" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T70" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U70" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V70" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W70" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X70" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y70" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z70" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA70" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB70" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC70" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD70" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE70" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF70" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG70" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH70" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" spans="1:34">
-      <c r="A71" s="11"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="11"/>
-      <c r="J71" s="11"/>
-      <c r="K71" s="11"/>
-      <c r="L71" s="11"/>
-      <c r="M71" s="11"/>
-      <c r="N71" s="11"/>
-      <c r="O71" s="11"/>
-      <c r="P71" s="11"/>
-      <c r="Q71" s="11"/>
-      <c r="R71" s="11"/>
-      <c r="S71" s="11"/>
-      <c r="T71" s="11"/>
-      <c r="U71" s="11"/>
-      <c r="V71" s="11"/>
-      <c r="W71" s="11"/>
-      <c r="X71" s="11"/>
-      <c r="Y71" s="11"/>
-      <c r="Z71" s="11"/>
-      <c r="AA71" s="11"/>
-      <c r="AB71" s="11"/>
-      <c r="AC71" s="11"/>
-      <c r="AD71" s="11"/>
-      <c r="AE71" s="11"/>
-      <c r="AF71" s="11"/>
-      <c r="AG71" s="11"/>
-      <c r="AH71" s="11"/>
+      <c r="A71" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L71" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M71" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N71" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O71" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P71" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R71" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S71" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T71" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U71" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V71" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W71" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X71" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y71" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z71" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA71" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB71" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC71" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD71" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE71" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF71" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG71" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH71" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="72" spans="1:34">
-      <c r="A72" s="11"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11"/>
-      <c r="J72" s="11"/>
-      <c r="K72" s="11"/>
-      <c r="L72" s="11"/>
-      <c r="M72" s="11"/>
-      <c r="N72" s="11"/>
-      <c r="O72" s="11"/>
-      <c r="P72" s="11"/>
-      <c r="Q72" s="11"/>
-      <c r="R72" s="11"/>
-      <c r="S72" s="11"/>
-      <c r="T72" s="11"/>
-      <c r="U72" s="11"/>
-      <c r="V72" s="11"/>
-      <c r="W72" s="11"/>
-      <c r="X72" s="11"/>
-      <c r="Y72" s="11"/>
-      <c r="Z72" s="11"/>
-      <c r="AA72" s="11"/>
-      <c r="AB72" s="11"/>
-      <c r="AC72" s="11"/>
-      <c r="AD72" s="11"/>
-      <c r="AE72" s="11"/>
-      <c r="AF72" s="11"/>
-      <c r="AG72" s="11"/>
-      <c r="AH72" s="11"/>
+      <c r="A72" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L72" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M72" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N72" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O72" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P72" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R72" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S72" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T72" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U72" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V72" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W72" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X72" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y72" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z72" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA72" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB72" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC72" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD72" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE72" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF72" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG72" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH72" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" spans="1:34">
-      <c r="A73" s="11"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="11"/>
-      <c r="K73" s="11"/>
-      <c r="L73" s="11"/>
-      <c r="M73" s="11"/>
-      <c r="N73" s="11"/>
-      <c r="O73" s="11"/>
-      <c r="P73" s="11"/>
-      <c r="Q73" s="11"/>
-      <c r="R73" s="11"/>
-      <c r="S73" s="11"/>
-      <c r="T73" s="11"/>
-      <c r="U73" s="11"/>
-      <c r="V73" s="11"/>
-      <c r="W73" s="11"/>
-      <c r="X73" s="11"/>
-      <c r="Y73" s="11"/>
-      <c r="Z73" s="11"/>
-      <c r="AA73" s="11"/>
-      <c r="AB73" s="11"/>
-      <c r="AC73" s="11"/>
-      <c r="AD73" s="11"/>
-      <c r="AE73" s="11"/>
-      <c r="AF73" s="11"/>
-      <c r="AG73" s="11"/>
-      <c r="AH73" s="11"/>
+      <c r="A73" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L73" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M73" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N73" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O73" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P73" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R73" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S73" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T73" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U73" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V73" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W73" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X73" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y73" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z73" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA73" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB73" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC73" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD73" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE73" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF73" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG73" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH73" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="74" spans="1:34">
-      <c r="A74" s="11"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="11"/>
-      <c r="I74" s="11"/>
-      <c r="J74" s="11"/>
-      <c r="K74" s="11"/>
-      <c r="L74" s="11"/>
-      <c r="M74" s="11"/>
-      <c r="N74" s="11"/>
-      <c r="O74" s="11"/>
-      <c r="P74" s="11"/>
-      <c r="Q74" s="11"/>
-      <c r="R74" s="11"/>
-      <c r="S74" s="11"/>
-      <c r="T74" s="11"/>
-      <c r="U74" s="11"/>
-      <c r="V74" s="11"/>
-      <c r="W74" s="11"/>
-      <c r="X74" s="11"/>
-      <c r="Y74" s="11"/>
-      <c r="Z74" s="11"/>
-      <c r="AA74" s="11"/>
-      <c r="AB74" s="11"/>
-      <c r="AC74" s="11"/>
-      <c r="AD74" s="11"/>
-      <c r="AE74" s="11"/>
-      <c r="AF74" s="11"/>
-      <c r="AG74" s="11"/>
-      <c r="AH74" s="11"/>
+      <c r="A74" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L74" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M74" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N74" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O74" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P74" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R74" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S74" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T74" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U74" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V74" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W74" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X74" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y74" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z74" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA74" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB74" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC74" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD74" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE74" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF74" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG74" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH74" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="75" spans="1:34">
-      <c r="A75" s="11"/>
-      <c r="B75" s="11"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="11"/>
-      <c r="J75" s="11"/>
-      <c r="K75" s="11"/>
-      <c r="L75" s="11"/>
-      <c r="M75" s="11"/>
-      <c r="N75" s="11"/>
-      <c r="O75" s="11"/>
-      <c r="P75" s="11"/>
-      <c r="Q75" s="11"/>
-      <c r="R75" s="11"/>
-      <c r="S75" s="11"/>
-      <c r="T75" s="11"/>
-      <c r="U75" s="11"/>
-      <c r="V75" s="11"/>
-      <c r="W75" s="11"/>
-      <c r="X75" s="11"/>
-      <c r="Y75" s="11"/>
-      <c r="Z75" s="11"/>
-      <c r="AA75" s="11"/>
-      <c r="AB75" s="11"/>
-      <c r="AC75" s="11"/>
-      <c r="AD75" s="11"/>
-      <c r="AE75" s="11"/>
-      <c r="AF75" s="11"/>
-      <c r="AG75" s="11"/>
-      <c r="AH75" s="11"/>
+      <c r="A75" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L75" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M75" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N75" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O75" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P75" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q75" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R75" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S75" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T75" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U75" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V75" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W75" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X75" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y75" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z75" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA75" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB75" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC75" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD75" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE75" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF75" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG75" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH75" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="76" spans="1:34">
-      <c r="A76" s="11"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
-      <c r="I76" s="11"/>
-      <c r="J76" s="11"/>
-      <c r="K76" s="11"/>
-      <c r="L76" s="11"/>
-      <c r="M76" s="11"/>
-      <c r="N76" s="11"/>
-      <c r="O76" s="11"/>
-      <c r="P76" s="11"/>
-      <c r="Q76" s="11"/>
-      <c r="R76" s="11"/>
-      <c r="S76" s="11"/>
-      <c r="T76" s="11"/>
-      <c r="U76" s="11"/>
-      <c r="V76" s="11"/>
-      <c r="W76" s="11"/>
-      <c r="X76" s="11"/>
-      <c r="Y76" s="11"/>
-      <c r="Z76" s="11"/>
-      <c r="AA76" s="11"/>
-      <c r="AB76" s="11"/>
-      <c r="AC76" s="11"/>
-      <c r="AD76" s="11"/>
-      <c r="AE76" s="11"/>
-      <c r="AF76" s="11"/>
-      <c r="AG76" s="11"/>
-      <c r="AH76" s="11"/>
+      <c r="A76" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I76" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J76" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K76" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L76" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M76" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="N76" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O76" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="P76" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q76" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="R76" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="S76" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="T76" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="U76" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="V76" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="W76" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="X76" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y76" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z76" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA76" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB76" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC76" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD76" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE76" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF76" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG76" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH76" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="77" spans="1:34">
-      <c r="A77" s="11"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11"/>
-      <c r="J77" s="11"/>
-      <c r="K77" s="11"/>
-      <c r="L77" s="11"/>
-      <c r="M77" s="11"/>
-      <c r="N77" s="11"/>
-      <c r="O77" s="11"/>
-      <c r="P77" s="11"/>
-      <c r="Q77" s="11"/>
-      <c r="R77" s="11"/>
-      <c r="S77" s="11"/>
-      <c r="T77" s="11"/>
-      <c r="U77" s="11"/>
-      <c r="V77" s="11"/>
-      <c r="W77" s="11"/>
-      <c r="X77" s="11"/>
-      <c r="Y77" s="11"/>
-      <c r="Z77" s="11"/>
-      <c r="AA77" s="11"/>
-      <c r="AB77" s="11"/>
-      <c r="AC77" s="11"/>
-      <c r="AD77" s="11"/>
-      <c r="AE77" s="11"/>
-      <c r="AF77" s="11"/>
-      <c r="AG77" s="11"/>
-      <c r="AH77" s="11"/>
+      <c r="A77" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I77" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J77" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K77" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L77" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M77" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N77" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O77" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P77" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q77" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="R77" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="S77" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="T77" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="U77" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="V77" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="W77" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="X77" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y77" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z77" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA77" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB77" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC77" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD77" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE77" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF77" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG77" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH77" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="78" spans="1:34">
-      <c r="A78" s="11"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="11"/>
-      <c r="J78" s="11"/>
-      <c r="K78" s="11"/>
-      <c r="L78" s="11"/>
-      <c r="M78" s="11"/>
-      <c r="N78" s="11"/>
-      <c r="O78" s="11"/>
-      <c r="P78" s="11"/>
-      <c r="Q78" s="11"/>
-      <c r="R78" s="11"/>
-      <c r="S78" s="11"/>
-      <c r="T78" s="11"/>
-      <c r="U78" s="11"/>
-      <c r="V78" s="11"/>
-      <c r="W78" s="11"/>
-      <c r="X78" s="11"/>
-      <c r="Y78" s="11"/>
-      <c r="Z78" s="11"/>
-      <c r="AA78" s="11"/>
-      <c r="AB78" s="11"/>
-      <c r="AC78" s="11"/>
-      <c r="AD78" s="11"/>
-      <c r="AE78" s="11"/>
-      <c r="AF78" s="11"/>
-      <c r="AG78" s="11"/>
-      <c r="AH78" s="11"/>
+      <c r="A78" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I78" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J78" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K78" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L78" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M78" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N78" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O78" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P78" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q78" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="R78" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="S78" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="T78" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="U78" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="V78" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="W78" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="X78" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y78" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z78" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA78" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB78" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC78" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD78" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE78" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF78" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG78" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH78" s="16" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="79" spans="1:34">
-      <c r="A79" s="18"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="18"/>
-      <c r="J79" s="18"/>
-      <c r="K79" s="18"/>
-      <c r="L79" s="18"/>
-      <c r="M79" s="18"/>
-      <c r="N79" s="18"/>
-      <c r="O79" s="18"/>
-      <c r="P79" s="18"/>
-      <c r="Q79" s="18"/>
-      <c r="R79" s="18"/>
-      <c r="S79" s="18"/>
-      <c r="T79" s="18"/>
-      <c r="U79" s="18"/>
-      <c r="V79" s="18"/>
-      <c r="W79" s="18"/>
-      <c r="X79" s="18"/>
-      <c r="Y79" s="18"/>
-      <c r="Z79" s="18"/>
-      <c r="AA79" s="18"/>
-      <c r="AB79" s="18"/>
-      <c r="AC79" s="18"/>
-      <c r="AD79" s="18"/>
-      <c r="AE79" s="18"/>
-      <c r="AF79" s="18"/>
-      <c r="AG79" s="18"/>
-      <c r="AH79" s="18"/>
+      <c r="A79" s="17"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="17"/>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
+      <c r="R79" s="17"/>
+      <c r="S79" s="17"/>
+      <c r="T79" s="17"/>
+      <c r="U79" s="17"/>
+      <c r="V79" s="17"/>
+      <c r="W79" s="17"/>
+      <c r="X79" s="17"/>
+      <c r="Y79" s="17"/>
+      <c r="Z79" s="17"/>
+      <c r="AA79" s="17"/>
+      <c r="AB79" s="17"/>
+      <c r="AC79" s="17"/>
+      <c r="AD79" s="17"/>
+      <c r="AE79" s="17"/>
+      <c r="AF79" s="17"/>
+      <c r="AG79" s="17"/>
+      <c r="AH79" s="17"/>
     </row>
     <row r="80" spans="1:34">
-      <c r="A80" s="18"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
-      <c r="I80" s="18"/>
-      <c r="J80" s="18"/>
-      <c r="K80" s="18"/>
-      <c r="L80" s="18"/>
-      <c r="M80" s="18"/>
-      <c r="N80" s="18"/>
-      <c r="O80" s="18"/>
-      <c r="P80" s="18"/>
-      <c r="Q80" s="18"/>
-      <c r="R80" s="18"/>
-      <c r="S80" s="18"/>
-      <c r="T80" s="18"/>
-      <c r="U80" s="18"/>
-      <c r="V80" s="18"/>
-      <c r="W80" s="18"/>
-      <c r="X80" s="18"/>
-      <c r="Y80" s="18"/>
-      <c r="Z80" s="18"/>
-      <c r="AA80" s="18"/>
-      <c r="AB80" s="18"/>
-      <c r="AC80" s="18"/>
-      <c r="AD80" s="18"/>
-      <c r="AE80" s="18"/>
-      <c r="AF80" s="18"/>
-      <c r="AG80" s="18"/>
-      <c r="AH80" s="18"/>
+      <c r="A80" s="17"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="17"/>
+      <c r="K80" s="17"/>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
+      <c r="R80" s="17"/>
+      <c r="S80" s="17"/>
+      <c r="T80" s="17"/>
+      <c r="U80" s="17"/>
+      <c r="V80" s="17"/>
+      <c r="W80" s="17"/>
+      <c r="X80" s="17"/>
+      <c r="Y80" s="17"/>
+      <c r="Z80" s="17"/>
+      <c r="AA80" s="17"/>
+      <c r="AB80" s="17"/>
+      <c r="AC80" s="17"/>
+      <c r="AD80" s="17"/>
+      <c r="AE80" s="17"/>
+      <c r="AF80" s="17"/>
+      <c r="AG80" s="17"/>
+      <c r="AH80" s="17"/>
     </row>
     <row r="81" spans="1:34">
-      <c r="A81" s="18"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="18"/>
-      <c r="J81" s="18"/>
-      <c r="K81" s="18"/>
-      <c r="L81" s="18"/>
-      <c r="M81" s="18"/>
-      <c r="N81" s="18"/>
-      <c r="O81" s="18"/>
-      <c r="P81" s="18"/>
-      <c r="Q81" s="18"/>
-      <c r="R81" s="18"/>
-      <c r="S81" s="18"/>
-      <c r="T81" s="18"/>
-      <c r="U81" s="18"/>
-      <c r="V81" s="18"/>
-      <c r="W81" s="18"/>
-      <c r="X81" s="18"/>
-      <c r="Y81" s="18"/>
-      <c r="Z81" s="18"/>
-      <c r="AA81" s="18"/>
-      <c r="AB81" s="18"/>
-      <c r="AC81" s="18"/>
-      <c r="AD81" s="18"/>
-      <c r="AE81" s="18"/>
-      <c r="AF81" s="18"/>
-      <c r="AG81" s="18"/>
-      <c r="AH81" s="18"/>
+      <c r="A81" s="17"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="17"/>
+      <c r="K81" s="17"/>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
+      <c r="R81" s="17"/>
+      <c r="S81" s="17"/>
+      <c r="T81" s="17"/>
+      <c r="U81" s="17"/>
+      <c r="V81" s="17"/>
+      <c r="W81" s="17"/>
+      <c r="X81" s="17"/>
+      <c r="Y81" s="17"/>
+      <c r="Z81" s="17"/>
+      <c r="AA81" s="17"/>
+      <c r="AB81" s="17"/>
+      <c r="AC81" s="17"/>
+      <c r="AD81" s="17"/>
+      <c r="AE81" s="17"/>
+      <c r="AF81" s="17"/>
+      <c r="AG81" s="17"/>
+      <c r="AH81" s="17"/>
     </row>
     <row r="82" spans="1:34">
-      <c r="A82" s="18"/>
-      <c r="B82" s="18"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="18"/>
-      <c r="I82" s="18"/>
-      <c r="J82" s="18"/>
-      <c r="K82" s="18"/>
-      <c r="L82" s="18"/>
-      <c r="M82" s="18"/>
-      <c r="N82" s="18"/>
-      <c r="O82" s="18"/>
-      <c r="P82" s="18"/>
-      <c r="Q82" s="18"/>
-      <c r="R82" s="18"/>
-      <c r="S82" s="18"/>
-      <c r="T82" s="18"/>
-      <c r="U82" s="18"/>
-      <c r="V82" s="18"/>
-      <c r="W82" s="18"/>
-      <c r="X82" s="18"/>
-      <c r="Y82" s="18"/>
-      <c r="Z82" s="18"/>
-      <c r="AA82" s="18"/>
-      <c r="AB82" s="18"/>
-      <c r="AC82" s="18"/>
-      <c r="AD82" s="18"/>
-      <c r="AE82" s="18"/>
-      <c r="AF82" s="18"/>
-      <c r="AG82" s="18"/>
-      <c r="AH82" s="18"/>
+      <c r="A82" s="17"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="17"/>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
+      <c r="R82" s="17"/>
+      <c r="S82" s="17"/>
+      <c r="T82" s="17"/>
+      <c r="U82" s="17"/>
+      <c r="V82" s="17"/>
+      <c r="W82" s="17"/>
+      <c r="X82" s="17"/>
+      <c r="Y82" s="17"/>
+      <c r="Z82" s="17"/>
+      <c r="AA82" s="17"/>
+      <c r="AB82" s="17"/>
+      <c r="AC82" s="17"/>
+      <c r="AD82" s="17"/>
+      <c r="AE82" s="17"/>
+      <c r="AF82" s="17"/>
+      <c r="AG82" s="17"/>
+      <c r="AH82" s="17"/>
     </row>
     <row r="83" spans="1:34">
-      <c r="A83" s="18"/>
-      <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="18"/>
-      <c r="I83" s="18"/>
-      <c r="J83" s="18"/>
-      <c r="K83" s="18"/>
-      <c r="L83" s="18"/>
-      <c r="M83" s="18"/>
-      <c r="N83" s="18"/>
-      <c r="O83" s="18"/>
-      <c r="P83" s="18"/>
-      <c r="Q83" s="18"/>
-      <c r="R83" s="18"/>
-      <c r="S83" s="18"/>
-      <c r="T83" s="18"/>
-      <c r="U83" s="18"/>
-      <c r="V83" s="18"/>
-      <c r="W83" s="18"/>
-      <c r="X83" s="18"/>
-      <c r="Y83" s="18"/>
-      <c r="Z83" s="18"/>
-      <c r="AA83" s="18"/>
-      <c r="AB83" s="18"/>
-      <c r="AC83" s="18"/>
-      <c r="AD83" s="18"/>
-      <c r="AE83" s="18"/>
-      <c r="AF83" s="18"/>
-      <c r="AG83" s="18"/>
-      <c r="AH83" s="18"/>
+      <c r="A83" s="17"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="17"/>
+      <c r="K83" s="17"/>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
+      <c r="R83" s="17"/>
+      <c r="S83" s="17"/>
+      <c r="T83" s="17"/>
+      <c r="U83" s="17"/>
+      <c r="V83" s="17"/>
+      <c r="W83" s="17"/>
+      <c r="X83" s="17"/>
+      <c r="Y83" s="17"/>
+      <c r="Z83" s="17"/>
+      <c r="AA83" s="17"/>
+      <c r="AB83" s="17"/>
+      <c r="AC83" s="17"/>
+      <c r="AD83" s="17"/>
+      <c r="AE83" s="17"/>
+      <c r="AF83" s="17"/>
+      <c r="AG83" s="17"/>
+      <c r="AH83" s="17"/>
     </row>
     <row r="84" spans="1:34">
-      <c r="A84" s="18"/>
-      <c r="B84" s="18"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="18"/>
-      <c r="I84" s="18"/>
-      <c r="J84" s="18"/>
-      <c r="K84" s="18"/>
-      <c r="L84" s="18"/>
-      <c r="M84" s="18"/>
-      <c r="N84" s="18"/>
-      <c r="O84" s="18"/>
-      <c r="P84" s="18"/>
-      <c r="Q84" s="18"/>
-      <c r="R84" s="18"/>
-      <c r="S84" s="18"/>
-      <c r="T84" s="18"/>
-      <c r="U84" s="18"/>
-      <c r="V84" s="18"/>
-      <c r="W84" s="18"/>
-      <c r="X84" s="18"/>
-      <c r="Y84" s="18"/>
-      <c r="Z84" s="18"/>
-      <c r="AA84" s="18"/>
-      <c r="AB84" s="18"/>
-      <c r="AC84" s="18"/>
-      <c r="AD84" s="18"/>
-      <c r="AE84" s="18"/>
-      <c r="AF84" s="18"/>
-      <c r="AG84" s="18"/>
-      <c r="AH84" s="18"/>
+      <c r="A84" s="17"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="17"/>
+      <c r="K84" s="17"/>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
+      <c r="R84" s="17"/>
+      <c r="S84" s="17"/>
+      <c r="T84" s="17"/>
+      <c r="U84" s="17"/>
+      <c r="V84" s="17"/>
+      <c r="W84" s="17"/>
+      <c r="X84" s="17"/>
+      <c r="Y84" s="17"/>
+      <c r="Z84" s="17"/>
+      <c r="AA84" s="17"/>
+      <c r="AB84" s="17"/>
+      <c r="AC84" s="17"/>
+      <c r="AD84" s="17"/>
+      <c r="AE84" s="17"/>
+      <c r="AF84" s="17"/>
+      <c r="AG84" s="17"/>
+      <c r="AH84" s="17"/>
     </row>
     <row r="85" spans="1:34">
-      <c r="A85" s="18"/>
-      <c r="B85" s="18"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="18"/>
-      <c r="H85" s="18"/>
-      <c r="I85" s="18"/>
-      <c r="J85" s="18"/>
-      <c r="K85" s="18"/>
-      <c r="L85" s="18"/>
-      <c r="M85" s="18"/>
-      <c r="N85" s="18"/>
-      <c r="O85" s="18"/>
-      <c r="P85" s="18"/>
-      <c r="Q85" s="18"/>
-      <c r="R85" s="18"/>
-      <c r="S85" s="18"/>
-      <c r="T85" s="18"/>
-      <c r="U85" s="18"/>
-      <c r="V85" s="18"/>
-      <c r="W85" s="18"/>
-      <c r="X85" s="18"/>
-      <c r="Y85" s="18"/>
-      <c r="Z85" s="18"/>
-      <c r="AA85" s="18"/>
-      <c r="AB85" s="18"/>
-      <c r="AC85" s="18"/>
-      <c r="AD85" s="18"/>
-      <c r="AE85" s="18"/>
-      <c r="AF85" s="18"/>
-      <c r="AG85" s="18"/>
-      <c r="AH85" s="18"/>
+      <c r="A85" s="17"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="17"/>
+      <c r="J85" s="17"/>
+      <c r="K85" s="17"/>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
+      <c r="R85" s="17"/>
+      <c r="S85" s="17"/>
+      <c r="T85" s="17"/>
+      <c r="U85" s="17"/>
+      <c r="V85" s="17"/>
+      <c r="W85" s="17"/>
+      <c r="X85" s="17"/>
+      <c r="Y85" s="17"/>
+      <c r="Z85" s="17"/>
+      <c r="AA85" s="17"/>
+      <c r="AB85" s="17"/>
+      <c r="AC85" s="17"/>
+      <c r="AD85" s="17"/>
+      <c r="AE85" s="17"/>
+      <c r="AF85" s="17"/>
+      <c r="AG85" s="17"/>
+      <c r="AH85" s="17"/>
     </row>
     <row r="86" spans="1:34">
-      <c r="A86" s="18"/>
-      <c r="B86" s="18"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="18"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="18"/>
-      <c r="H86" s="18"/>
-      <c r="I86" s="18"/>
-      <c r="J86" s="18"/>
-      <c r="K86" s="18"/>
-      <c r="L86" s="18"/>
-      <c r="M86" s="18"/>
-      <c r="N86" s="18"/>
-      <c r="O86" s="18"/>
-      <c r="P86" s="18"/>
-      <c r="Q86" s="18"/>
-      <c r="R86" s="18"/>
-      <c r="S86" s="18"/>
-      <c r="T86" s="18"/>
-      <c r="U86" s="18"/>
-      <c r="V86" s="18"/>
-      <c r="W86" s="18"/>
-      <c r="X86" s="18"/>
-      <c r="Y86" s="18"/>
-      <c r="Z86" s="18"/>
-      <c r="AA86" s="18"/>
-      <c r="AB86" s="18"/>
-      <c r="AC86" s="18"/>
-      <c r="AD86" s="18"/>
-      <c r="AE86" s="18"/>
-      <c r="AF86" s="18"/>
-      <c r="AG86" s="18"/>
-      <c r="AH86" s="18"/>
+      <c r="A86" s="17"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="17"/>
+      <c r="J86" s="17"/>
+      <c r="K86" s="17"/>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
+      <c r="R86" s="17"/>
+      <c r="S86" s="17"/>
+      <c r="T86" s="17"/>
+      <c r="U86" s="17"/>
+      <c r="V86" s="17"/>
+      <c r="W86" s="17"/>
+      <c r="X86" s="17"/>
+      <c r="Y86" s="17"/>
+      <c r="Z86" s="17"/>
+      <c r="AA86" s="17"/>
+      <c r="AB86" s="17"/>
+      <c r="AC86" s="17"/>
+      <c r="AD86" s="17"/>
+      <c r="AE86" s="17"/>
+      <c r="AF86" s="17"/>
+      <c r="AG86" s="17"/>
+      <c r="AH86" s="17"/>
     </row>
     <row r="87" spans="1:34">
-      <c r="A87" s="18"/>
-      <c r="B87" s="18"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="18"/>
-      <c r="H87" s="18"/>
-      <c r="I87" s="18"/>
-      <c r="J87" s="18"/>
-      <c r="K87" s="18"/>
-      <c r="L87" s="18"/>
-      <c r="M87" s="18"/>
-      <c r="N87" s="18"/>
-      <c r="O87" s="18"/>
-      <c r="P87" s="18"/>
-      <c r="Q87" s="18"/>
-      <c r="R87" s="18"/>
-      <c r="S87" s="18"/>
-      <c r="T87" s="18"/>
-      <c r="U87" s="18"/>
-      <c r="V87" s="18"/>
-      <c r="W87" s="18"/>
-      <c r="X87" s="18"/>
-      <c r="Y87" s="18"/>
-      <c r="Z87" s="18"/>
-      <c r="AA87" s="18"/>
-      <c r="AB87" s="18"/>
-      <c r="AC87" s="18"/>
-      <c r="AD87" s="18"/>
-      <c r="AE87" s="18"/>
-      <c r="AF87" s="18"/>
-      <c r="AG87" s="18"/>
-      <c r="AH87" s="18"/>
+      <c r="A87" s="17"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="17"/>
+      <c r="J87" s="17"/>
+      <c r="K87" s="17"/>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="17"/>
+      <c r="P87" s="17"/>
+      <c r="Q87" s="17"/>
+      <c r="R87" s="17"/>
+      <c r="S87" s="17"/>
+      <c r="T87" s="17"/>
+      <c r="U87" s="17"/>
+      <c r="V87" s="17"/>
+      <c r="W87" s="17"/>
+      <c r="X87" s="17"/>
+      <c r="Y87" s="17"/>
+      <c r="Z87" s="17"/>
+      <c r="AA87" s="17"/>
+      <c r="AB87" s="17"/>
+      <c r="AC87" s="17"/>
+      <c r="AD87" s="17"/>
+      <c r="AE87" s="17"/>
+      <c r="AF87" s="17"/>
+      <c r="AG87" s="17"/>
+      <c r="AH87" s="17"/>
     </row>
     <row r="88" spans="1:34">
-      <c r="A88" s="18"/>
-      <c r="B88" s="18"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="18"/>
-      <c r="H88" s="18"/>
-      <c r="I88" s="18"/>
-      <c r="J88" s="18"/>
-      <c r="K88" s="18"/>
-      <c r="L88" s="18"/>
-      <c r="M88" s="18"/>
-      <c r="N88" s="18"/>
-      <c r="O88" s="18"/>
-      <c r="P88" s="18"/>
-      <c r="Q88" s="18"/>
-      <c r="R88" s="18"/>
-      <c r="S88" s="18"/>
-      <c r="T88" s="18"/>
-      <c r="U88" s="18"/>
-      <c r="V88" s="18"/>
-      <c r="W88" s="18"/>
-      <c r="X88" s="18"/>
-      <c r="Y88" s="18"/>
-      <c r="Z88" s="18"/>
-      <c r="AA88" s="18"/>
-      <c r="AB88" s="18"/>
-      <c r="AC88" s="18"/>
-      <c r="AD88" s="18"/>
-      <c r="AE88" s="18"/>
-      <c r="AF88" s="18"/>
-      <c r="AG88" s="18"/>
-      <c r="AH88" s="18"/>
+      <c r="A88" s="17"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
+      <c r="R88" s="17"/>
+      <c r="S88" s="17"/>
+      <c r="T88" s="17"/>
+      <c r="U88" s="17"/>
+      <c r="V88" s="17"/>
+      <c r="W88" s="17"/>
+      <c r="X88" s="17"/>
+      <c r="Y88" s="17"/>
+      <c r="Z88" s="17"/>
+      <c r="AA88" s="17"/>
+      <c r="AB88" s="17"/>
+      <c r="AC88" s="17"/>
+      <c r="AD88" s="17"/>
+      <c r="AE88" s="17"/>
+      <c r="AF88" s="17"/>
+      <c r="AG88" s="17"/>
+      <c r="AH88" s="17"/>
     </row>
     <row r="89" spans="1:34">
-      <c r="A89" s="18"/>
-      <c r="B89" s="18"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="18"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="18"/>
-      <c r="H89" s="18"/>
-      <c r="I89" s="18"/>
-      <c r="J89" s="18"/>
-      <c r="K89" s="18"/>
-      <c r="L89" s="18"/>
-      <c r="M89" s="18"/>
-      <c r="N89" s="18"/>
-      <c r="O89" s="18"/>
-      <c r="P89" s="18"/>
-      <c r="Q89" s="18"/>
-      <c r="R89" s="18"/>
-      <c r="S89" s="18"/>
-      <c r="T89" s="18"/>
-      <c r="U89" s="18"/>
-      <c r="V89" s="18"/>
-      <c r="W89" s="18"/>
-      <c r="X89" s="18"/>
-      <c r="Y89" s="18"/>
-      <c r="Z89" s="18"/>
-      <c r="AA89" s="18"/>
-      <c r="AB89" s="18"/>
-      <c r="AC89" s="18"/>
-      <c r="AD89" s="18"/>
-      <c r="AE89" s="18"/>
-      <c r="AF89" s="18"/>
-      <c r="AG89" s="18"/>
-      <c r="AH89" s="18"/>
+      <c r="A89" s="17"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="17"/>
+      <c r="K89" s="17"/>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
+      <c r="R89" s="17"/>
+      <c r="S89" s="17"/>
+      <c r="T89" s="17"/>
+      <c r="U89" s="17"/>
+      <c r="V89" s="17"/>
+      <c r="W89" s="17"/>
+      <c r="X89" s="17"/>
+      <c r="Y89" s="17"/>
+      <c r="Z89" s="17"/>
+      <c r="AA89" s="17"/>
+      <c r="AB89" s="17"/>
+      <c r="AC89" s="17"/>
+      <c r="AD89" s="17"/>
+      <c r="AE89" s="17"/>
+      <c r="AF89" s="17"/>
+      <c r="AG89" s="17"/>
+      <c r="AH89" s="17"/>
     </row>
     <row r="90" spans="1:34">
-      <c r="A90" s="18"/>
-      <c r="B90" s="18"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="18"/>
-      <c r="H90" s="18"/>
-      <c r="I90" s="18"/>
-      <c r="J90" s="18"/>
-      <c r="K90" s="18"/>
-      <c r="L90" s="18"/>
-      <c r="M90" s="18"/>
-      <c r="N90" s="18"/>
-      <c r="O90" s="18"/>
-      <c r="P90" s="18"/>
-      <c r="Q90" s="18"/>
-      <c r="R90" s="18"/>
-      <c r="S90" s="18"/>
-      <c r="T90" s="18"/>
-      <c r="U90" s="18"/>
-      <c r="V90" s="18"/>
-      <c r="W90" s="18"/>
-      <c r="X90" s="18"/>
-      <c r="Y90" s="18"/>
-      <c r="Z90" s="18"/>
-      <c r="AA90" s="18"/>
-      <c r="AB90" s="18"/>
-      <c r="AC90" s="18"/>
-      <c r="AD90" s="18"/>
-      <c r="AE90" s="18"/>
-      <c r="AF90" s="18"/>
-      <c r="AG90" s="18"/>
-      <c r="AH90" s="18"/>
+      <c r="A90" s="17"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="17"/>
+      <c r="J90" s="17"/>
+      <c r="K90" s="17"/>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
+      <c r="R90" s="17"/>
+      <c r="S90" s="17"/>
+      <c r="T90" s="17"/>
+      <c r="U90" s="17"/>
+      <c r="V90" s="17"/>
+      <c r="W90" s="17"/>
+      <c r="X90" s="17"/>
+      <c r="Y90" s="17"/>
+      <c r="Z90" s="17"/>
+      <c r="AA90" s="17"/>
+      <c r="AB90" s="17"/>
+      <c r="AC90" s="17"/>
+      <c r="AD90" s="17"/>
+      <c r="AE90" s="17"/>
+      <c r="AF90" s="17"/>
+      <c r="AG90" s="17"/>
+      <c r="AH90" s="17"/>
     </row>
     <row r="91" spans="1:34">
-      <c r="A91" s="18"/>
-      <c r="B91" s="18"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="18"/>
-      <c r="F91" s="18"/>
-      <c r="G91" s="18"/>
-      <c r="H91" s="18"/>
-      <c r="I91" s="18"/>
-      <c r="J91" s="18"/>
-      <c r="K91" s="18"/>
-      <c r="L91" s="18"/>
-      <c r="M91" s="18"/>
-      <c r="N91" s="18"/>
-      <c r="O91" s="18"/>
-      <c r="P91" s="18"/>
-      <c r="Q91" s="18"/>
-      <c r="R91" s="18"/>
-      <c r="S91" s="18"/>
-      <c r="T91" s="18"/>
-      <c r="U91" s="18"/>
-      <c r="V91" s="18"/>
-      <c r="W91" s="18"/>
-      <c r="X91" s="18"/>
-      <c r="Y91" s="18"/>
-      <c r="Z91" s="18"/>
-      <c r="AA91" s="18"/>
-      <c r="AB91" s="18"/>
-      <c r="AC91" s="18"/>
-      <c r="AD91" s="18"/>
-      <c r="AE91" s="18"/>
-      <c r="AF91" s="18"/>
-      <c r="AG91" s="18"/>
-      <c r="AH91" s="18"/>
+      <c r="A91" s="17"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="17"/>
+      <c r="J91" s="17"/>
+      <c r="K91" s="17"/>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
+      <c r="R91" s="17"/>
+      <c r="S91" s="17"/>
+      <c r="T91" s="17"/>
+      <c r="U91" s="17"/>
+      <c r="V91" s="17"/>
+      <c r="W91" s="17"/>
+      <c r="X91" s="17"/>
+      <c r="Y91" s="17"/>
+      <c r="Z91" s="17"/>
+      <c r="AA91" s="17"/>
+      <c r="AB91" s="17"/>
+      <c r="AC91" s="17"/>
+      <c r="AD91" s="17"/>
+      <c r="AE91" s="17"/>
+      <c r="AF91" s="17"/>
+      <c r="AG91" s="17"/>
+      <c r="AH91" s="17"/>
     </row>
     <row r="92" spans="1:34">
-      <c r="A92" s="18"/>
-      <c r="B92" s="18"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="18"/>
-      <c r="H92" s="18"/>
-      <c r="I92" s="18"/>
-      <c r="J92" s="18"/>
-      <c r="K92" s="18"/>
-      <c r="L92" s="18"/>
-      <c r="M92" s="18"/>
-      <c r="N92" s="18"/>
-      <c r="O92" s="18"/>
-      <c r="P92" s="18"/>
-      <c r="Q92" s="18"/>
-      <c r="R92" s="18"/>
-      <c r="S92" s="18"/>
-      <c r="T92" s="18"/>
-      <c r="U92" s="18"/>
-      <c r="V92" s="18"/>
-      <c r="W92" s="18"/>
-      <c r="X92" s="18"/>
-      <c r="Y92" s="18"/>
-      <c r="Z92" s="18"/>
-      <c r="AA92" s="18"/>
-      <c r="AB92" s="18"/>
-      <c r="AC92" s="18"/>
-      <c r="AD92" s="18"/>
-      <c r="AE92" s="18"/>
-      <c r="AF92" s="18"/>
-      <c r="AG92" s="18"/>
-      <c r="AH92" s="18"/>
+      <c r="A92" s="17"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="17"/>
+      <c r="K92" s="17"/>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
+      <c r="R92" s="17"/>
+      <c r="S92" s="17"/>
+      <c r="T92" s="17"/>
+      <c r="U92" s="17"/>
+      <c r="V92" s="17"/>
+      <c r="W92" s="17"/>
+      <c r="X92" s="17"/>
+      <c r="Y92" s="17"/>
+      <c r="Z92" s="17"/>
+      <c r="AA92" s="17"/>
+      <c r="AB92" s="17"/>
+      <c r="AC92" s="17"/>
+      <c r="AD92" s="17"/>
+      <c r="AE92" s="17"/>
+      <c r="AF92" s="17"/>
+      <c r="AG92" s="17"/>
+      <c r="AH92" s="17"/>
     </row>
     <row r="93" spans="1:34">
-      <c r="A93" s="18"/>
-      <c r="B93" s="18"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="18"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="18"/>
-      <c r="G93" s="18"/>
-      <c r="H93" s="18"/>
-      <c r="I93" s="18"/>
-      <c r="J93" s="18"/>
-      <c r="K93" s="18"/>
-      <c r="L93" s="18"/>
-      <c r="M93" s="18"/>
-      <c r="N93" s="18"/>
-      <c r="O93" s="18"/>
-      <c r="P93" s="18"/>
-      <c r="Q93" s="18"/>
-      <c r="R93" s="18"/>
-      <c r="S93" s="18"/>
-      <c r="T93" s="18"/>
-      <c r="U93" s="18"/>
-      <c r="V93" s="18"/>
-      <c r="W93" s="18"/>
-      <c r="X93" s="18"/>
-      <c r="Y93" s="18"/>
-      <c r="Z93" s="18"/>
-      <c r="AA93" s="18"/>
-      <c r="AB93" s="18"/>
-      <c r="AC93" s="18"/>
-      <c r="AD93" s="18"/>
-      <c r="AE93" s="18"/>
-      <c r="AF93" s="18"/>
-      <c r="AG93" s="18"/>
-      <c r="AH93" s="18"/>
+      <c r="A93" s="17"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="17"/>
+      <c r="J93" s="17"/>
+      <c r="K93" s="17"/>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
+      <c r="R93" s="17"/>
+      <c r="S93" s="17"/>
+      <c r="T93" s="17"/>
+      <c r="U93" s="17"/>
+      <c r="V93" s="17"/>
+      <c r="W93" s="17"/>
+      <c r="X93" s="17"/>
+      <c r="Y93" s="17"/>
+      <c r="Z93" s="17"/>
+      <c r="AA93" s="17"/>
+      <c r="AB93" s="17"/>
+      <c r="AC93" s="17"/>
+      <c r="AD93" s="17"/>
+      <c r="AE93" s="17"/>
+      <c r="AF93" s="17"/>
+      <c r="AG93" s="17"/>
+      <c r="AH93" s="17"/>
     </row>
     <row r="94" spans="1:34">
-      <c r="A94" s="18"/>
-      <c r="B94" s="18"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="18"/>
-      <c r="E94" s="18"/>
-      <c r="F94" s="18"/>
-      <c r="G94" s="18"/>
-      <c r="H94" s="18"/>
-      <c r="I94" s="18"/>
-      <c r="J94" s="18"/>
-      <c r="K94" s="18"/>
-      <c r="L94" s="18"/>
-      <c r="M94" s="18"/>
-      <c r="N94" s="18"/>
-      <c r="O94" s="18"/>
-      <c r="P94" s="18"/>
-      <c r="Q94" s="18"/>
-      <c r="R94" s="18"/>
-      <c r="S94" s="18"/>
-      <c r="T94" s="18"/>
-      <c r="U94" s="18"/>
-      <c r="V94" s="18"/>
-      <c r="W94" s="18"/>
-      <c r="X94" s="18"/>
-      <c r="Y94" s="18"/>
-      <c r="Z94" s="18"/>
-      <c r="AA94" s="18"/>
-      <c r="AB94" s="18"/>
-      <c r="AC94" s="18"/>
-      <c r="AD94" s="18"/>
-      <c r="AE94" s="18"/>
-      <c r="AF94" s="18"/>
-      <c r="AG94" s="18"/>
-      <c r="AH94" s="18"/>
+      <c r="A94" s="17"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="17"/>
+      <c r="J94" s="17"/>
+      <c r="K94" s="17"/>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
+      <c r="R94" s="17"/>
+      <c r="S94" s="17"/>
+      <c r="T94" s="17"/>
+      <c r="U94" s="17"/>
+      <c r="V94" s="17"/>
+      <c r="W94" s="17"/>
+      <c r="X94" s="17"/>
+      <c r="Y94" s="17"/>
+      <c r="Z94" s="17"/>
+      <c r="AA94" s="17"/>
+      <c r="AB94" s="17"/>
+      <c r="AC94" s="17"/>
+      <c r="AD94" s="17"/>
+      <c r="AE94" s="17"/>
+      <c r="AF94" s="17"/>
+      <c r="AG94" s="17"/>
+      <c r="AH94" s="17"/>
     </row>
     <row r="95" spans="1:34">
-      <c r="A95" s="18"/>
-      <c r="B95" s="18"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="18"/>
-      <c r="E95" s="18"/>
-      <c r="F95" s="18"/>
-      <c r="G95" s="18"/>
-      <c r="H95" s="18"/>
-      <c r="I95" s="18"/>
-      <c r="J95" s="18"/>
-      <c r="K95" s="18"/>
-      <c r="L95" s="18"/>
-      <c r="M95" s="18"/>
-      <c r="N95" s="18"/>
-      <c r="O95" s="18"/>
-      <c r="P95" s="18"/>
-      <c r="Q95" s="18"/>
-      <c r="R95" s="18"/>
-      <c r="S95" s="18"/>
-      <c r="T95" s="18"/>
-      <c r="U95" s="18"/>
-      <c r="V95" s="18"/>
-      <c r="W95" s="18"/>
-      <c r="X95" s="18"/>
-      <c r="Y95" s="18"/>
-      <c r="Z95" s="18"/>
-      <c r="AA95" s="18"/>
-      <c r="AB95" s="18"/>
-      <c r="AC95" s="18"/>
-      <c r="AD95" s="18"/>
-      <c r="AE95" s="18"/>
-      <c r="AF95" s="18"/>
-      <c r="AG95" s="18"/>
-      <c r="AH95" s="18"/>
+      <c r="A95" s="17"/>
+      <c r="B95" s="17"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="17"/>
+      <c r="J95" s="17"/>
+      <c r="K95" s="17"/>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
+      <c r="R95" s="17"/>
+      <c r="S95" s="17"/>
+      <c r="T95" s="17"/>
+      <c r="U95" s="17"/>
+      <c r="V95" s="17"/>
+      <c r="W95" s="17"/>
+      <c r="X95" s="17"/>
+      <c r="Y95" s="17"/>
+      <c r="Z95" s="17"/>
+      <c r="AA95" s="17"/>
+      <c r="AB95" s="17"/>
+      <c r="AC95" s="17"/>
+      <c r="AD95" s="17"/>
+      <c r="AE95" s="17"/>
+      <c r="AF95" s="17"/>
+      <c r="AG95" s="17"/>
+      <c r="AH95" s="17"/>
     </row>
     <row r="96" spans="1:34">
-      <c r="A96" s="18"/>
-      <c r="B96" s="18"/>
-      <c r="C96" s="18"/>
-      <c r="D96" s="18"/>
-      <c r="E96" s="18"/>
-      <c r="F96" s="18"/>
-      <c r="G96" s="18"/>
-      <c r="H96" s="18"/>
-      <c r="I96" s="18"/>
-      <c r="J96" s="18"/>
-      <c r="K96" s="18"/>
-      <c r="L96" s="18"/>
-      <c r="M96" s="18"/>
-      <c r="N96" s="18"/>
-      <c r="O96" s="18"/>
-      <c r="P96" s="18"/>
-      <c r="Q96" s="18"/>
-      <c r="R96" s="18"/>
-      <c r="S96" s="18"/>
-      <c r="T96" s="18"/>
-      <c r="U96" s="18"/>
-      <c r="V96" s="18"/>
-      <c r="W96" s="18"/>
-      <c r="X96" s="18"/>
-      <c r="Y96" s="18"/>
-      <c r="Z96" s="18"/>
-      <c r="AA96" s="18"/>
-      <c r="AB96" s="18"/>
-      <c r="AC96" s="18"/>
-      <c r="AD96" s="18"/>
-      <c r="AE96" s="18"/>
-      <c r="AF96" s="18"/>
-      <c r="AG96" s="18"/>
-      <c r="AH96" s="18"/>
+      <c r="A96" s="17"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="17"/>
+      <c r="J96" s="17"/>
+      <c r="K96" s="17"/>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
+      <c r="R96" s="17"/>
+      <c r="S96" s="17"/>
+      <c r="T96" s="17"/>
+      <c r="U96" s="17"/>
+      <c r="V96" s="17"/>
+      <c r="W96" s="17"/>
+      <c r="X96" s="17"/>
+      <c r="Y96" s="17"/>
+      <c r="Z96" s="17"/>
+      <c r="AA96" s="17"/>
+      <c r="AB96" s="17"/>
+      <c r="AC96" s="17"/>
+      <c r="AD96" s="17"/>
+      <c r="AE96" s="17"/>
+      <c r="AF96" s="17"/>
+      <c r="AG96" s="17"/>
+      <c r="AH96" s="17"/>
     </row>
     <row r="97" spans="1:34">
-      <c r="A97" s="18"/>
-      <c r="B97" s="18"/>
-      <c r="C97" s="18"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="18"/>
-      <c r="F97" s="18"/>
-      <c r="G97" s="18"/>
-      <c r="H97" s="18"/>
-      <c r="I97" s="18"/>
-      <c r="J97" s="18"/>
-      <c r="K97" s="18"/>
-      <c r="L97" s="18"/>
-      <c r="M97" s="18"/>
-      <c r="N97" s="18"/>
-      <c r="O97" s="18"/>
-      <c r="P97" s="18"/>
-      <c r="Q97" s="18"/>
-      <c r="R97" s="18"/>
-      <c r="S97" s="18"/>
-      <c r="T97" s="18"/>
-      <c r="U97" s="18"/>
-      <c r="V97" s="18"/>
-      <c r="W97" s="18"/>
-      <c r="X97" s="18"/>
-      <c r="Y97" s="18"/>
-      <c r="Z97" s="18"/>
-      <c r="AA97" s="18"/>
-      <c r="AB97" s="18"/>
-      <c r="AC97" s="18"/>
-      <c r="AD97" s="18"/>
-      <c r="AE97" s="18"/>
-      <c r="AF97" s="18"/>
-      <c r="AG97" s="18"/>
-      <c r="AH97" s="18"/>
+      <c r="A97" s="17"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="17"/>
+      <c r="J97" s="17"/>
+      <c r="K97" s="17"/>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
+      <c r="R97" s="17"/>
+      <c r="S97" s="17"/>
+      <c r="T97" s="17"/>
+      <c r="U97" s="17"/>
+      <c r="V97" s="17"/>
+      <c r="W97" s="17"/>
+      <c r="X97" s="17"/>
+      <c r="Y97" s="17"/>
+      <c r="Z97" s="17"/>
+      <c r="AA97" s="17"/>
+      <c r="AB97" s="17"/>
+      <c r="AC97" s="17"/>
+      <c r="AD97" s="17"/>
+      <c r="AE97" s="17"/>
+      <c r="AF97" s="17"/>
+      <c r="AG97" s="17"/>
+      <c r="AH97" s="17"/>
     </row>
     <row r="98" spans="1:34">
-      <c r="A98" s="18"/>
-      <c r="B98" s="18"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="18"/>
-      <c r="H98" s="18"/>
-      <c r="I98" s="18"/>
-      <c r="J98" s="18"/>
-      <c r="K98" s="18"/>
-      <c r="L98" s="18"/>
-      <c r="M98" s="18"/>
-      <c r="N98" s="18"/>
-      <c r="O98" s="18"/>
-      <c r="P98" s="18"/>
-      <c r="Q98" s="18"/>
-      <c r="R98" s="18"/>
-      <c r="S98" s="18"/>
-      <c r="T98" s="18"/>
-      <c r="U98" s="18"/>
-      <c r="V98" s="18"/>
-      <c r="W98" s="18"/>
-      <c r="X98" s="18"/>
-      <c r="Y98" s="18"/>
-      <c r="Z98" s="18"/>
-      <c r="AA98" s="18"/>
-      <c r="AB98" s="18"/>
-      <c r="AC98" s="18"/>
-      <c r="AD98" s="18"/>
-      <c r="AE98" s="18"/>
-      <c r="AF98" s="18"/>
-      <c r="AG98" s="18"/>
-      <c r="AH98" s="18"/>
+      <c r="A98" s="17"/>
+      <c r="B98" s="17"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="17"/>
+      <c r="J98" s="17"/>
+      <c r="K98" s="17"/>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
+      <c r="R98" s="17"/>
+      <c r="S98" s="17"/>
+      <c r="T98" s="17"/>
+      <c r="U98" s="17"/>
+      <c r="V98" s="17"/>
+      <c r="W98" s="17"/>
+      <c r="X98" s="17"/>
+      <c r="Y98" s="17"/>
+      <c r="Z98" s="17"/>
+      <c r="AA98" s="17"/>
+      <c r="AB98" s="17"/>
+      <c r="AC98" s="17"/>
+      <c r="AD98" s="17"/>
+      <c r="AE98" s="17"/>
+      <c r="AF98" s="17"/>
+      <c r="AG98" s="17"/>
+      <c r="AH98" s="17"/>
     </row>
     <row r="99" spans="1:34">
-      <c r="A99" s="18"/>
-      <c r="B99" s="18"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="18"/>
-      <c r="H99" s="18"/>
-      <c r="I99" s="18"/>
-      <c r="J99" s="18"/>
-      <c r="K99" s="18"/>
-      <c r="L99" s="18"/>
-      <c r="M99" s="18"/>
-      <c r="N99" s="18"/>
-      <c r="O99" s="18"/>
-      <c r="P99" s="18"/>
-      <c r="Q99" s="18"/>
-      <c r="R99" s="18"/>
-      <c r="S99" s="18"/>
-      <c r="T99" s="18"/>
-      <c r="U99" s="18"/>
-      <c r="V99" s="18"/>
-      <c r="W99" s="18"/>
-      <c r="X99" s="18"/>
-      <c r="Y99" s="18"/>
-      <c r="Z99" s="18"/>
-      <c r="AA99" s="18"/>
-      <c r="AB99" s="18"/>
-      <c r="AC99" s="18"/>
-      <c r="AD99" s="18"/>
-      <c r="AE99" s="18"/>
-      <c r="AF99" s="18"/>
-      <c r="AG99" s="18"/>
-      <c r="AH99" s="18"/>
+      <c r="A99" s="17"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="17"/>
+      <c r="I99" s="17"/>
+      <c r="J99" s="17"/>
+      <c r="K99" s="17"/>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="17"/>
+      <c r="P99" s="17"/>
+      <c r="Q99" s="17"/>
+      <c r="R99" s="17"/>
+      <c r="S99" s="17"/>
+      <c r="T99" s="17"/>
+      <c r="U99" s="17"/>
+      <c r="V99" s="17"/>
+      <c r="W99" s="17"/>
+      <c r="X99" s="17"/>
+      <c r="Y99" s="17"/>
+      <c r="Z99" s="17"/>
+      <c r="AA99" s="17"/>
+      <c r="AB99" s="17"/>
+      <c r="AC99" s="17"/>
+      <c r="AD99" s="17"/>
+      <c r="AE99" s="17"/>
+      <c r="AF99" s="17"/>
+      <c r="AG99" s="17"/>
+      <c r="AH99" s="17"/>
     </row>
     <row r="100" spans="1:34">
-      <c r="A100" s="18"/>
-      <c r="B100" s="18"/>
-      <c r="C100" s="18"/>
-      <c r="D100" s="18"/>
-      <c r="E100" s="18"/>
-      <c r="F100" s="18"/>
-      <c r="G100" s="18"/>
-      <c r="H100" s="18"/>
-      <c r="I100" s="18"/>
-      <c r="J100" s="18"/>
-      <c r="K100" s="18"/>
-      <c r="L100" s="18"/>
-      <c r="M100" s="18"/>
-      <c r="N100" s="18"/>
-      <c r="O100" s="18"/>
-      <c r="P100" s="18"/>
-      <c r="Q100" s="18"/>
-      <c r="R100" s="18"/>
-      <c r="S100" s="18"/>
-      <c r="T100" s="18"/>
-      <c r="U100" s="18"/>
-      <c r="V100" s="18"/>
-      <c r="W100" s="18"/>
-      <c r="X100" s="18"/>
-      <c r="Y100" s="18"/>
-      <c r="Z100" s="18"/>
-      <c r="AA100" s="18"/>
-      <c r="AB100" s="18"/>
-      <c r="AC100" s="18"/>
-      <c r="AD100" s="18"/>
-      <c r="AE100" s="18"/>
-      <c r="AF100" s="18"/>
-      <c r="AG100" s="18"/>
-      <c r="AH100" s="18"/>
+      <c r="A100" s="17"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17"/>
+      <c r="H100" s="17"/>
+      <c r="I100" s="17"/>
+      <c r="J100" s="17"/>
+      <c r="K100" s="17"/>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
+      <c r="R100" s="17"/>
+      <c r="S100" s="17"/>
+      <c r="T100" s="17"/>
+      <c r="U100" s="17"/>
+      <c r="V100" s="17"/>
+      <c r="W100" s="17"/>
+      <c r="X100" s="17"/>
+      <c r="Y100" s="17"/>
+      <c r="Z100" s="17"/>
+      <c r="AA100" s="17"/>
+      <c r="AB100" s="17"/>
+      <c r="AC100" s="17"/>
+      <c r="AD100" s="17"/>
+      <c r="AE100" s="17"/>
+      <c r="AF100" s="17"/>
+      <c r="AG100" s="17"/>
+      <c r="AH100" s="17"/>
     </row>
     <row r="101" spans="1:34">
-      <c r="A101" s="18"/>
-      <c r="B101" s="18"/>
-      <c r="C101" s="18"/>
-      <c r="D101" s="18"/>
-      <c r="E101" s="18"/>
-      <c r="F101" s="18"/>
-      <c r="G101" s="18"/>
-      <c r="H101" s="18"/>
-      <c r="I101" s="18"/>
-      <c r="J101" s="18"/>
-      <c r="K101" s="18"/>
-      <c r="L101" s="18"/>
-      <c r="M101" s="18"/>
-      <c r="N101" s="18"/>
-      <c r="O101" s="18"/>
-      <c r="P101" s="18"/>
-      <c r="Q101" s="18"/>
-      <c r="R101" s="18"/>
-      <c r="S101" s="18"/>
-      <c r="T101" s="18"/>
-      <c r="U101" s="18"/>
-      <c r="V101" s="18"/>
-      <c r="W101" s="18"/>
-      <c r="X101" s="18"/>
-      <c r="Y101" s="18"/>
-      <c r="Z101" s="18"/>
-      <c r="AA101" s="18"/>
-      <c r="AB101" s="18"/>
-      <c r="AC101" s="18"/>
-      <c r="AD101" s="18"/>
-      <c r="AE101" s="18"/>
-      <c r="AF101" s="18"/>
-      <c r="AG101" s="18"/>
-      <c r="AH101" s="18"/>
+      <c r="A101" s="17"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="17"/>
+      <c r="H101" s="17"/>
+      <c r="I101" s="17"/>
+      <c r="J101" s="17"/>
+      <c r="K101" s="17"/>
+      <c r="L101" s="17"/>
+      <c r="M101" s="17"/>
+      <c r="N101" s="17"/>
+      <c r="O101" s="17"/>
+      <c r="P101" s="17"/>
+      <c r="Q101" s="17"/>
+      <c r="R101" s="17"/>
+      <c r="S101" s="17"/>
+      <c r="T101" s="17"/>
+      <c r="U101" s="17"/>
+      <c r="V101" s="17"/>
+      <c r="W101" s="17"/>
+      <c r="X101" s="17"/>
+      <c r="Y101" s="17"/>
+      <c r="Z101" s="17"/>
+      <c r="AA101" s="17"/>
+      <c r="AB101" s="17"/>
+      <c r="AC101" s="17"/>
+      <c r="AD101" s="17"/>
+      <c r="AE101" s="17"/>
+      <c r="AF101" s="17"/>
+      <c r="AG101" s="17"/>
+      <c r="AH101" s="17"/>
     </row>
     <row r="102" spans="1:34">
-      <c r="A102" s="18"/>
-      <c r="B102" s="18"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="18"/>
-      <c r="E102" s="18"/>
-      <c r="F102" s="18"/>
-      <c r="G102" s="18"/>
-      <c r="H102" s="18"/>
-      <c r="I102" s="18"/>
-      <c r="J102" s="18"/>
-      <c r="K102" s="18"/>
-      <c r="L102" s="18"/>
-      <c r="M102" s="18"/>
-      <c r="N102" s="18"/>
-      <c r="O102" s="18"/>
-      <c r="P102" s="18"/>
-      <c r="Q102" s="18"/>
-      <c r="R102" s="18"/>
-      <c r="S102" s="18"/>
-      <c r="T102" s="18"/>
-      <c r="U102" s="18"/>
-      <c r="V102" s="18"/>
-      <c r="W102" s="18"/>
-      <c r="X102" s="18"/>
-      <c r="Y102" s="18"/>
-      <c r="Z102" s="18"/>
-      <c r="AA102" s="18"/>
-      <c r="AB102" s="18"/>
-      <c r="AC102" s="18"/>
-      <c r="AD102" s="18"/>
-      <c r="AE102" s="18"/>
-      <c r="AF102" s="18"/>
-      <c r="AG102" s="18"/>
-      <c r="AH102" s="18"/>
+      <c r="A102" s="17"/>
+      <c r="B102" s="17"/>
+      <c r="C102" s="17"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="17"/>
+      <c r="G102" s="17"/>
+      <c r="H102" s="17"/>
+      <c r="I102" s="17"/>
+      <c r="J102" s="17"/>
+      <c r="K102" s="17"/>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
+      <c r="R102" s="17"/>
+      <c r="S102" s="17"/>
+      <c r="T102" s="17"/>
+      <c r="U102" s="17"/>
+      <c r="V102" s="17"/>
+      <c r="W102" s="17"/>
+      <c r="X102" s="17"/>
+      <c r="Y102" s="17"/>
+      <c r="Z102" s="17"/>
+      <c r="AA102" s="17"/>
+      <c r="AB102" s="17"/>
+      <c r="AC102" s="17"/>
+      <c r="AD102" s="17"/>
+      <c r="AE102" s="17"/>
+      <c r="AF102" s="17"/>
+      <c r="AG102" s="17"/>
+      <c r="AH102" s="17"/>
     </row>
     <row r="103" spans="1:34">
-      <c r="A103" s="18"/>
-      <c r="B103" s="18"/>
-      <c r="C103" s="18"/>
-      <c r="D103" s="18"/>
-      <c r="E103" s="18"/>
-      <c r="F103" s="18"/>
-      <c r="G103" s="18"/>
-      <c r="H103" s="18"/>
-      <c r="I103" s="18"/>
-      <c r="J103" s="18"/>
-      <c r="K103" s="18"/>
-      <c r="L103" s="18"/>
-      <c r="M103" s="18"/>
-      <c r="N103" s="18"/>
-      <c r="O103" s="18"/>
-      <c r="P103" s="18"/>
-      <c r="Q103" s="18"/>
-      <c r="R103" s="18"/>
-      <c r="S103" s="18"/>
-      <c r="T103" s="18"/>
-      <c r="U103" s="18"/>
-      <c r="V103" s="18"/>
-      <c r="W103" s="18"/>
-      <c r="X103" s="18"/>
-      <c r="Y103" s="18"/>
-      <c r="Z103" s="18"/>
-      <c r="AA103" s="18"/>
-      <c r="AB103" s="18"/>
-      <c r="AC103" s="18"/>
-      <c r="AD103" s="18"/>
-      <c r="AE103" s="18"/>
-      <c r="AF103" s="18"/>
-      <c r="AG103" s="18"/>
-      <c r="AH103" s="18"/>
+      <c r="A103" s="17"/>
+      <c r="B103" s="17"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="17"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="17"/>
+      <c r="G103" s="17"/>
+      <c r="H103" s="17"/>
+      <c r="I103" s="17"/>
+      <c r="J103" s="17"/>
+      <c r="K103" s="17"/>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="17"/>
+      <c r="P103" s="17"/>
+      <c r="Q103" s="17"/>
+      <c r="R103" s="17"/>
+      <c r="S103" s="17"/>
+      <c r="T103" s="17"/>
+      <c r="U103" s="17"/>
+      <c r="V103" s="17"/>
+      <c r="W103" s="17"/>
+      <c r="X103" s="17"/>
+      <c r="Y103" s="17"/>
+      <c r="Z103" s="17"/>
+      <c r="AA103" s="17"/>
+      <c r="AB103" s="17"/>
+      <c r="AC103" s="17"/>
+      <c r="AD103" s="17"/>
+      <c r="AE103" s="17"/>
+      <c r="AF103" s="17"/>
+      <c r="AG103" s="17"/>
+      <c r="AH103" s="17"/>
     </row>
     <row r="104" spans="1:34">
-      <c r="A104" s="18"/>
-      <c r="B104" s="18"/>
-      <c r="C104" s="18"/>
-      <c r="D104" s="18"/>
-      <c r="E104" s="18"/>
-      <c r="F104" s="18"/>
-      <c r="G104" s="18"/>
-      <c r="H104" s="18"/>
-      <c r="I104" s="18"/>
-      <c r="J104" s="18"/>
-      <c r="K104" s="18"/>
-      <c r="L104" s="18"/>
-      <c r="M104" s="18"/>
-      <c r="N104" s="18"/>
-      <c r="O104" s="18"/>
-      <c r="P104" s="18"/>
-      <c r="Q104" s="18"/>
-      <c r="R104" s="18"/>
-      <c r="S104" s="18"/>
-      <c r="T104" s="18"/>
-      <c r="U104" s="18"/>
-      <c r="V104" s="18"/>
-      <c r="W104" s="18"/>
-      <c r="X104" s="18"/>
-      <c r="Y104" s="18"/>
-      <c r="Z104" s="18"/>
-      <c r="AA104" s="18"/>
-      <c r="AB104" s="18"/>
-      <c r="AC104" s="18"/>
-      <c r="AD104" s="18"/>
-      <c r="AE104" s="18"/>
-      <c r="AF104" s="18"/>
-      <c r="AG104" s="18"/>
-      <c r="AH104" s="18"/>
+      <c r="A104" s="17"/>
+      <c r="B104" s="17"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="17"/>
+      <c r="G104" s="17"/>
+      <c r="H104" s="17"/>
+      <c r="I104" s="17"/>
+      <c r="J104" s="17"/>
+      <c r="K104" s="17"/>
+      <c r="L104" s="17"/>
+      <c r="M104" s="17"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="17"/>
+      <c r="P104" s="17"/>
+      <c r="Q104" s="17"/>
+      <c r="R104" s="17"/>
+      <c r="S104" s="17"/>
+      <c r="T104" s="17"/>
+      <c r="U104" s="17"/>
+      <c r="V104" s="17"/>
+      <c r="W104" s="17"/>
+      <c r="X104" s="17"/>
+      <c r="Y104" s="17"/>
+      <c r="Z104" s="17"/>
+      <c r="AA104" s="17"/>
+      <c r="AB104" s="17"/>
+      <c r="AC104" s="17"/>
+      <c r="AD104" s="17"/>
+      <c r="AE104" s="17"/>
+      <c r="AF104" s="17"/>
+      <c r="AG104" s="17"/>
+      <c r="AH104" s="17"/>
     </row>
     <row r="105" spans="1:34">
-      <c r="A105" s="18"/>
-      <c r="B105" s="18"/>
-      <c r="C105" s="18"/>
-      <c r="D105" s="18"/>
-      <c r="E105" s="18"/>
-      <c r="F105" s="18"/>
-      <c r="G105" s="18"/>
-      <c r="H105" s="18"/>
-      <c r="I105" s="18"/>
-      <c r="J105" s="18"/>
-      <c r="K105" s="18"/>
-      <c r="L105" s="18"/>
-      <c r="M105" s="18"/>
-      <c r="N105" s="18"/>
-      <c r="O105" s="18"/>
-      <c r="P105" s="18"/>
-      <c r="Q105" s="18"/>
-      <c r="R105" s="18"/>
-      <c r="S105" s="18"/>
-      <c r="T105" s="18"/>
-      <c r="U105" s="18"/>
-      <c r="V105" s="18"/>
-      <c r="W105" s="18"/>
-      <c r="X105" s="18"/>
-      <c r="Y105" s="18"/>
-      <c r="Z105" s="18"/>
-      <c r="AA105" s="18"/>
-      <c r="AB105" s="18"/>
-      <c r="AC105" s="18"/>
-      <c r="AD105" s="18"/>
-      <c r="AE105" s="18"/>
-      <c r="AF105" s="18"/>
-      <c r="AG105" s="18"/>
-      <c r="AH105" s="18"/>
+      <c r="A105" s="17"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="17"/>
+      <c r="E105" s="17"/>
+      <c r="F105" s="17"/>
+      <c r="G105" s="17"/>
+      <c r="H105" s="17"/>
+      <c r="I105" s="17"/>
+      <c r="J105" s="17"/>
+      <c r="K105" s="17"/>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="17"/>
+      <c r="P105" s="17"/>
+      <c r="Q105" s="17"/>
+      <c r="R105" s="17"/>
+      <c r="S105" s="17"/>
+      <c r="T105" s="17"/>
+      <c r="U105" s="17"/>
+      <c r="V105" s="17"/>
+      <c r="W105" s="17"/>
+      <c r="X105" s="17"/>
+      <c r="Y105" s="17"/>
+      <c r="Z105" s="17"/>
+      <c r="AA105" s="17"/>
+      <c r="AB105" s="17"/>
+      <c r="AC105" s="17"/>
+      <c r="AD105" s="17"/>
+      <c r="AE105" s="17"/>
+      <c r="AF105" s="17"/>
+      <c r="AG105" s="17"/>
+      <c r="AH105" s="17"/>
     </row>
     <row r="106" spans="1:34">
-      <c r="A106" s="18"/>
-      <c r="B106" s="18"/>
-      <c r="C106" s="18"/>
-      <c r="D106" s="18"/>
-      <c r="E106" s="18"/>
-      <c r="F106" s="18"/>
-      <c r="G106" s="18"/>
-      <c r="H106" s="18"/>
-      <c r="I106" s="18"/>
-      <c r="J106" s="18"/>
-      <c r="K106" s="18"/>
-      <c r="L106" s="18"/>
-      <c r="M106" s="18"/>
-      <c r="N106" s="18"/>
-      <c r="O106" s="18"/>
-      <c r="P106" s="18"/>
-      <c r="Q106" s="18"/>
-      <c r="R106" s="18"/>
-      <c r="S106" s="18"/>
-      <c r="T106" s="18"/>
-      <c r="U106" s="18"/>
-      <c r="V106" s="18"/>
-      <c r="W106" s="18"/>
-      <c r="X106" s="18"/>
-      <c r="Y106" s="18"/>
-      <c r="Z106" s="18"/>
-      <c r="AA106" s="18"/>
-      <c r="AB106" s="18"/>
-      <c r="AC106" s="18"/>
-      <c r="AD106" s="18"/>
-      <c r="AE106" s="18"/>
-      <c r="AF106" s="18"/>
-      <c r="AG106" s="18"/>
-      <c r="AH106" s="18"/>
+      <c r="A106" s="17"/>
+      <c r="B106" s="17"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="17"/>
+      <c r="G106" s="17"/>
+      <c r="H106" s="17"/>
+      <c r="I106" s="17"/>
+      <c r="J106" s="17"/>
+      <c r="K106" s="17"/>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
+      <c r="R106" s="17"/>
+      <c r="S106" s="17"/>
+      <c r="T106" s="17"/>
+      <c r="U106" s="17"/>
+      <c r="V106" s="17"/>
+      <c r="W106" s="17"/>
+      <c r="X106" s="17"/>
+      <c r="Y106" s="17"/>
+      <c r="Z106" s="17"/>
+      <c r="AA106" s="17"/>
+      <c r="AB106" s="17"/>
+      <c r="AC106" s="17"/>
+      <c r="AD106" s="17"/>
+      <c r="AE106" s="17"/>
+      <c r="AF106" s="17"/>
+      <c r="AG106" s="17"/>
+      <c r="AH106" s="17"/>
     </row>
     <row r="107" spans="1:34">
-      <c r="A107" s="18"/>
-      <c r="B107" s="18"/>
-      <c r="C107" s="18"/>
-      <c r="D107" s="18"/>
-      <c r="E107" s="18"/>
-      <c r="F107" s="18"/>
-      <c r="G107" s="18"/>
-      <c r="H107" s="18"/>
-      <c r="I107" s="18"/>
-      <c r="J107" s="18"/>
-      <c r="K107" s="18"/>
-      <c r="L107" s="18"/>
-      <c r="M107" s="18"/>
-      <c r="N107" s="18"/>
-      <c r="O107" s="18"/>
-      <c r="P107" s="18"/>
-      <c r="Q107" s="18"/>
-      <c r="R107" s="18"/>
-      <c r="S107" s="18"/>
-      <c r="T107" s="18"/>
-      <c r="U107" s="18"/>
-      <c r="V107" s="18"/>
-      <c r="W107" s="18"/>
-      <c r="X107" s="18"/>
-      <c r="Y107" s="18"/>
-      <c r="Z107" s="18"/>
-      <c r="AA107" s="18"/>
-      <c r="AB107" s="18"/>
-      <c r="AC107" s="18"/>
-      <c r="AD107" s="18"/>
-      <c r="AE107" s="18"/>
-      <c r="AF107" s="18"/>
-      <c r="AG107" s="18"/>
-      <c r="AH107" s="18"/>
+      <c r="A107" s="17"/>
+      <c r="B107" s="17"/>
+      <c r="C107" s="17"/>
+      <c r="D107" s="17"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="17"/>
+      <c r="G107" s="17"/>
+      <c r="H107" s="17"/>
+      <c r="I107" s="17"/>
+      <c r="J107" s="17"/>
+      <c r="K107" s="17"/>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
+      <c r="R107" s="17"/>
+      <c r="S107" s="17"/>
+      <c r="T107" s="17"/>
+      <c r="U107" s="17"/>
+      <c r="V107" s="17"/>
+      <c r="W107" s="17"/>
+      <c r="X107" s="17"/>
+      <c r="Y107" s="17"/>
+      <c r="Z107" s="17"/>
+      <c r="AA107" s="17"/>
+      <c r="AB107" s="17"/>
+      <c r="AC107" s="17"/>
+      <c r="AD107" s="17"/>
+      <c r="AE107" s="17"/>
+      <c r="AF107" s="17"/>
+      <c r="AG107" s="17"/>
+      <c r="AH107" s="17"/>
     </row>
     <row r="108" spans="1:34">
-      <c r="A108" s="18"/>
-      <c r="B108" s="18"/>
-      <c r="C108" s="18"/>
-      <c r="D108" s="18"/>
-      <c r="E108" s="18"/>
-      <c r="F108" s="18"/>
-      <c r="G108" s="18"/>
-      <c r="H108" s="18"/>
-      <c r="I108" s="18"/>
-      <c r="J108" s="18"/>
-      <c r="K108" s="18"/>
-      <c r="L108" s="18"/>
-      <c r="M108" s="18"/>
-      <c r="N108" s="18"/>
-      <c r="O108" s="18"/>
-      <c r="P108" s="18"/>
-      <c r="Q108" s="18"/>
-      <c r="R108" s="18"/>
-      <c r="S108" s="18"/>
-      <c r="T108" s="18"/>
-      <c r="U108" s="18"/>
-      <c r="V108" s="18"/>
-      <c r="W108" s="18"/>
-      <c r="X108" s="18"/>
-      <c r="Y108" s="18"/>
-      <c r="Z108" s="18"/>
-      <c r="AA108" s="18"/>
-      <c r="AB108" s="18"/>
-      <c r="AC108" s="18"/>
-      <c r="AD108" s="18"/>
-      <c r="AE108" s="18"/>
-      <c r="AF108" s="18"/>
-      <c r="AG108" s="18"/>
-      <c r="AH108" s="18"/>
+      <c r="A108" s="17"/>
+      <c r="B108" s="17"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="17"/>
+      <c r="G108" s="17"/>
+      <c r="H108" s="17"/>
+      <c r="I108" s="17"/>
+      <c r="J108" s="17"/>
+      <c r="K108" s="17"/>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="17"/>
+      <c r="P108" s="17"/>
+      <c r="Q108" s="17"/>
+      <c r="R108" s="17"/>
+      <c r="S108" s="17"/>
+      <c r="T108" s="17"/>
+      <c r="U108" s="17"/>
+      <c r="V108" s="17"/>
+      <c r="W108" s="17"/>
+      <c r="X108" s="17"/>
+      <c r="Y108" s="17"/>
+      <c r="Z108" s="17"/>
+      <c r="AA108" s="17"/>
+      <c r="AB108" s="17"/>
+      <c r="AC108" s="17"/>
+      <c r="AD108" s="17"/>
+      <c r="AE108" s="17"/>
+      <c r="AF108" s="17"/>
+      <c r="AG108" s="17"/>
+      <c r="AH108" s="17"/>
     </row>
     <row r="109" spans="1:34">
-      <c r="A109" s="18"/>
-      <c r="B109" s="18"/>
-      <c r="C109" s="18"/>
-      <c r="D109" s="18"/>
-      <c r="E109" s="18"/>
-      <c r="F109" s="18"/>
-      <c r="G109" s="18"/>
-      <c r="H109" s="18"/>
-      <c r="I109" s="18"/>
-      <c r="J109" s="18"/>
-      <c r="K109" s="18"/>
-      <c r="L109" s="18"/>
-      <c r="M109" s="18"/>
-      <c r="N109" s="18"/>
-      <c r="O109" s="18"/>
-      <c r="P109" s="18"/>
-      <c r="Q109" s="18"/>
-      <c r="R109" s="18"/>
-      <c r="S109" s="18"/>
-      <c r="T109" s="18"/>
-      <c r="U109" s="18"/>
-      <c r="V109" s="18"/>
-      <c r="W109" s="18"/>
-      <c r="X109" s="18"/>
-      <c r="Y109" s="18"/>
-      <c r="Z109" s="18"/>
-      <c r="AA109" s="18"/>
-      <c r="AB109" s="18"/>
-      <c r="AC109" s="18"/>
-      <c r="AD109" s="18"/>
-      <c r="AE109" s="18"/>
-      <c r="AF109" s="18"/>
-      <c r="AG109" s="18"/>
-      <c r="AH109" s="18"/>
+      <c r="A109" s="17"/>
+      <c r="B109" s="17"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="17"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="17"/>
+      <c r="H109" s="17"/>
+      <c r="I109" s="17"/>
+      <c r="J109" s="17"/>
+      <c r="K109" s="17"/>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="17"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
+      <c r="R109" s="17"/>
+      <c r="S109" s="17"/>
+      <c r="T109" s="17"/>
+      <c r="U109" s="17"/>
+      <c r="V109" s="17"/>
+      <c r="W109" s="17"/>
+      <c r="X109" s="17"/>
+      <c r="Y109" s="17"/>
+      <c r="Z109" s="17"/>
+      <c r="AA109" s="17"/>
+      <c r="AB109" s="17"/>
+      <c r="AC109" s="17"/>
+      <c r="AD109" s="17"/>
+      <c r="AE109" s="17"/>
+      <c r="AF109" s="17"/>
+      <c r="AG109" s="17"/>
+      <c r="AH109" s="17"/>
     </row>
     <row r="110" spans="1:34">
-      <c r="A110" s="18"/>
-      <c r="B110" s="18"/>
-      <c r="C110" s="18"/>
-      <c r="D110" s="18"/>
-      <c r="E110" s="18"/>
-      <c r="F110" s="18"/>
-      <c r="G110" s="18"/>
-      <c r="H110" s="18"/>
-      <c r="I110" s="18"/>
-      <c r="J110" s="18"/>
-      <c r="K110" s="18"/>
-      <c r="L110" s="18"/>
-      <c r="M110" s="18"/>
-      <c r="N110" s="18"/>
-      <c r="O110" s="18"/>
-      <c r="P110" s="18"/>
-      <c r="Q110" s="18"/>
-      <c r="R110" s="18"/>
-      <c r="S110" s="18"/>
-      <c r="T110" s="18"/>
-      <c r="U110" s="18"/>
-      <c r="V110" s="18"/>
-      <c r="W110" s="18"/>
-      <c r="X110" s="18"/>
-      <c r="Y110" s="18"/>
-      <c r="Z110" s="18"/>
-      <c r="AA110" s="18"/>
-      <c r="AB110" s="18"/>
-      <c r="AC110" s="18"/>
-      <c r="AD110" s="18"/>
-      <c r="AE110" s="18"/>
-      <c r="AF110" s="18"/>
-      <c r="AG110" s="18"/>
-      <c r="AH110" s="18"/>
+      <c r="A110" s="17"/>
+      <c r="B110" s="17"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="17"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="17"/>
+      <c r="G110" s="17"/>
+      <c r="H110" s="17"/>
+      <c r="I110" s="17"/>
+      <c r="J110" s="17"/>
+      <c r="K110" s="17"/>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
+      <c r="R110" s="17"/>
+      <c r="S110" s="17"/>
+      <c r="T110" s="17"/>
+      <c r="U110" s="17"/>
+      <c r="V110" s="17"/>
+      <c r="W110" s="17"/>
+      <c r="X110" s="17"/>
+      <c r="Y110" s="17"/>
+      <c r="Z110" s="17"/>
+      <c r="AA110" s="17"/>
+      <c r="AB110" s="17"/>
+      <c r="AC110" s="17"/>
+      <c r="AD110" s="17"/>
+      <c r="AE110" s="17"/>
+      <c r="AF110" s="17"/>
+      <c r="AG110" s="17"/>
+      <c r="AH110" s="17"/>
     </row>
     <row r="111" spans="1:34">
-      <c r="A111" s="18"/>
-      <c r="B111" s="18"/>
-      <c r="C111" s="18"/>
-      <c r="D111" s="18"/>
-      <c r="E111" s="18"/>
-      <c r="F111" s="18"/>
-      <c r="G111" s="18"/>
-      <c r="H111" s="18"/>
-      <c r="I111" s="18"/>
-      <c r="J111" s="18"/>
-      <c r="K111" s="18"/>
-      <c r="L111" s="18"/>
-      <c r="M111" s="18"/>
-      <c r="N111" s="18"/>
-      <c r="O111" s="18"/>
-      <c r="P111" s="18"/>
-      <c r="Q111" s="18"/>
-      <c r="R111" s="18"/>
-      <c r="S111" s="18"/>
-      <c r="T111" s="18"/>
-      <c r="U111" s="18"/>
-      <c r="V111" s="18"/>
-      <c r="W111" s="18"/>
-      <c r="X111" s="18"/>
-      <c r="Y111" s="18"/>
-      <c r="Z111" s="18"/>
-      <c r="AA111" s="18"/>
-      <c r="AB111" s="18"/>
-      <c r="AC111" s="18"/>
-      <c r="AD111" s="18"/>
-      <c r="AE111" s="18"/>
-      <c r="AF111" s="18"/>
-      <c r="AG111" s="18"/>
-      <c r="AH111" s="18"/>
+      <c r="A111" s="17"/>
+      <c r="B111" s="17"/>
+      <c r="C111" s="17"/>
+      <c r="D111" s="17"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="17"/>
+      <c r="G111" s="17"/>
+      <c r="H111" s="17"/>
+      <c r="I111" s="17"/>
+      <c r="J111" s="17"/>
+      <c r="K111" s="17"/>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
+      <c r="O111" s="17"/>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
+      <c r="R111" s="17"/>
+      <c r="S111" s="17"/>
+      <c r="T111" s="17"/>
+      <c r="U111" s="17"/>
+      <c r="V111" s="17"/>
+      <c r="W111" s="17"/>
+      <c r="X111" s="17"/>
+      <c r="Y111" s="17"/>
+      <c r="Z111" s="17"/>
+      <c r="AA111" s="17"/>
+      <c r="AB111" s="17"/>
+      <c r="AC111" s="17"/>
+      <c r="AD111" s="17"/>
+      <c r="AE111" s="17"/>
+      <c r="AF111" s="17"/>
+      <c r="AG111" s="17"/>
+      <c r="AH111" s="17"/>
     </row>
     <row r="112" spans="1:34">
-      <c r="A112" s="18"/>
-      <c r="B112" s="18"/>
-      <c r="C112" s="18"/>
-      <c r="D112" s="18"/>
-      <c r="E112" s="18"/>
-      <c r="F112" s="18"/>
-      <c r="G112" s="18"/>
-      <c r="H112" s="18"/>
-      <c r="I112" s="18"/>
-      <c r="J112" s="18"/>
-      <c r="K112" s="18"/>
-      <c r="L112" s="18"/>
-      <c r="M112" s="18"/>
-      <c r="N112" s="18"/>
-      <c r="O112" s="18"/>
-      <c r="P112" s="18"/>
-      <c r="Q112" s="18"/>
-      <c r="R112" s="18"/>
-      <c r="S112" s="18"/>
-      <c r="T112" s="18"/>
-      <c r="U112" s="18"/>
-      <c r="V112" s="18"/>
-      <c r="W112" s="18"/>
-      <c r="X112" s="18"/>
-      <c r="Y112" s="18"/>
-      <c r="Z112" s="18"/>
-      <c r="AA112" s="18"/>
-      <c r="AB112" s="18"/>
-      <c r="AC112" s="18"/>
-      <c r="AD112" s="18"/>
-      <c r="AE112" s="18"/>
-      <c r="AF112" s="18"/>
-      <c r="AG112" s="18"/>
-      <c r="AH112" s="18"/>
+      <c r="A112" s="17"/>
+      <c r="B112" s="17"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="17"/>
+      <c r="H112" s="17"/>
+      <c r="I112" s="17"/>
+      <c r="J112" s="17"/>
+      <c r="K112" s="17"/>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="17"/>
+      <c r="P112" s="17"/>
+      <c r="Q112" s="17"/>
+      <c r="R112" s="17"/>
+      <c r="S112" s="17"/>
+      <c r="T112" s="17"/>
+      <c r="U112" s="17"/>
+      <c r="V112" s="17"/>
+      <c r="W112" s="17"/>
+      <c r="X112" s="17"/>
+      <c r="Y112" s="17"/>
+      <c r="Z112" s="17"/>
+      <c r="AA112" s="17"/>
+      <c r="AB112" s="17"/>
+      <c r="AC112" s="17"/>
+      <c r="AD112" s="17"/>
+      <c r="AE112" s="17"/>
+      <c r="AF112" s="17"/>
+      <c r="AG112" s="17"/>
+      <c r="AH112" s="17"/>
     </row>
     <row r="113" spans="1:34">
-      <c r="A113" s="18"/>
-      <c r="B113" s="18"/>
-      <c r="C113" s="18"/>
-      <c r="D113" s="18"/>
-      <c r="E113" s="18"/>
-      <c r="F113" s="18"/>
-      <c r="G113" s="18"/>
-      <c r="H113" s="18"/>
-      <c r="I113" s="18"/>
-      <c r="J113" s="18"/>
-      <c r="K113" s="18"/>
-      <c r="L113" s="18"/>
-      <c r="M113" s="18"/>
-      <c r="N113" s="18"/>
-      <c r="O113" s="18"/>
-      <c r="P113" s="18"/>
-      <c r="Q113" s="18"/>
-      <c r="R113" s="18"/>
-      <c r="S113" s="18"/>
-      <c r="T113" s="18"/>
-      <c r="U113" s="18"/>
-      <c r="V113" s="18"/>
-      <c r="W113" s="18"/>
-      <c r="X113" s="18"/>
-      <c r="Y113" s="18"/>
-      <c r="Z113" s="18"/>
-      <c r="AA113" s="18"/>
-      <c r="AB113" s="18"/>
-      <c r="AC113" s="18"/>
-      <c r="AD113" s="18"/>
-      <c r="AE113" s="18"/>
-      <c r="AF113" s="18"/>
-      <c r="AG113" s="18"/>
-      <c r="AH113" s="18"/>
+      <c r="A113" s="17"/>
+      <c r="B113" s="17"/>
+      <c r="C113" s="17"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="17"/>
+      <c r="G113" s="17"/>
+      <c r="H113" s="17"/>
+      <c r="I113" s="17"/>
+      <c r="J113" s="17"/>
+      <c r="K113" s="17"/>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+      <c r="O113" s="17"/>
+      <c r="P113" s="17"/>
+      <c r="Q113" s="17"/>
+      <c r="R113" s="17"/>
+      <c r="S113" s="17"/>
+      <c r="T113" s="17"/>
+      <c r="U113" s="17"/>
+      <c r="V113" s="17"/>
+      <c r="W113" s="17"/>
+      <c r="X113" s="17"/>
+      <c r="Y113" s="17"/>
+      <c r="Z113" s="17"/>
+      <c r="AA113" s="17"/>
+      <c r="AB113" s="17"/>
+      <c r="AC113" s="17"/>
+      <c r="AD113" s="17"/>
+      <c r="AE113" s="17"/>
+      <c r="AF113" s="17"/>
+      <c r="AG113" s="17"/>
+      <c r="AH113" s="17"/>
     </row>
     <row r="114" spans="1:34">
-      <c r="A114" s="18"/>
-      <c r="B114" s="18"/>
-      <c r="C114" s="18"/>
-      <c r="D114" s="18"/>
-      <c r="E114" s="18"/>
-      <c r="F114" s="18"/>
-      <c r="G114" s="18"/>
-      <c r="H114" s="18"/>
-      <c r="I114" s="18"/>
-      <c r="J114" s="18"/>
-      <c r="K114" s="18"/>
-      <c r="L114" s="18"/>
-      <c r="M114" s="18"/>
-      <c r="N114" s="18"/>
-      <c r="O114" s="18"/>
-      <c r="P114" s="18"/>
-      <c r="Q114" s="18"/>
-      <c r="R114" s="18"/>
-      <c r="S114" s="18"/>
-      <c r="T114" s="18"/>
-      <c r="U114" s="18"/>
-      <c r="V114" s="18"/>
-      <c r="W114" s="18"/>
-      <c r="X114" s="18"/>
-      <c r="Y114" s="18"/>
-      <c r="Z114" s="18"/>
-      <c r="AA114" s="18"/>
-      <c r="AB114" s="18"/>
-      <c r="AC114" s="18"/>
-      <c r="AD114" s="18"/>
-      <c r="AE114" s="18"/>
-      <c r="AF114" s="18"/>
-      <c r="AG114" s="18"/>
-      <c r="AH114" s="18"/>
+      <c r="A114" s="17"/>
+      <c r="B114" s="17"/>
+      <c r="C114" s="17"/>
+      <c r="D114" s="17"/>
+      <c r="E114" s="17"/>
+      <c r="F114" s="17"/>
+      <c r="G114" s="17"/>
+      <c r="H114" s="17"/>
+      <c r="I114" s="17"/>
+      <c r="J114" s="17"/>
+      <c r="K114" s="17"/>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
+      <c r="R114" s="17"/>
+      <c r="S114" s="17"/>
+      <c r="T114" s="17"/>
+      <c r="U114" s="17"/>
+      <c r="V114" s="17"/>
+      <c r="W114" s="17"/>
+      <c r="X114" s="17"/>
+      <c r="Y114" s="17"/>
+      <c r="Z114" s="17"/>
+      <c r="AA114" s="17"/>
+      <c r="AB114" s="17"/>
+      <c r="AC114" s="17"/>
+      <c r="AD114" s="17"/>
+      <c r="AE114" s="17"/>
+      <c r="AF114" s="17"/>
+      <c r="AG114" s="17"/>
+      <c r="AH114" s="17"/>
     </row>
     <row r="115" spans="1:34">
-      <c r="A115" s="18"/>
-      <c r="B115" s="18"/>
-      <c r="C115" s="18"/>
-      <c r="D115" s="18"/>
-      <c r="E115" s="18"/>
-      <c r="F115" s="18"/>
-      <c r="G115" s="18"/>
-      <c r="H115" s="18"/>
-      <c r="I115" s="18"/>
-      <c r="J115" s="18"/>
-      <c r="K115" s="18"/>
-      <c r="L115" s="18"/>
-      <c r="M115" s="18"/>
-      <c r="N115" s="18"/>
-      <c r="O115" s="18"/>
-      <c r="P115" s="18"/>
-      <c r="Q115" s="18"/>
-      <c r="R115" s="18"/>
-      <c r="S115" s="18"/>
-      <c r="T115" s="18"/>
-      <c r="U115" s="18"/>
-      <c r="V115" s="18"/>
-      <c r="W115" s="18"/>
-      <c r="X115" s="18"/>
-      <c r="Y115" s="18"/>
-      <c r="Z115" s="18"/>
-      <c r="AA115" s="18"/>
-      <c r="AB115" s="18"/>
-      <c r="AC115" s="18"/>
-      <c r="AD115" s="18"/>
-      <c r="AE115" s="18"/>
-      <c r="AF115" s="18"/>
-      <c r="AG115" s="18"/>
-      <c r="AH115" s="18"/>
+      <c r="A115" s="17"/>
+      <c r="B115" s="17"/>
+      <c r="C115" s="17"/>
+      <c r="D115" s="17"/>
+      <c r="E115" s="17"/>
+      <c r="F115" s="17"/>
+      <c r="G115" s="17"/>
+      <c r="H115" s="17"/>
+      <c r="I115" s="17"/>
+      <c r="J115" s="17"/>
+      <c r="K115" s="17"/>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="17"/>
+      <c r="P115" s="17"/>
+      <c r="Q115" s="17"/>
+      <c r="R115" s="17"/>
+      <c r="S115" s="17"/>
+      <c r="T115" s="17"/>
+      <c r="U115" s="17"/>
+      <c r="V115" s="17"/>
+      <c r="W115" s="17"/>
+      <c r="X115" s="17"/>
+      <c r="Y115" s="17"/>
+      <c r="Z115" s="17"/>
+      <c r="AA115" s="17"/>
+      <c r="AB115" s="17"/>
+      <c r="AC115" s="17"/>
+      <c r="AD115" s="17"/>
+      <c r="AE115" s="17"/>
+      <c r="AF115" s="17"/>
+      <c r="AG115" s="17"/>
+      <c r="AH115" s="17"/>
     </row>
     <row r="116" spans="1:34">
-      <c r="A116" s="18"/>
-      <c r="B116" s="18"/>
-      <c r="C116" s="18"/>
-      <c r="D116" s="18"/>
-      <c r="E116" s="18"/>
-      <c r="F116" s="18"/>
-      <c r="G116" s="18"/>
-      <c r="H116" s="18"/>
-      <c r="I116" s="18"/>
-      <c r="J116" s="18"/>
-      <c r="K116" s="18"/>
-      <c r="L116" s="18"/>
-      <c r="M116" s="18"/>
-      <c r="N116" s="18"/>
-      <c r="O116" s="18"/>
-      <c r="P116" s="18"/>
-      <c r="Q116" s="18"/>
-      <c r="R116" s="18"/>
-      <c r="S116" s="18"/>
-      <c r="T116" s="18"/>
-      <c r="U116" s="18"/>
-      <c r="V116" s="18"/>
-      <c r="W116" s="18"/>
-      <c r="X116" s="18"/>
-      <c r="Y116" s="18"/>
-      <c r="Z116" s="18"/>
-      <c r="AA116" s="18"/>
-      <c r="AB116" s="18"/>
-      <c r="AC116" s="18"/>
-      <c r="AD116" s="18"/>
-      <c r="AE116" s="18"/>
-      <c r="AF116" s="18"/>
-      <c r="AG116" s="18"/>
-      <c r="AH116" s="18"/>
+      <c r="A116" s="17"/>
+      <c r="B116" s="17"/>
+      <c r="C116" s="17"/>
+      <c r="D116" s="17"/>
+      <c r="E116" s="17"/>
+      <c r="F116" s="17"/>
+      <c r="G116" s="17"/>
+      <c r="H116" s="17"/>
+      <c r="I116" s="17"/>
+      <c r="J116" s="17"/>
+      <c r="K116" s="17"/>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
+      <c r="R116" s="17"/>
+      <c r="S116" s="17"/>
+      <c r="T116" s="17"/>
+      <c r="U116" s="17"/>
+      <c r="V116" s="17"/>
+      <c r="W116" s="17"/>
+      <c r="X116" s="17"/>
+      <c r="Y116" s="17"/>
+      <c r="Z116" s="17"/>
+      <c r="AA116" s="17"/>
+      <c r="AB116" s="17"/>
+      <c r="AC116" s="17"/>
+      <c r="AD116" s="17"/>
+      <c r="AE116" s="17"/>
+      <c r="AF116" s="17"/>
+      <c r="AG116" s="17"/>
+      <c r="AH116" s="17"/>
     </row>
     <row r="117" spans="1:34">
-      <c r="A117" s="18"/>
-      <c r="B117" s="18"/>
-      <c r="C117" s="18"/>
-      <c r="D117" s="18"/>
-      <c r="E117" s="18"/>
-      <c r="F117" s="18"/>
-      <c r="G117" s="18"/>
-      <c r="H117" s="18"/>
-      <c r="I117" s="18"/>
-      <c r="J117" s="18"/>
-      <c r="K117" s="18"/>
-      <c r="L117" s="18"/>
-      <c r="M117" s="18"/>
-      <c r="N117" s="18"/>
-      <c r="O117" s="18"/>
-      <c r="P117" s="18"/>
-      <c r="Q117" s="18"/>
-      <c r="R117" s="18"/>
-      <c r="S117" s="18"/>
-      <c r="T117" s="18"/>
-      <c r="U117" s="18"/>
-      <c r="V117" s="18"/>
-      <c r="W117" s="18"/>
-      <c r="X117" s="18"/>
-      <c r="Y117" s="18"/>
-      <c r="Z117" s="18"/>
-      <c r="AA117" s="18"/>
-      <c r="AB117" s="18"/>
-      <c r="AC117" s="18"/>
-      <c r="AD117" s="18"/>
-      <c r="AE117" s="18"/>
-      <c r="AF117" s="18"/>
-      <c r="AG117" s="18"/>
-      <c r="AH117" s="18"/>
+      <c r="A117" s="17"/>
+      <c r="B117" s="17"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="17"/>
+      <c r="G117" s="17"/>
+      <c r="H117" s="17"/>
+      <c r="I117" s="17"/>
+      <c r="J117" s="17"/>
+      <c r="K117" s="17"/>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
+      <c r="R117" s="17"/>
+      <c r="S117" s="17"/>
+      <c r="T117" s="17"/>
+      <c r="U117" s="17"/>
+      <c r="V117" s="17"/>
+      <c r="W117" s="17"/>
+      <c r="X117" s="17"/>
+      <c r="Y117" s="17"/>
+      <c r="Z117" s="17"/>
+      <c r="AA117" s="17"/>
+      <c r="AB117" s="17"/>
+      <c r="AC117" s="17"/>
+      <c r="AD117" s="17"/>
+      <c r="AE117" s="17"/>
+      <c r="AF117" s="17"/>
+      <c r="AG117" s="17"/>
+      <c r="AH117" s="17"/>
     </row>
     <row r="118" spans="1:34">
-      <c r="A118" s="18"/>
-      <c r="B118" s="18"/>
-      <c r="C118" s="18"/>
-      <c r="D118" s="18"/>
-      <c r="E118" s="18"/>
-      <c r="F118" s="18"/>
-      <c r="G118" s="18"/>
-      <c r="H118" s="18"/>
-      <c r="I118" s="18"/>
-      <c r="J118" s="18"/>
-      <c r="K118" s="18"/>
-      <c r="L118" s="18"/>
-      <c r="M118" s="18"/>
-      <c r="N118" s="18"/>
-      <c r="O118" s="18"/>
-      <c r="P118" s="18"/>
-      <c r="Q118" s="18"/>
-      <c r="R118" s="18"/>
-      <c r="S118" s="18"/>
-      <c r="T118" s="18"/>
-      <c r="U118" s="18"/>
-      <c r="V118" s="18"/>
-      <c r="W118" s="18"/>
-      <c r="X118" s="18"/>
-      <c r="Y118" s="18"/>
-      <c r="Z118" s="18"/>
-      <c r="AA118" s="18"/>
-      <c r="AB118" s="18"/>
-      <c r="AC118" s="18"/>
-      <c r="AD118" s="18"/>
-      <c r="AE118" s="18"/>
-      <c r="AF118" s="18"/>
-      <c r="AG118" s="18"/>
-      <c r="AH118" s="18"/>
+      <c r="A118" s="17"/>
+      <c r="B118" s="17"/>
+      <c r="C118" s="17"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="17"/>
+      <c r="G118" s="17"/>
+      <c r="H118" s="17"/>
+      <c r="I118" s="17"/>
+      <c r="J118" s="17"/>
+      <c r="K118" s="17"/>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
+      <c r="P118" s="17"/>
+      <c r="Q118" s="17"/>
+      <c r="R118" s="17"/>
+      <c r="S118" s="17"/>
+      <c r="T118" s="17"/>
+      <c r="U118" s="17"/>
+      <c r="V118" s="17"/>
+      <c r="W118" s="17"/>
+      <c r="X118" s="17"/>
+      <c r="Y118" s="17"/>
+      <c r="Z118" s="17"/>
+      <c r="AA118" s="17"/>
+      <c r="AB118" s="17"/>
+      <c r="AC118" s="17"/>
+      <c r="AD118" s="17"/>
+      <c r="AE118" s="17"/>
+      <c r="AF118" s="17"/>
+      <c r="AG118" s="17"/>
+      <c r="AH118" s="17"/>
     </row>
     <row r="119" spans="1:34">
-      <c r="A119" s="18"/>
-      <c r="B119" s="18"/>
-      <c r="C119" s="18"/>
-      <c r="D119" s="18"/>
-      <c r="E119" s="18"/>
-      <c r="F119" s="18"/>
-      <c r="G119" s="18"/>
-      <c r="H119" s="18"/>
-      <c r="I119" s="18"/>
-      <c r="J119" s="18"/>
-      <c r="K119" s="18"/>
-      <c r="L119" s="18"/>
-      <c r="M119" s="18"/>
-      <c r="N119" s="18"/>
-      <c r="O119" s="18"/>
-      <c r="P119" s="18"/>
-      <c r="Q119" s="18"/>
-      <c r="R119" s="18"/>
-      <c r="S119" s="18"/>
-      <c r="T119" s="18"/>
-      <c r="U119" s="18"/>
-      <c r="V119" s="18"/>
-      <c r="W119" s="18"/>
-      <c r="X119" s="18"/>
-      <c r="Y119" s="18"/>
-      <c r="Z119" s="18"/>
-      <c r="AA119" s="18"/>
-      <c r="AB119" s="18"/>
-      <c r="AC119" s="18"/>
-      <c r="AD119" s="18"/>
-      <c r="AE119" s="18"/>
-      <c r="AF119" s="18"/>
-      <c r="AG119" s="18"/>
-      <c r="AH119" s="18"/>
+      <c r="A119" s="17"/>
+      <c r="B119" s="17"/>
+      <c r="C119" s="17"/>
+      <c r="D119" s="17"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="17"/>
+      <c r="G119" s="17"/>
+      <c r="H119" s="17"/>
+      <c r="I119" s="17"/>
+      <c r="J119" s="17"/>
+      <c r="K119" s="17"/>
+      <c r="L119" s="17"/>
+      <c r="M119" s="17"/>
+      <c r="N119" s="17"/>
+      <c r="O119" s="17"/>
+      <c r="P119" s="17"/>
+      <c r="Q119" s="17"/>
+      <c r="R119" s="17"/>
+      <c r="S119" s="17"/>
+      <c r="T119" s="17"/>
+      <c r="U119" s="17"/>
+      <c r="V119" s="17"/>
+      <c r="W119" s="17"/>
+      <c r="X119" s="17"/>
+      <c r="Y119" s="17"/>
+      <c r="Z119" s="17"/>
+      <c r="AA119" s="17"/>
+      <c r="AB119" s="17"/>
+      <c r="AC119" s="17"/>
+      <c r="AD119" s="17"/>
+      <c r="AE119" s="17"/>
+      <c r="AF119" s="17"/>
+      <c r="AG119" s="17"/>
+      <c r="AH119" s="17"/>
     </row>
     <row r="120" spans="1:34">
-      <c r="A120" s="18"/>
-      <c r="B120" s="18"/>
-      <c r="C120" s="18"/>
-      <c r="D120" s="18"/>
-      <c r="E120" s="18"/>
-      <c r="F120" s="18"/>
-      <c r="G120" s="18"/>
-      <c r="H120" s="18"/>
-      <c r="I120" s="18"/>
-      <c r="J120" s="18"/>
-      <c r="K120" s="18"/>
-      <c r="L120" s="18"/>
-      <c r="M120" s="18"/>
-      <c r="N120" s="18"/>
-      <c r="O120" s="18"/>
-      <c r="P120" s="18"/>
-      <c r="Q120" s="18"/>
-      <c r="R120" s="18"/>
-      <c r="S120" s="18"/>
-      <c r="T120" s="18"/>
-      <c r="U120" s="18"/>
-      <c r="V120" s="18"/>
-      <c r="W120" s="18"/>
-      <c r="X120" s="18"/>
-      <c r="Y120" s="18"/>
-      <c r="Z120" s="18"/>
-      <c r="AA120" s="18"/>
-      <c r="AB120" s="18"/>
-      <c r="AC120" s="18"/>
-      <c r="AD120" s="18"/>
-      <c r="AE120" s="18"/>
-      <c r="AF120" s="18"/>
-      <c r="AG120" s="18"/>
-      <c r="AH120" s="18"/>
+      <c r="A120" s="17"/>
+      <c r="B120" s="17"/>
+      <c r="C120" s="17"/>
+      <c r="D120" s="17"/>
+      <c r="E120" s="17"/>
+      <c r="F120" s="17"/>
+      <c r="G120" s="17"/>
+      <c r="H120" s="17"/>
+      <c r="I120" s="17"/>
+      <c r="J120" s="17"/>
+      <c r="K120" s="17"/>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="17"/>
+      <c r="P120" s="17"/>
+      <c r="Q120" s="17"/>
+      <c r="R120" s="17"/>
+      <c r="S120" s="17"/>
+      <c r="T120" s="17"/>
+      <c r="U120" s="17"/>
+      <c r="V120" s="17"/>
+      <c r="W120" s="17"/>
+      <c r="X120" s="17"/>
+      <c r="Y120" s="17"/>
+      <c r="Z120" s="17"/>
+      <c r="AA120" s="17"/>
+      <c r="AB120" s="17"/>
+      <c r="AC120" s="17"/>
+      <c r="AD120" s="17"/>
+      <c r="AE120" s="17"/>
+      <c r="AF120" s="17"/>
+      <c r="AG120" s="17"/>
+      <c r="AH120" s="17"/>
     </row>
     <row r="121" spans="1:34">
-      <c r="A121" s="18"/>
-      <c r="B121" s="18"/>
-      <c r="C121" s="18"/>
-      <c r="D121" s="18"/>
-      <c r="E121" s="18"/>
-      <c r="F121" s="18"/>
-      <c r="G121" s="18"/>
-      <c r="H121" s="18"/>
-      <c r="I121" s="18"/>
-      <c r="J121" s="18"/>
-      <c r="K121" s="18"/>
-      <c r="L121" s="18"/>
-      <c r="M121" s="18"/>
-      <c r="N121" s="18"/>
-      <c r="O121" s="18"/>
-      <c r="P121" s="18"/>
-      <c r="Q121" s="18"/>
-      <c r="R121" s="18"/>
-      <c r="S121" s="18"/>
-      <c r="T121" s="18"/>
-      <c r="U121" s="18"/>
-      <c r="V121" s="18"/>
-      <c r="W121" s="18"/>
-      <c r="X121" s="18"/>
-      <c r="Y121" s="18"/>
-      <c r="Z121" s="18"/>
-      <c r="AA121" s="18"/>
-      <c r="AB121" s="18"/>
-      <c r="AC121" s="18"/>
-      <c r="AD121" s="18"/>
-      <c r="AE121" s="18"/>
-      <c r="AF121" s="18"/>
-      <c r="AG121" s="18"/>
-      <c r="AH121" s="18"/>
+      <c r="A121" s="17"/>
+      <c r="B121" s="17"/>
+      <c r="C121" s="17"/>
+      <c r="D121" s="17"/>
+      <c r="E121" s="17"/>
+      <c r="F121" s="17"/>
+      <c r="G121" s="17"/>
+      <c r="H121" s="17"/>
+      <c r="I121" s="17"/>
+      <c r="J121" s="17"/>
+      <c r="K121" s="17"/>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+      <c r="N121" s="17"/>
+      <c r="O121" s="17"/>
+      <c r="P121" s="17"/>
+      <c r="Q121" s="17"/>
+      <c r="R121" s="17"/>
+      <c r="S121" s="17"/>
+      <c r="T121" s="17"/>
+      <c r="U121" s="17"/>
+      <c r="V121" s="17"/>
+      <c r="W121" s="17"/>
+      <c r="X121" s="17"/>
+      <c r="Y121" s="17"/>
+      <c r="Z121" s="17"/>
+      <c r="AA121" s="17"/>
+      <c r="AB121" s="17"/>
+      <c r="AC121" s="17"/>
+      <c r="AD121" s="17"/>
+      <c r="AE121" s="17"/>
+      <c r="AF121" s="17"/>
+      <c r="AG121" s="17"/>
+      <c r="AH121" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Level_Tool.xlsx
+++ b/Assets/Level_Tool.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scote/Desktop/DOSSIER PERSO/ArduBoy Projects files/SpaceCab/Assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scote/Downloads/SpaceCab-master/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C672B682-D2D7-3642-BB3F-3DD6C30B71CD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{856ABBDD-7C0B-9742-A95A-8A5190B31794}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="71200" yWindow="1400" windowWidth="28040" windowHeight="26880" xr2:uid="{034143F2-81DD-E240-A4FE-E146F63DCD7B}"/>
+    <workbookView xWindow="62400" yWindow="460" windowWidth="28040" windowHeight="26880" xr2:uid="{034143F2-81DD-E240-A4FE-E146F63DCD7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2567" uniqueCount="22">
   <si>
     <t xml:space="preserve">PLAT1, </t>
   </si>
@@ -89,6 +89,12 @@
   <si>
     <t>SPIKD,</t>
   </si>
+  <si>
+    <t>Level 5</t>
+  </si>
+  <si>
+    <t>PLAYER SPAWN</t>
+  </si>
 </sst>
 </file>
 
@@ -116,7 +122,7 @@
       <name val="Calibri (Corps)_x0000_"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -213,6 +219,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC990FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -226,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -245,12 +257,18 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC990FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -562,10 +580,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AJ121"/>
+  <dimension ref="A1:AK121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="W76" sqref="W76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1104,9 +1122,7 @@
       <c r="T7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="U7" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="U7" s="18"/>
       <c r="V7" s="6" t="s">
         <v>8</v>
       </c>
@@ -2113,7 +2129,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="16" customHeight="1">
+    <row r="17" spans="1:37" ht="16" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -2220,7 +2236,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="16" customHeight="1">
+    <row r="18" spans="1:37" ht="16" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>15</v>
       </c>
@@ -2327,7 +2343,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:37">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
@@ -2363,7 +2379,7 @@
       <c r="AG19" s="17"/>
       <c r="AH19" s="17"/>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:37">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -2399,12 +2415,16 @@
       <c r="AG20" s="17"/>
       <c r="AH20" s="17"/>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:37">
       <c r="A21" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:36">
+      <c r="AJ21" s="18"/>
+      <c r="AK21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37">
       <c r="A22">
         <v>0</v>
       </c>
@@ -2508,7 +2528,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:37">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2544,7 +2564,7 @@
       <c r="AG23" s="1"/>
       <c r="AH23" s="1"/>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:37">
       <c r="A24" s="14" t="s">
         <v>14</v>
       </c>
@@ -2648,7 +2668,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:37">
       <c r="A25" s="4" t="s">
         <v>1</v>
       </c>
@@ -2752,7 +2772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:37">
       <c r="A26" s="4" t="s">
         <v>1</v>
       </c>
@@ -2856,7 +2876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:37">
       <c r="A27" s="4" t="s">
         <v>1</v>
       </c>
@@ -2960,7 +2980,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:37">
       <c r="A28" s="4" t="s">
         <v>1</v>
       </c>
@@ -3064,7 +3084,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:37">
       <c r="A29" s="4" t="s">
         <v>1</v>
       </c>
@@ -3168,7 +3188,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:37">
       <c r="A30" s="4" t="s">
         <v>1</v>
       </c>
@@ -3272,7 +3292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:37">
       <c r="A31" s="12" t="s">
         <v>17</v>
       </c>
@@ -3376,7 +3396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:37">
       <c r="A32" s="12" t="s">
         <v>17</v>
       </c>
@@ -3930,9 +3950,7 @@
       <c r="K37" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L37" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="L37" s="18"/>
       <c r="M37" s="6" t="s">
         <v>8</v>
       </c>
@@ -5535,9 +5553,7 @@
       <c r="W55" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="X55" s="8" t="s">
-        <v>2</v>
-      </c>
+      <c r="X55" s="18"/>
       <c r="Y55" s="8" t="s">
         <v>2</v>
       </c>
@@ -6310,20 +6326,20 @@
       <c r="A66" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>1</v>
+      <c r="B66" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D66" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>1</v>
+      <c r="D66" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>1</v>
@@ -6732,8 +6748,8 @@
       <c r="C70" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D70" s="4" t="s">
-        <v>1</v>
+      <c r="D70" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>1</v>
@@ -6839,8 +6855,8 @@
       <c r="D71" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E71" s="4" t="s">
-        <v>1</v>
+      <c r="E71" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>1</v>
@@ -6946,8 +6962,8 @@
       <c r="E72" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F72" s="4" t="s">
-        <v>1</v>
+      <c r="F72" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>1</v>
@@ -7053,32 +7069,30 @@
       <c r="F73" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G73" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I73" s="4" t="s">
-        <v>1</v>
+      <c r="G73" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="J73" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K73" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="L73" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="M73" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="N73" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="O73" s="4" t="s">
-        <v>1</v>
+      <c r="K73" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L73" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M73" s="18"/>
+      <c r="N73" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="O73" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="P73" s="4" t="s">
         <v>1</v>
@@ -7731,652 +7745,1707 @@
       <c r="AH80" s="17"/>
     </row>
     <row r="81" spans="1:34">
-      <c r="A81" s="17"/>
-      <c r="B81" s="17"/>
-      <c r="C81" s="17"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
-      <c r="F81" s="17"/>
-      <c r="G81" s="17"/>
-      <c r="H81" s="17"/>
-      <c r="I81" s="17"/>
-      <c r="J81" s="17"/>
-      <c r="K81" s="17"/>
-      <c r="L81" s="17"/>
-      <c r="M81" s="17"/>
-      <c r="N81" s="17"/>
-      <c r="O81" s="17"/>
-      <c r="P81" s="17"/>
-      <c r="Q81" s="17"/>
-      <c r="R81" s="17"/>
-      <c r="S81" s="17"/>
-      <c r="T81" s="17"/>
-      <c r="U81" s="17"/>
-      <c r="V81" s="17"/>
-      <c r="W81" s="17"/>
-      <c r="X81" s="17"/>
-      <c r="Y81" s="17"/>
-      <c r="Z81" s="17"/>
-      <c r="AA81" s="17"/>
-      <c r="AB81" s="17"/>
-      <c r="AC81" s="17"/>
-      <c r="AD81" s="17"/>
-      <c r="AE81" s="17"/>
-      <c r="AF81" s="17"/>
-      <c r="AG81" s="17"/>
-      <c r="AH81" s="17"/>
+      <c r="A81" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="82" spans="1:34">
-      <c r="A82" s="17"/>
-      <c r="B82" s="17"/>
-      <c r="C82" s="17"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="17"/>
-      <c r="H82" s="17"/>
-      <c r="I82" s="17"/>
-      <c r="J82" s="17"/>
-      <c r="K82" s="17"/>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
-      <c r="P82" s="17"/>
-      <c r="Q82" s="17"/>
-      <c r="R82" s="17"/>
-      <c r="S82" s="17"/>
-      <c r="T82" s="17"/>
-      <c r="U82" s="17"/>
-      <c r="V82" s="17"/>
-      <c r="W82" s="17"/>
-      <c r="X82" s="17"/>
-      <c r="Y82" s="17"/>
-      <c r="Z82" s="17"/>
-      <c r="AA82" s="17"/>
-      <c r="AB82" s="17"/>
-      <c r="AC82" s="17"/>
-      <c r="AD82" s="17"/>
-      <c r="AE82" s="17"/>
-      <c r="AF82" s="17"/>
-      <c r="AG82" s="17"/>
-      <c r="AH82" s="17"/>
+      <c r="A82">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+      <c r="E82">
+        <v>4</v>
+      </c>
+      <c r="F82">
+        <v>5</v>
+      </c>
+      <c r="G82">
+        <v>6</v>
+      </c>
+      <c r="H82">
+        <v>7</v>
+      </c>
+      <c r="I82">
+        <v>8</v>
+      </c>
+      <c r="J82">
+        <v>9</v>
+      </c>
+      <c r="K82">
+        <v>10</v>
+      </c>
+      <c r="L82">
+        <v>11</v>
+      </c>
+      <c r="M82">
+        <v>12</v>
+      </c>
+      <c r="N82">
+        <v>13</v>
+      </c>
+      <c r="O82">
+        <v>14</v>
+      </c>
+      <c r="P82">
+        <v>15</v>
+      </c>
+      <c r="Q82">
+        <v>16</v>
+      </c>
+      <c r="R82">
+        <v>17</v>
+      </c>
+      <c r="S82">
+        <v>18</v>
+      </c>
+      <c r="T82">
+        <v>19</v>
+      </c>
+      <c r="U82">
+        <v>20</v>
+      </c>
+      <c r="V82">
+        <v>21</v>
+      </c>
+      <c r="W82">
+        <v>22</v>
+      </c>
+      <c r="X82">
+        <v>23</v>
+      </c>
+      <c r="Y82">
+        <v>24</v>
+      </c>
+      <c r="Z82">
+        <v>25</v>
+      </c>
+      <c r="AA82">
+        <v>26</v>
+      </c>
+      <c r="AB82">
+        <v>27</v>
+      </c>
+      <c r="AC82">
+        <v>28</v>
+      </c>
+      <c r="AD82">
+        <v>29</v>
+      </c>
+      <c r="AE82">
+        <v>30</v>
+      </c>
+      <c r="AF82">
+        <v>31</v>
+      </c>
+      <c r="AG82">
+        <v>32</v>
+      </c>
+      <c r="AH82">
+        <v>33</v>
+      </c>
     </row>
     <row r="83" spans="1:34">
-      <c r="A83" s="17"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="17"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="17"/>
-      <c r="I83" s="17"/>
-      <c r="J83" s="17"/>
-      <c r="K83" s="17"/>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
-      <c r="R83" s="17"/>
-      <c r="S83" s="17"/>
-      <c r="T83" s="17"/>
-      <c r="U83" s="17"/>
-      <c r="V83" s="17"/>
-      <c r="W83" s="17"/>
-      <c r="X83" s="17"/>
-      <c r="Y83" s="17"/>
-      <c r="Z83" s="17"/>
-      <c r="AA83" s="17"/>
-      <c r="AB83" s="17"/>
-      <c r="AC83" s="17"/>
-      <c r="AD83" s="17"/>
-      <c r="AE83" s="17"/>
-      <c r="AF83" s="17"/>
-      <c r="AG83" s="17"/>
-      <c r="AH83" s="17"/>
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="1"/>
+      <c r="W83" s="1"/>
+      <c r="X83" s="1"/>
+      <c r="Y83" s="1"/>
+      <c r="Z83" s="1"/>
+      <c r="AA83" s="1"/>
+      <c r="AB83" s="1"/>
+      <c r="AC83" s="1"/>
+      <c r="AD83" s="1"/>
+      <c r="AE83" s="1"/>
+      <c r="AF83" s="1"/>
+      <c r="AG83" s="1"/>
+      <c r="AH83" s="1"/>
     </row>
     <row r="84" spans="1:34">
-      <c r="A84" s="17"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="17"/>
-      <c r="I84" s="17"/>
-      <c r="J84" s="17"/>
-      <c r="K84" s="17"/>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
-      <c r="R84" s="17"/>
-      <c r="S84" s="17"/>
-      <c r="T84" s="17"/>
-      <c r="U84" s="17"/>
-      <c r="V84" s="17"/>
-      <c r="W84" s="17"/>
-      <c r="X84" s="17"/>
-      <c r="Y84" s="17"/>
-      <c r="Z84" s="17"/>
-      <c r="AA84" s="17"/>
-      <c r="AB84" s="17"/>
-      <c r="AC84" s="17"/>
-      <c r="AD84" s="17"/>
-      <c r="AE84" s="17"/>
-      <c r="AF84" s="17"/>
-      <c r="AG84" s="17"/>
-      <c r="AH84" s="17"/>
+      <c r="A84" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G84" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H84" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I84" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J84" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K84" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L84" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M84" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N84" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="O84" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P84" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q84" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="R84" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="S84" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="T84" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="U84" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="V84" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="W84" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="X84" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y84" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z84" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA84" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB84" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC84" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD84" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE84" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF84" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG84" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH84" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="85" spans="1:34">
-      <c r="A85" s="17"/>
-      <c r="B85" s="17"/>
-      <c r="C85" s="17"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="17"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="17"/>
-      <c r="I85" s="17"/>
-      <c r="J85" s="17"/>
-      <c r="K85" s="17"/>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
-      <c r="R85" s="17"/>
-      <c r="S85" s="17"/>
-      <c r="T85" s="17"/>
-      <c r="U85" s="17"/>
-      <c r="V85" s="17"/>
-      <c r="W85" s="17"/>
-      <c r="X85" s="17"/>
-      <c r="Y85" s="17"/>
-      <c r="Z85" s="17"/>
-      <c r="AA85" s="17"/>
-      <c r="AB85" s="17"/>
-      <c r="AC85" s="17"/>
-      <c r="AD85" s="17"/>
-      <c r="AE85" s="17"/>
-      <c r="AF85" s="17"/>
-      <c r="AG85" s="17"/>
-      <c r="AH85" s="17"/>
+      <c r="A85" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J85" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K85" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L85" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M85" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N85" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="O85" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P85" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q85" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R85" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S85" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T85" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="U85" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="V85" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="W85" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="X85" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y85" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z85" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA85" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB85" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC85" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD85" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE85" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF85" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG85" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH85" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="86" spans="1:34">
-      <c r="A86" s="17"/>
-      <c r="B86" s="17"/>
-      <c r="C86" s="17"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="17"/>
-      <c r="G86" s="17"/>
-      <c r="H86" s="17"/>
-      <c r="I86" s="17"/>
-      <c r="J86" s="17"/>
-      <c r="K86" s="17"/>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
-      <c r="R86" s="17"/>
-      <c r="S86" s="17"/>
-      <c r="T86" s="17"/>
-      <c r="U86" s="17"/>
-      <c r="V86" s="17"/>
-      <c r="W86" s="17"/>
-      <c r="X86" s="17"/>
-      <c r="Y86" s="17"/>
-      <c r="Z86" s="17"/>
-      <c r="AA86" s="17"/>
-      <c r="AB86" s="17"/>
-      <c r="AC86" s="17"/>
-      <c r="AD86" s="17"/>
-      <c r="AE86" s="17"/>
-      <c r="AF86" s="17"/>
-      <c r="AG86" s="17"/>
-      <c r="AH86" s="17"/>
+      <c r="A86" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K86" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L86" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M86" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N86" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O86" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P86" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q86" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R86" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S86" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T86" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="U86" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V86" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W86" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X86" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y86" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z86" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA86" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB86" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC86" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD86" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE86" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF86" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG86" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH86" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="87" spans="1:34">
-      <c r="A87" s="17"/>
-      <c r="B87" s="17"/>
-      <c r="C87" s="17"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="17"/>
-      <c r="F87" s="17"/>
-      <c r="G87" s="17"/>
-      <c r="H87" s="17"/>
-      <c r="I87" s="17"/>
-      <c r="J87" s="17"/>
-      <c r="K87" s="17"/>
-      <c r="L87" s="17"/>
-      <c r="M87" s="17"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="17"/>
-      <c r="P87" s="17"/>
-      <c r="Q87" s="17"/>
-      <c r="R87" s="17"/>
-      <c r="S87" s="17"/>
-      <c r="T87" s="17"/>
-      <c r="U87" s="17"/>
-      <c r="V87" s="17"/>
-      <c r="W87" s="17"/>
-      <c r="X87" s="17"/>
-      <c r="Y87" s="17"/>
-      <c r="Z87" s="17"/>
-      <c r="AA87" s="17"/>
-      <c r="AB87" s="17"/>
-      <c r="AC87" s="17"/>
-      <c r="AD87" s="17"/>
-      <c r="AE87" s="17"/>
-      <c r="AF87" s="17"/>
-      <c r="AG87" s="17"/>
-      <c r="AH87" s="17"/>
+      <c r="A87" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E87" s="18"/>
+      <c r="F87" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K87" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L87" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M87" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N87" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O87" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P87" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q87" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R87" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S87" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T87" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U87" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V87" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W87" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X87" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y87" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z87" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA87" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB87" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC87" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD87" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE87" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF87" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG87" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH87" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="88" spans="1:34">
-      <c r="A88" s="17"/>
-      <c r="B88" s="17"/>
-      <c r="C88" s="17"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="17"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="17"/>
-      <c r="I88" s="17"/>
-      <c r="J88" s="17"/>
-      <c r="K88" s="17"/>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
-      <c r="R88" s="17"/>
-      <c r="S88" s="17"/>
-      <c r="T88" s="17"/>
-      <c r="U88" s="17"/>
-      <c r="V88" s="17"/>
-      <c r="W88" s="17"/>
-      <c r="X88" s="17"/>
-      <c r="Y88" s="17"/>
-      <c r="Z88" s="17"/>
-      <c r="AA88" s="17"/>
-      <c r="AB88" s="17"/>
-      <c r="AC88" s="17"/>
-      <c r="AD88" s="17"/>
-      <c r="AE88" s="17"/>
-      <c r="AF88" s="17"/>
-      <c r="AG88" s="17"/>
-      <c r="AH88" s="17"/>
+      <c r="A88" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K88" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L88" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M88" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N88" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O88" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P88" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q88" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R88" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S88" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T88" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U88" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V88" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W88" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X88" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y88" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z88" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA88" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB88" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC88" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD88" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE88" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF88" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG88" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH88" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="89" spans="1:34">
-      <c r="A89" s="17"/>
-      <c r="B89" s="17"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="17"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="17"/>
-      <c r="I89" s="17"/>
-      <c r="J89" s="17"/>
-      <c r="K89" s="17"/>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
-      <c r="R89" s="17"/>
-      <c r="S89" s="17"/>
-      <c r="T89" s="17"/>
-      <c r="U89" s="17"/>
-      <c r="V89" s="17"/>
-      <c r="W89" s="17"/>
-      <c r="X89" s="17"/>
-      <c r="Y89" s="17"/>
-      <c r="Z89" s="17"/>
-      <c r="AA89" s="17"/>
-      <c r="AB89" s="17"/>
-      <c r="AC89" s="17"/>
-      <c r="AD89" s="17"/>
-      <c r="AE89" s="17"/>
-      <c r="AF89" s="17"/>
-      <c r="AG89" s="17"/>
-      <c r="AH89" s="17"/>
+      <c r="A89" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K89" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L89" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M89" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N89" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O89" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P89" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q89" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R89" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S89" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T89" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U89" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V89" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W89" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="X89" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y89" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z89" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA89" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB89" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC89" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD89" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE89" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF89" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG89" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH89" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="90" spans="1:34">
-      <c r="A90" s="17"/>
-      <c r="B90" s="17"/>
-      <c r="C90" s="17"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="17"/>
-      <c r="F90" s="17"/>
-      <c r="G90" s="17"/>
-      <c r="H90" s="17"/>
-      <c r="I90" s="17"/>
-      <c r="J90" s="17"/>
-      <c r="K90" s="17"/>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
-      <c r="R90" s="17"/>
-      <c r="S90" s="17"/>
-      <c r="T90" s="17"/>
-      <c r="U90" s="17"/>
-      <c r="V90" s="17"/>
-      <c r="W90" s="17"/>
-      <c r="X90" s="17"/>
-      <c r="Y90" s="17"/>
-      <c r="Z90" s="17"/>
-      <c r="AA90" s="17"/>
-      <c r="AB90" s="17"/>
-      <c r="AC90" s="17"/>
-      <c r="AD90" s="17"/>
-      <c r="AE90" s="17"/>
-      <c r="AF90" s="17"/>
-      <c r="AG90" s="17"/>
-      <c r="AH90" s="17"/>
+      <c r="A90" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K90" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L90" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M90" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N90" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="O90" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="P90" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q90" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="R90" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="S90" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="T90" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="U90" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="V90" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="W90" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="X90" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y90" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z90" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA90" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB90" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC90" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD90" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE90" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF90" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG90" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH90" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="91" spans="1:34">
-      <c r="A91" s="17"/>
-      <c r="B91" s="17"/>
-      <c r="C91" s="17"/>
-      <c r="D91" s="17"/>
-      <c r="E91" s="17"/>
-      <c r="F91" s="17"/>
-      <c r="G91" s="17"/>
-      <c r="H91" s="17"/>
-      <c r="I91" s="17"/>
-      <c r="J91" s="17"/>
-      <c r="K91" s="17"/>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
-      <c r="R91" s="17"/>
-      <c r="S91" s="17"/>
-      <c r="T91" s="17"/>
-      <c r="U91" s="17"/>
-      <c r="V91" s="17"/>
-      <c r="W91" s="17"/>
-      <c r="X91" s="17"/>
-      <c r="Y91" s="17"/>
-      <c r="Z91" s="17"/>
-      <c r="AA91" s="17"/>
-      <c r="AB91" s="17"/>
-      <c r="AC91" s="17"/>
-      <c r="AD91" s="17"/>
-      <c r="AE91" s="17"/>
-      <c r="AF91" s="17"/>
-      <c r="AG91" s="17"/>
-      <c r="AH91" s="17"/>
+      <c r="A91" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J91" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K91" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L91" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M91" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N91" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="O91" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P91" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q91" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="R91" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="S91" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="T91" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="U91" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="V91" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="W91" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="X91" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y91" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z91" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA91" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB91" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC91" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD91" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE91" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF91" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG91" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH91" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="92" spans="1:34">
-      <c r="A92" s="17"/>
-      <c r="B92" s="17"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="17"/>
-      <c r="G92" s="17"/>
-      <c r="H92" s="17"/>
-      <c r="I92" s="17"/>
-      <c r="J92" s="17"/>
-      <c r="K92" s="17"/>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
-      <c r="R92" s="17"/>
-      <c r="S92" s="17"/>
-      <c r="T92" s="17"/>
-      <c r="U92" s="17"/>
-      <c r="V92" s="17"/>
-      <c r="W92" s="17"/>
-      <c r="X92" s="17"/>
-      <c r="Y92" s="17"/>
-      <c r="Z92" s="17"/>
-      <c r="AA92" s="17"/>
-      <c r="AB92" s="17"/>
-      <c r="AC92" s="17"/>
-      <c r="AD92" s="17"/>
-      <c r="AE92" s="17"/>
-      <c r="AF92" s="17"/>
-      <c r="AG92" s="17"/>
-      <c r="AH92" s="17"/>
+      <c r="A92" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E92" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G92" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H92" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I92" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J92" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K92" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L92" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M92" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N92" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="O92" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P92" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q92" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="R92" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="S92" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="T92" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="U92" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="V92" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="W92" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="X92" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y92" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z92" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA92" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB92" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC92" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD92" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE92" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF92" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG92" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH92" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="93" spans="1:34">
-      <c r="A93" s="17"/>
-      <c r="B93" s="17"/>
-      <c r="C93" s="17"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="17"/>
-      <c r="G93" s="17"/>
-      <c r="H93" s="17"/>
-      <c r="I93" s="17"/>
-      <c r="J93" s="17"/>
-      <c r="K93" s="17"/>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
-      <c r="R93" s="17"/>
-      <c r="S93" s="17"/>
-      <c r="T93" s="17"/>
-      <c r="U93" s="17"/>
-      <c r="V93" s="17"/>
-      <c r="W93" s="17"/>
-      <c r="X93" s="17"/>
-      <c r="Y93" s="17"/>
-      <c r="Z93" s="17"/>
-      <c r="AA93" s="17"/>
-      <c r="AB93" s="17"/>
-      <c r="AC93" s="17"/>
-      <c r="AD93" s="17"/>
-      <c r="AE93" s="17"/>
-      <c r="AF93" s="17"/>
-      <c r="AG93" s="17"/>
-      <c r="AH93" s="17"/>
+      <c r="A93" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K93" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L93" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M93" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N93" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O93" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P93" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q93" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R93" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S93" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T93" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U93" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V93" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="W93" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="X93" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y93" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z93" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA93" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB93" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC93" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD93" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE93" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF93" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG93" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH93" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="94" spans="1:34">
-      <c r="A94" s="17"/>
-      <c r="B94" s="17"/>
-      <c r="C94" s="17"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="17"/>
-      <c r="F94" s="17"/>
-      <c r="G94" s="17"/>
-      <c r="H94" s="17"/>
-      <c r="I94" s="17"/>
-      <c r="J94" s="17"/>
-      <c r="K94" s="17"/>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
-      <c r="R94" s="17"/>
-      <c r="S94" s="17"/>
-      <c r="T94" s="17"/>
-      <c r="U94" s="17"/>
-      <c r="V94" s="17"/>
-      <c r="W94" s="17"/>
-      <c r="X94" s="17"/>
-      <c r="Y94" s="17"/>
-      <c r="Z94" s="17"/>
-      <c r="AA94" s="17"/>
-      <c r="AB94" s="17"/>
-      <c r="AC94" s="17"/>
-      <c r="AD94" s="17"/>
-      <c r="AE94" s="17"/>
-      <c r="AF94" s="17"/>
-      <c r="AG94" s="17"/>
-      <c r="AH94" s="17"/>
+      <c r="A94" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K94" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L94" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M94" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N94" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O94" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P94" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q94" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R94" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S94" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T94" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U94" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V94" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W94" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X94" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y94" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z94" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA94" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB94" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC94" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD94" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE94" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF94" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG94" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH94" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="95" spans="1:34">
-      <c r="A95" s="17"/>
-      <c r="B95" s="17"/>
-      <c r="C95" s="17"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="17"/>
-      <c r="F95" s="17"/>
-      <c r="G95" s="17"/>
-      <c r="H95" s="17"/>
-      <c r="I95" s="17"/>
-      <c r="J95" s="17"/>
-      <c r="K95" s="17"/>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
-      <c r="R95" s="17"/>
-      <c r="S95" s="17"/>
-      <c r="T95" s="17"/>
-      <c r="U95" s="17"/>
-      <c r="V95" s="17"/>
-      <c r="W95" s="17"/>
-      <c r="X95" s="17"/>
-      <c r="Y95" s="17"/>
-      <c r="Z95" s="17"/>
-      <c r="AA95" s="17"/>
-      <c r="AB95" s="17"/>
-      <c r="AC95" s="17"/>
-      <c r="AD95" s="17"/>
-      <c r="AE95" s="17"/>
-      <c r="AF95" s="17"/>
-      <c r="AG95" s="17"/>
-      <c r="AH95" s="17"/>
+      <c r="A95" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K95" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L95" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M95" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N95" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O95" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P95" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q95" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R95" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S95" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T95" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U95" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V95" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W95" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X95" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y95" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z95" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA95" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB95" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC95" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD95" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE95" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF95" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG95" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH95" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="96" spans="1:34">
-      <c r="A96" s="17"/>
-      <c r="B96" s="17"/>
-      <c r="C96" s="17"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="17"/>
-      <c r="F96" s="17"/>
-      <c r="G96" s="17"/>
-      <c r="H96" s="17"/>
-      <c r="I96" s="17"/>
-      <c r="J96" s="17"/>
-      <c r="K96" s="17"/>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
-      <c r="R96" s="17"/>
-      <c r="S96" s="17"/>
-      <c r="T96" s="17"/>
-      <c r="U96" s="17"/>
-      <c r="V96" s="17"/>
-      <c r="W96" s="17"/>
-      <c r="X96" s="17"/>
-      <c r="Y96" s="17"/>
-      <c r="Z96" s="17"/>
-      <c r="AA96" s="17"/>
-      <c r="AB96" s="17"/>
-      <c r="AC96" s="17"/>
-      <c r="AD96" s="17"/>
-      <c r="AE96" s="17"/>
-      <c r="AF96" s="17"/>
-      <c r="AG96" s="17"/>
-      <c r="AH96" s="17"/>
+      <c r="A96" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B96" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E96" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F96" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G96" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H96" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I96" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J96" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K96" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L96" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M96" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N96" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="O96" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P96" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q96" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="R96" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="S96" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="T96" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="U96" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V96" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W96" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X96" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y96" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z96" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA96" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB96" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC96" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD96" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE96" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF96" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG96" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH96" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="97" spans="1:34">
-      <c r="A97" s="17"/>
-      <c r="B97" s="17"/>
-      <c r="C97" s="17"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="17"/>
-      <c r="F97" s="17"/>
-      <c r="G97" s="17"/>
-      <c r="H97" s="17"/>
-      <c r="I97" s="17"/>
-      <c r="J97" s="17"/>
-      <c r="K97" s="17"/>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
-      <c r="R97" s="17"/>
-      <c r="S97" s="17"/>
-      <c r="T97" s="17"/>
-      <c r="U97" s="17"/>
-      <c r="V97" s="17"/>
-      <c r="W97" s="17"/>
-      <c r="X97" s="17"/>
-      <c r="Y97" s="17"/>
-      <c r="Z97" s="17"/>
-      <c r="AA97" s="17"/>
-      <c r="AB97" s="17"/>
-      <c r="AC97" s="17"/>
-      <c r="AD97" s="17"/>
-      <c r="AE97" s="17"/>
-      <c r="AF97" s="17"/>
-      <c r="AG97" s="17"/>
-      <c r="AH97" s="17"/>
+      <c r="A97" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I97" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J97" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K97" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L97" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M97" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N97" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="O97" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P97" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q97" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="R97" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="S97" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="T97" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="U97" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="V97" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="W97" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="X97" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y97" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z97" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA97" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB97" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC97" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD97" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE97" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF97" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG97" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH97" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="98" spans="1:34">
-      <c r="A98" s="17"/>
-      <c r="B98" s="17"/>
-      <c r="C98" s="17"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="17"/>
-      <c r="F98" s="17"/>
-      <c r="G98" s="17"/>
-      <c r="H98" s="17"/>
-      <c r="I98" s="17"/>
-      <c r="J98" s="17"/>
-      <c r="K98" s="17"/>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
-      <c r="R98" s="17"/>
-      <c r="S98" s="17"/>
-      <c r="T98" s="17"/>
-      <c r="U98" s="17"/>
-      <c r="V98" s="17"/>
-      <c r="W98" s="17"/>
-      <c r="X98" s="17"/>
-      <c r="Y98" s="17"/>
-      <c r="Z98" s="17"/>
-      <c r="AA98" s="17"/>
-      <c r="AB98" s="17"/>
-      <c r="AC98" s="17"/>
-      <c r="AD98" s="17"/>
-      <c r="AE98" s="17"/>
-      <c r="AF98" s="17"/>
-      <c r="AG98" s="17"/>
-      <c r="AH98" s="17"/>
+      <c r="A98" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G98" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H98" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I98" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J98" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K98" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L98" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M98" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N98" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="O98" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P98" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q98" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="R98" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="S98" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="T98" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="U98" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="V98" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="W98" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="X98" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y98" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z98" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA98" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB98" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC98" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD98" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE98" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF98" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG98" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH98" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="99" spans="1:34">
       <c r="A99" s="17"/>

--- a/Assets/Level_Tool.xlsx
+++ b/Assets/Level_Tool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scote/Downloads/SpaceCab-master/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{856ABBDD-7C0B-9742-A95A-8A5190B31794}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3C4C6D47-B989-5940-85E0-AA02E588F889}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="62400" yWindow="460" windowWidth="28040" windowHeight="26880" xr2:uid="{034143F2-81DD-E240-A4FE-E146F63DCD7B}"/>
+    <workbookView xWindow="70360" yWindow="1980" windowWidth="28040" windowHeight="26880" xr2:uid="{034143F2-81DD-E240-A4FE-E146F63DCD7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2567" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5128" uniqueCount="37">
   <si>
     <t xml:space="preserve">PLAT1, </t>
   </si>
@@ -94,6 +94,51 @@
   </si>
   <si>
     <t>PLAYER SPAWN</t>
+  </si>
+  <si>
+    <t>Level 6</t>
+  </si>
+  <si>
+    <t>Got Spike?</t>
+  </si>
+  <si>
+    <t>At The Beach</t>
+  </si>
+  <si>
+    <t>Shipwreck Rarrr</t>
+  </si>
+  <si>
+    <t>The Golden Arches</t>
+  </si>
+  <si>
+    <t>Underground</t>
+  </si>
+  <si>
+    <t>Floating Islands</t>
+  </si>
+  <si>
+    <t>Level 7</t>
+  </si>
+  <si>
+    <t>The Forest</t>
+  </si>
+  <si>
+    <t>Level 8</t>
+  </si>
+  <si>
+    <t>Friendly Invader…</t>
+  </si>
+  <si>
+    <t>Level 9</t>
+  </si>
+  <si>
+    <t>Level 10</t>
+  </si>
+  <si>
+    <t>Rockin And Flying</t>
+  </si>
+  <si>
+    <t>No Name Yet</t>
   </si>
 </sst>
 </file>
@@ -580,10 +625,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AK121"/>
+  <dimension ref="A1:AK198"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="AC164" sqref="AC164:AC171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -595,6 +640,9 @@
     <row r="1" spans="1:36">
       <c r="A1" t="s">
         <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:36">
@@ -2419,6 +2467,9 @@
       <c r="A21" t="s">
         <v>11</v>
       </c>
+      <c r="D21" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="AJ21" s="18"/>
       <c r="AK21" t="s">
         <v>21</v>
@@ -4198,6 +4249,9 @@
       <c r="A41" t="s">
         <v>12</v>
       </c>
+      <c r="D41" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="42" spans="1:34">
       <c r="A42">
@@ -5973,6 +6027,9 @@
       <c r="A61" t="s">
         <v>13</v>
       </c>
+      <c r="D61" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="62" spans="1:34">
       <c r="A62">
@@ -7748,6 +7805,9 @@
       <c r="A81" t="s">
         <v>20</v>
       </c>
+      <c r="D81" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="82" spans="1:34">
       <c r="A82">
@@ -9520,652 +9580,1710 @@
       <c r="AH100" s="17"/>
     </row>
     <row r="101" spans="1:34">
-      <c r="A101" s="17"/>
-      <c r="B101" s="17"/>
-      <c r="C101" s="17"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="17"/>
-      <c r="F101" s="17"/>
-      <c r="G101" s="17"/>
-      <c r="H101" s="17"/>
-      <c r="I101" s="17"/>
-      <c r="J101" s="17"/>
-      <c r="K101" s="17"/>
-      <c r="L101" s="17"/>
-      <c r="M101" s="17"/>
-      <c r="N101" s="17"/>
-      <c r="O101" s="17"/>
-      <c r="P101" s="17"/>
-      <c r="Q101" s="17"/>
-      <c r="R101" s="17"/>
-      <c r="S101" s="17"/>
-      <c r="T101" s="17"/>
-      <c r="U101" s="17"/>
-      <c r="V101" s="17"/>
-      <c r="W101" s="17"/>
-      <c r="X101" s="17"/>
-      <c r="Y101" s="17"/>
-      <c r="Z101" s="17"/>
-      <c r="AA101" s="17"/>
-      <c r="AB101" s="17"/>
-      <c r="AC101" s="17"/>
-      <c r="AD101" s="17"/>
-      <c r="AE101" s="17"/>
-      <c r="AF101" s="17"/>
-      <c r="AG101" s="17"/>
-      <c r="AH101" s="17"/>
+      <c r="A101" t="s">
+        <v>22</v>
+      </c>
+      <c r="D101" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="102" spans="1:34">
-      <c r="A102" s="17"/>
-      <c r="B102" s="17"/>
-      <c r="C102" s="17"/>
-      <c r="D102" s="17"/>
-      <c r="E102" s="17"/>
-      <c r="F102" s="17"/>
-      <c r="G102" s="17"/>
-      <c r="H102" s="17"/>
-      <c r="I102" s="17"/>
-      <c r="J102" s="17"/>
-      <c r="K102" s="17"/>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
-      <c r="R102" s="17"/>
-      <c r="S102" s="17"/>
-      <c r="T102" s="17"/>
-      <c r="U102" s="17"/>
-      <c r="V102" s="17"/>
-      <c r="W102" s="17"/>
-      <c r="X102" s="17"/>
-      <c r="Y102" s="17"/>
-      <c r="Z102" s="17"/>
-      <c r="AA102" s="17"/>
-      <c r="AB102" s="17"/>
-      <c r="AC102" s="17"/>
-      <c r="AD102" s="17"/>
-      <c r="AE102" s="17"/>
-      <c r="AF102" s="17"/>
-      <c r="AG102" s="17"/>
-      <c r="AH102" s="17"/>
+      <c r="A102">
+        <v>0</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+      <c r="D102">
+        <v>3</v>
+      </c>
+      <c r="E102">
+        <v>4</v>
+      </c>
+      <c r="F102">
+        <v>5</v>
+      </c>
+      <c r="G102">
+        <v>6</v>
+      </c>
+      <c r="H102">
+        <v>7</v>
+      </c>
+      <c r="I102">
+        <v>8</v>
+      </c>
+      <c r="J102">
+        <v>9</v>
+      </c>
+      <c r="K102">
+        <v>10</v>
+      </c>
+      <c r="L102">
+        <v>11</v>
+      </c>
+      <c r="M102">
+        <v>12</v>
+      </c>
+      <c r="N102">
+        <v>13</v>
+      </c>
+      <c r="O102">
+        <v>14</v>
+      </c>
+      <c r="P102">
+        <v>15</v>
+      </c>
+      <c r="Q102">
+        <v>16</v>
+      </c>
+      <c r="R102">
+        <v>17</v>
+      </c>
+      <c r="S102">
+        <v>18</v>
+      </c>
+      <c r="T102">
+        <v>19</v>
+      </c>
+      <c r="U102">
+        <v>20</v>
+      </c>
+      <c r="V102">
+        <v>21</v>
+      </c>
+      <c r="W102">
+        <v>22</v>
+      </c>
+      <c r="X102">
+        <v>23</v>
+      </c>
+      <c r="Y102">
+        <v>24</v>
+      </c>
+      <c r="Z102">
+        <v>25</v>
+      </c>
+      <c r="AA102">
+        <v>26</v>
+      </c>
+      <c r="AB102">
+        <v>27</v>
+      </c>
+      <c r="AC102">
+        <v>28</v>
+      </c>
+      <c r="AD102">
+        <v>29</v>
+      </c>
+      <c r="AE102">
+        <v>30</v>
+      </c>
+      <c r="AF102">
+        <v>31</v>
+      </c>
+      <c r="AG102">
+        <v>32</v>
+      </c>
+      <c r="AH102">
+        <v>33</v>
+      </c>
     </row>
     <row r="103" spans="1:34">
-      <c r="A103" s="17"/>
-      <c r="B103" s="17"/>
-      <c r="C103" s="17"/>
-      <c r="D103" s="17"/>
-      <c r="E103" s="17"/>
-      <c r="F103" s="17"/>
-      <c r="G103" s="17"/>
-      <c r="H103" s="17"/>
-      <c r="I103" s="17"/>
-      <c r="J103" s="17"/>
-      <c r="K103" s="17"/>
-      <c r="L103" s="17"/>
-      <c r="M103" s="17"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="17"/>
-      <c r="P103" s="17"/>
-      <c r="Q103" s="17"/>
-      <c r="R103" s="17"/>
-      <c r="S103" s="17"/>
-      <c r="T103" s="17"/>
-      <c r="U103" s="17"/>
-      <c r="V103" s="17"/>
-      <c r="W103" s="17"/>
-      <c r="X103" s="17"/>
-      <c r="Y103" s="17"/>
-      <c r="Z103" s="17"/>
-      <c r="AA103" s="17"/>
-      <c r="AB103" s="17"/>
-      <c r="AC103" s="17"/>
-      <c r="AD103" s="17"/>
-      <c r="AE103" s="17"/>
-      <c r="AF103" s="17"/>
-      <c r="AG103" s="17"/>
-      <c r="AH103" s="17"/>
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="1"/>
+      <c r="Q103" s="1"/>
+      <c r="R103" s="1"/>
+      <c r="S103" s="1"/>
+      <c r="T103" s="1"/>
+      <c r="U103" s="1"/>
+      <c r="V103" s="1"/>
+      <c r="W103" s="1"/>
+      <c r="X103" s="1"/>
+      <c r="Y103" s="1"/>
+      <c r="Z103" s="1"/>
+      <c r="AA103" s="1"/>
+      <c r="AB103" s="1"/>
+      <c r="AC103" s="1"/>
+      <c r="AD103" s="1"/>
+      <c r="AE103" s="1"/>
+      <c r="AF103" s="1"/>
+      <c r="AG103" s="1"/>
+      <c r="AH103" s="1"/>
     </row>
     <row r="104" spans="1:34">
-      <c r="A104" s="17"/>
-      <c r="B104" s="17"/>
-      <c r="C104" s="17"/>
-      <c r="D104" s="17"/>
-      <c r="E104" s="17"/>
-      <c r="F104" s="17"/>
-      <c r="G104" s="17"/>
-      <c r="H104" s="17"/>
-      <c r="I104" s="17"/>
-      <c r="J104" s="17"/>
-      <c r="K104" s="17"/>
-      <c r="L104" s="17"/>
-      <c r="M104" s="17"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="17"/>
-      <c r="P104" s="17"/>
-      <c r="Q104" s="17"/>
-      <c r="R104" s="17"/>
-      <c r="S104" s="17"/>
-      <c r="T104" s="17"/>
-      <c r="U104" s="17"/>
-      <c r="V104" s="17"/>
-      <c r="W104" s="17"/>
-      <c r="X104" s="17"/>
-      <c r="Y104" s="17"/>
-      <c r="Z104" s="17"/>
-      <c r="AA104" s="17"/>
-      <c r="AB104" s="17"/>
-      <c r="AC104" s="17"/>
-      <c r="AD104" s="17"/>
-      <c r="AE104" s="17"/>
-      <c r="AF104" s="17"/>
-      <c r="AG104" s="17"/>
-      <c r="AH104" s="17"/>
+      <c r="A104" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B104" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D104" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E104" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F104" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G104" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H104" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I104" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J104" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K104" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L104" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M104" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N104" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="O104" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P104" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q104" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="R104" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="S104" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="T104" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="U104" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="V104" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="W104" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="X104" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y104" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z104" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA104" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB104" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC104" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD104" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE104" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF104" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG104" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH104" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="105" spans="1:34">
-      <c r="A105" s="17"/>
-      <c r="B105" s="17"/>
-      <c r="C105" s="17"/>
-      <c r="D105" s="17"/>
-      <c r="E105" s="17"/>
-      <c r="F105" s="17"/>
-      <c r="G105" s="17"/>
-      <c r="H105" s="17"/>
-      <c r="I105" s="17"/>
-      <c r="J105" s="17"/>
-      <c r="K105" s="17"/>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="17"/>
-      <c r="Q105" s="17"/>
-      <c r="R105" s="17"/>
-      <c r="S105" s="17"/>
-      <c r="T105" s="17"/>
-      <c r="U105" s="17"/>
-      <c r="V105" s="17"/>
-      <c r="W105" s="17"/>
-      <c r="X105" s="17"/>
-      <c r="Y105" s="17"/>
-      <c r="Z105" s="17"/>
-      <c r="AA105" s="17"/>
-      <c r="AB105" s="17"/>
-      <c r="AC105" s="17"/>
-      <c r="AD105" s="17"/>
-      <c r="AE105" s="17"/>
-      <c r="AF105" s="17"/>
-      <c r="AG105" s="17"/>
-      <c r="AH105" s="17"/>
+      <c r="A105" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F105" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J105" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K105" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L105" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M105" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N105" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O105" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P105" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q105" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R105" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S105" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T105" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U105" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V105" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W105" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X105" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y105" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z105" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA105" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB105" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC105" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD105" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE105" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF105" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG105" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH105" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="106" spans="1:34">
-      <c r="A106" s="17"/>
-      <c r="B106" s="17"/>
-      <c r="C106" s="17"/>
-      <c r="D106" s="17"/>
-      <c r="E106" s="17"/>
-      <c r="F106" s="17"/>
-      <c r="G106" s="17"/>
-      <c r="H106" s="17"/>
-      <c r="I106" s="17"/>
-      <c r="J106" s="17"/>
-      <c r="K106" s="17"/>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="17"/>
-      <c r="P106" s="17"/>
-      <c r="Q106" s="17"/>
-      <c r="R106" s="17"/>
-      <c r="S106" s="17"/>
-      <c r="T106" s="17"/>
-      <c r="U106" s="17"/>
-      <c r="V106" s="17"/>
-      <c r="W106" s="17"/>
-      <c r="X106" s="17"/>
-      <c r="Y106" s="17"/>
-      <c r="Z106" s="17"/>
-      <c r="AA106" s="17"/>
-      <c r="AB106" s="17"/>
-      <c r="AC106" s="17"/>
-      <c r="AD106" s="17"/>
-      <c r="AE106" s="17"/>
-      <c r="AF106" s="17"/>
-      <c r="AG106" s="17"/>
-      <c r="AH106" s="17"/>
+      <c r="A106" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F106" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J106" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K106" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L106" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M106" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N106" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O106" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P106" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q106" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R106" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S106" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T106" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U106" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V106" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W106" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X106" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y106" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z106" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA106" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB106" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC106" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD106" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE106" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF106" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG106" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH106" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="107" spans="1:34">
-      <c r="A107" s="17"/>
-      <c r="B107" s="17"/>
-      <c r="C107" s="17"/>
-      <c r="D107" s="17"/>
-      <c r="E107" s="17"/>
-      <c r="F107" s="17"/>
-      <c r="G107" s="17"/>
-      <c r="H107" s="17"/>
-      <c r="I107" s="17"/>
-      <c r="J107" s="17"/>
-      <c r="K107" s="17"/>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
-      <c r="R107" s="17"/>
-      <c r="S107" s="17"/>
-      <c r="T107" s="17"/>
-      <c r="U107" s="17"/>
-      <c r="V107" s="17"/>
-      <c r="W107" s="17"/>
-      <c r="X107" s="17"/>
-      <c r="Y107" s="17"/>
-      <c r="Z107" s="17"/>
-      <c r="AA107" s="17"/>
-      <c r="AB107" s="17"/>
-      <c r="AC107" s="17"/>
-      <c r="AD107" s="17"/>
-      <c r="AE107" s="17"/>
-      <c r="AF107" s="17"/>
-      <c r="AG107" s="17"/>
-      <c r="AH107" s="17"/>
+      <c r="A107" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J107" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K107" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L107" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M107" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N107" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O107" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P107" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q107" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R107" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S107" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T107" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U107" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V107" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W107" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X107" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y107" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z107" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA107" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB107" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC107" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD107" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE107" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF107" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG107" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH107" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="108" spans="1:34">
-      <c r="A108" s="17"/>
-      <c r="B108" s="17"/>
-      <c r="C108" s="17"/>
-      <c r="D108" s="17"/>
-      <c r="E108" s="17"/>
-      <c r="F108" s="17"/>
-      <c r="G108" s="17"/>
-      <c r="H108" s="17"/>
-      <c r="I108" s="17"/>
-      <c r="J108" s="17"/>
-      <c r="K108" s="17"/>
-      <c r="L108" s="17"/>
-      <c r="M108" s="17"/>
-      <c r="N108" s="17"/>
-      <c r="O108" s="17"/>
-      <c r="P108" s="17"/>
-      <c r="Q108" s="17"/>
-      <c r="R108" s="17"/>
-      <c r="S108" s="17"/>
-      <c r="T108" s="17"/>
-      <c r="U108" s="17"/>
-      <c r="V108" s="17"/>
-      <c r="W108" s="17"/>
-      <c r="X108" s="17"/>
-      <c r="Y108" s="17"/>
-      <c r="Z108" s="17"/>
-      <c r="AA108" s="17"/>
-      <c r="AB108" s="17"/>
-      <c r="AC108" s="17"/>
-      <c r="AD108" s="17"/>
-      <c r="AE108" s="17"/>
-      <c r="AF108" s="17"/>
-      <c r="AG108" s="17"/>
-      <c r="AH108" s="17"/>
+      <c r="A108" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J108" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K108" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L108" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M108" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N108" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="O108" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="P108" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q108" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="R108" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="S108" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="T108" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="U108" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V108" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W108" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X108" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y108" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z108" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA108" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB108" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC108" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD108" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE108" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF108" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG108" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH108" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="109" spans="1:34">
-      <c r="A109" s="17"/>
-      <c r="B109" s="17"/>
-      <c r="C109" s="17"/>
-      <c r="D109" s="17"/>
-      <c r="E109" s="17"/>
-      <c r="F109" s="17"/>
-      <c r="G109" s="17"/>
-      <c r="H109" s="17"/>
-      <c r="I109" s="17"/>
-      <c r="J109" s="17"/>
-      <c r="K109" s="17"/>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="17"/>
-      <c r="O109" s="17"/>
-      <c r="P109" s="17"/>
-      <c r="Q109" s="17"/>
-      <c r="R109" s="17"/>
-      <c r="S109" s="17"/>
-      <c r="T109" s="17"/>
-      <c r="U109" s="17"/>
-      <c r="V109" s="17"/>
-      <c r="W109" s="17"/>
-      <c r="X109" s="17"/>
-      <c r="Y109" s="17"/>
-      <c r="Z109" s="17"/>
-      <c r="AA109" s="17"/>
-      <c r="AB109" s="17"/>
-      <c r="AC109" s="17"/>
-      <c r="AD109" s="17"/>
-      <c r="AE109" s="17"/>
-      <c r="AF109" s="17"/>
-      <c r="AG109" s="17"/>
-      <c r="AH109" s="17"/>
+      <c r="A109" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I109" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J109" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K109" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L109" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M109" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N109" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O109" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P109" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q109" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="R109" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="S109" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="T109" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="U109" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="V109" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W109" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X109" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y109" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z109" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA109" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB109" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC109" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD109" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE109" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF109" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG109" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH109" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="110" spans="1:34">
-      <c r="A110" s="17"/>
-      <c r="B110" s="17"/>
-      <c r="C110" s="17"/>
-      <c r="D110" s="17"/>
-      <c r="E110" s="17"/>
-      <c r="F110" s="17"/>
-      <c r="G110" s="17"/>
-      <c r="H110" s="17"/>
-      <c r="I110" s="17"/>
-      <c r="J110" s="17"/>
-      <c r="K110" s="17"/>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
-      <c r="R110" s="17"/>
-      <c r="S110" s="17"/>
-      <c r="T110" s="17"/>
-      <c r="U110" s="17"/>
-      <c r="V110" s="17"/>
-      <c r="W110" s="17"/>
-      <c r="X110" s="17"/>
-      <c r="Y110" s="17"/>
-      <c r="Z110" s="17"/>
-      <c r="AA110" s="17"/>
-      <c r="AB110" s="17"/>
-      <c r="AC110" s="17"/>
-      <c r="AD110" s="17"/>
-      <c r="AE110" s="17"/>
-      <c r="AF110" s="17"/>
-      <c r="AG110" s="17"/>
-      <c r="AH110" s="17"/>
+      <c r="A110" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J110" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K110" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L110" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M110" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N110" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O110" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P110" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q110" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R110" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S110" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T110" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U110" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V110" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W110" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X110" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y110" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z110" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA110" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB110" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC110" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD110" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE110" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF110" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG110" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH110" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="111" spans="1:34">
-      <c r="A111" s="17"/>
-      <c r="B111" s="17"/>
-      <c r="C111" s="17"/>
-      <c r="D111" s="17"/>
-      <c r="E111" s="17"/>
-      <c r="F111" s="17"/>
-      <c r="G111" s="17"/>
-      <c r="H111" s="17"/>
-      <c r="I111" s="17"/>
-      <c r="J111" s="17"/>
-      <c r="K111" s="17"/>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="17"/>
-      <c r="O111" s="17"/>
-      <c r="P111" s="17"/>
-      <c r="Q111" s="17"/>
-      <c r="R111" s="17"/>
-      <c r="S111" s="17"/>
-      <c r="T111" s="17"/>
-      <c r="U111" s="17"/>
-      <c r="V111" s="17"/>
-      <c r="W111" s="17"/>
-      <c r="X111" s="17"/>
-      <c r="Y111" s="17"/>
-      <c r="Z111" s="17"/>
-      <c r="AA111" s="17"/>
-      <c r="AB111" s="17"/>
-      <c r="AC111" s="17"/>
-      <c r="AD111" s="17"/>
-      <c r="AE111" s="17"/>
-      <c r="AF111" s="17"/>
-      <c r="AG111" s="17"/>
-      <c r="AH111" s="17"/>
+      <c r="A111" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J111" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K111" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L111" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M111" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N111" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O111" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P111" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q111" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R111" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S111" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T111" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U111" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V111" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W111" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X111" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y111" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z111" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA111" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB111" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC111" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD111" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE111" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF111" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG111" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH111" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="112" spans="1:34">
-      <c r="A112" s="17"/>
-      <c r="B112" s="17"/>
-      <c r="C112" s="17"/>
-      <c r="D112" s="17"/>
-      <c r="E112" s="17"/>
-      <c r="F112" s="17"/>
-      <c r="G112" s="17"/>
-      <c r="H112" s="17"/>
-      <c r="I112" s="17"/>
-      <c r="J112" s="17"/>
-      <c r="K112" s="17"/>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="17"/>
-      <c r="O112" s="17"/>
-      <c r="P112" s="17"/>
-      <c r="Q112" s="17"/>
-      <c r="R112" s="17"/>
-      <c r="S112" s="17"/>
-      <c r="T112" s="17"/>
-      <c r="U112" s="17"/>
-      <c r="V112" s="17"/>
-      <c r="W112" s="17"/>
-      <c r="X112" s="17"/>
-      <c r="Y112" s="17"/>
-      <c r="Z112" s="17"/>
-      <c r="AA112" s="17"/>
-      <c r="AB112" s="17"/>
-      <c r="AC112" s="17"/>
-      <c r="AD112" s="17"/>
-      <c r="AE112" s="17"/>
-      <c r="AF112" s="17"/>
-      <c r="AG112" s="17"/>
-      <c r="AH112" s="17"/>
+      <c r="A112" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J112" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K112" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L112" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M112" s="18"/>
+      <c r="N112" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O112" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P112" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q112" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="R112" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="S112" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="T112" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="U112" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="V112" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W112" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X112" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y112" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z112" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA112" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB112" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC112" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD112" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE112" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF112" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG112" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH112" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="113" spans="1:34">
-      <c r="A113" s="17"/>
-      <c r="B113" s="17"/>
-      <c r="C113" s="17"/>
-      <c r="D113" s="17"/>
-      <c r="E113" s="17"/>
-      <c r="F113" s="17"/>
-      <c r="G113" s="17"/>
-      <c r="H113" s="17"/>
-      <c r="I113" s="17"/>
-      <c r="J113" s="17"/>
-      <c r="K113" s="17"/>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17"/>
-      <c r="N113" s="17"/>
-      <c r="O113" s="17"/>
-      <c r="P113" s="17"/>
-      <c r="Q113" s="17"/>
-      <c r="R113" s="17"/>
-      <c r="S113" s="17"/>
-      <c r="T113" s="17"/>
-      <c r="U113" s="17"/>
-      <c r="V113" s="17"/>
-      <c r="W113" s="17"/>
-      <c r="X113" s="17"/>
-      <c r="Y113" s="17"/>
-      <c r="Z113" s="17"/>
-      <c r="AA113" s="17"/>
-      <c r="AB113" s="17"/>
-      <c r="AC113" s="17"/>
-      <c r="AD113" s="17"/>
-      <c r="AE113" s="17"/>
-      <c r="AF113" s="17"/>
-      <c r="AG113" s="17"/>
-      <c r="AH113" s="17"/>
+      <c r="A113" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J113" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K113" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L113" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M113" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N113" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O113" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P113" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q113" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R113" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="S113" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="T113" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="U113" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="V113" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W113" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X113" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y113" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z113" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA113" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB113" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC113" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD113" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE113" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF113" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG113" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH113" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="114" spans="1:34">
-      <c r="A114" s="17"/>
-      <c r="B114" s="17"/>
-      <c r="C114" s="17"/>
-      <c r="D114" s="17"/>
-      <c r="E114" s="17"/>
-      <c r="F114" s="17"/>
-      <c r="G114" s="17"/>
-      <c r="H114" s="17"/>
-      <c r="I114" s="17"/>
-      <c r="J114" s="17"/>
-      <c r="K114" s="17"/>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
-      <c r="R114" s="17"/>
-      <c r="S114" s="17"/>
-      <c r="T114" s="17"/>
-      <c r="U114" s="17"/>
-      <c r="V114" s="17"/>
-      <c r="W114" s="17"/>
-      <c r="X114" s="17"/>
-      <c r="Y114" s="17"/>
-      <c r="Z114" s="17"/>
-      <c r="AA114" s="17"/>
-      <c r="AB114" s="17"/>
-      <c r="AC114" s="17"/>
-      <c r="AD114" s="17"/>
-      <c r="AE114" s="17"/>
-      <c r="AF114" s="17"/>
-      <c r="AG114" s="17"/>
-      <c r="AH114" s="17"/>
+      <c r="A114" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J114" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K114" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L114" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M114" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N114" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O114" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P114" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q114" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R114" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="S114" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="T114" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="U114" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V114" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W114" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X114" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y114" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z114" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA114" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB114" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC114" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD114" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE114" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF114" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG114" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH114" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="115" spans="1:34">
-      <c r="A115" s="17"/>
-      <c r="B115" s="17"/>
-      <c r="C115" s="17"/>
-      <c r="D115" s="17"/>
-      <c r="E115" s="17"/>
-      <c r="F115" s="17"/>
-      <c r="G115" s="17"/>
-      <c r="H115" s="17"/>
-      <c r="I115" s="17"/>
-      <c r="J115" s="17"/>
-      <c r="K115" s="17"/>
-      <c r="L115" s="17"/>
-      <c r="M115" s="17"/>
-      <c r="N115" s="17"/>
-      <c r="O115" s="17"/>
-      <c r="P115" s="17"/>
-      <c r="Q115" s="17"/>
-      <c r="R115" s="17"/>
-      <c r="S115" s="17"/>
-      <c r="T115" s="17"/>
-      <c r="U115" s="17"/>
-      <c r="V115" s="17"/>
-      <c r="W115" s="17"/>
-      <c r="X115" s="17"/>
-      <c r="Y115" s="17"/>
-      <c r="Z115" s="17"/>
-      <c r="AA115" s="17"/>
-      <c r="AB115" s="17"/>
-      <c r="AC115" s="17"/>
-      <c r="AD115" s="17"/>
-      <c r="AE115" s="17"/>
-      <c r="AF115" s="17"/>
-      <c r="AG115" s="17"/>
-      <c r="AH115" s="17"/>
+      <c r="A115" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J115" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K115" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L115" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M115" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N115" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O115" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P115" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q115" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R115" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S115" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="T115" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U115" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V115" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W115" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X115" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y115" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z115" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA115" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB115" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC115" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD115" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE115" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF115" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG115" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH115" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="116" spans="1:34">
-      <c r="A116" s="17"/>
-      <c r="B116" s="17"/>
-      <c r="C116" s="17"/>
-      <c r="D116" s="17"/>
-      <c r="E116" s="17"/>
-      <c r="F116" s="17"/>
-      <c r="G116" s="17"/>
-      <c r="H116" s="17"/>
-      <c r="I116" s="17"/>
-      <c r="J116" s="17"/>
-      <c r="K116" s="17"/>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="17"/>
-      <c r="O116" s="17"/>
-      <c r="P116" s="17"/>
-      <c r="Q116" s="17"/>
-      <c r="R116" s="17"/>
-      <c r="S116" s="17"/>
-      <c r="T116" s="17"/>
-      <c r="U116" s="17"/>
-      <c r="V116" s="17"/>
-      <c r="W116" s="17"/>
-      <c r="X116" s="17"/>
-      <c r="Y116" s="17"/>
-      <c r="Z116" s="17"/>
-      <c r="AA116" s="17"/>
-      <c r="AB116" s="17"/>
-      <c r="AC116" s="17"/>
-      <c r="AD116" s="17"/>
-      <c r="AE116" s="17"/>
-      <c r="AF116" s="17"/>
-      <c r="AG116" s="17"/>
-      <c r="AH116" s="17"/>
+      <c r="A116" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E116" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F116" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G116" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H116" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I116" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J116" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K116" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L116" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M116" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="N116" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O116" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="P116" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q116" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="R116" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="S116" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="T116" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="U116" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="V116" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="W116" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="X116" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y116" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z116" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA116" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB116" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC116" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD116" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE116" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF116" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG116" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH116" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="117" spans="1:34">
-      <c r="A117" s="17"/>
-      <c r="B117" s="17"/>
-      <c r="C117" s="17"/>
-      <c r="D117" s="17"/>
-      <c r="E117" s="17"/>
-      <c r="F117" s="17"/>
-      <c r="G117" s="17"/>
-      <c r="H117" s="17"/>
-      <c r="I117" s="17"/>
-      <c r="J117" s="17"/>
-      <c r="K117" s="17"/>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
-      <c r="P117" s="17"/>
-      <c r="Q117" s="17"/>
-      <c r="R117" s="17"/>
-      <c r="S117" s="17"/>
-      <c r="T117" s="17"/>
-      <c r="U117" s="17"/>
-      <c r="V117" s="17"/>
-      <c r="W117" s="17"/>
-      <c r="X117" s="17"/>
-      <c r="Y117" s="17"/>
-      <c r="Z117" s="17"/>
-      <c r="AA117" s="17"/>
-      <c r="AB117" s="17"/>
-      <c r="AC117" s="17"/>
-      <c r="AD117" s="17"/>
-      <c r="AE117" s="17"/>
-      <c r="AF117" s="17"/>
-      <c r="AG117" s="17"/>
-      <c r="AH117" s="17"/>
+      <c r="A117" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J117" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K117" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L117" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M117" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N117" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O117" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P117" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q117" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R117" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S117" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="T117" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U117" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V117" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W117" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X117" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y117" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z117" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA117" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB117" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC117" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD117" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE117" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF117" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG117" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH117" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="118" spans="1:34">
-      <c r="A118" s="17"/>
-      <c r="B118" s="17"/>
-      <c r="C118" s="17"/>
-      <c r="D118" s="17"/>
-      <c r="E118" s="17"/>
-      <c r="F118" s="17"/>
-      <c r="G118" s="17"/>
-      <c r="H118" s="17"/>
-      <c r="I118" s="17"/>
-      <c r="J118" s="17"/>
-      <c r="K118" s="17"/>
-      <c r="L118" s="17"/>
-      <c r="M118" s="17"/>
-      <c r="N118" s="17"/>
-      <c r="O118" s="17"/>
-      <c r="P118" s="17"/>
-      <c r="Q118" s="17"/>
-      <c r="R118" s="17"/>
-      <c r="S118" s="17"/>
-      <c r="T118" s="17"/>
-      <c r="U118" s="17"/>
-      <c r="V118" s="17"/>
-      <c r="W118" s="17"/>
-      <c r="X118" s="17"/>
-      <c r="Y118" s="17"/>
-      <c r="Z118" s="17"/>
-      <c r="AA118" s="17"/>
-      <c r="AB118" s="17"/>
-      <c r="AC118" s="17"/>
-      <c r="AD118" s="17"/>
-      <c r="AE118" s="17"/>
-      <c r="AF118" s="17"/>
-      <c r="AG118" s="17"/>
-      <c r="AH118" s="17"/>
+      <c r="A118" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B118" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E118" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F118" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G118" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H118" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I118" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J118" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K118" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L118" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="M118" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="N118" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O118" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="P118" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q118" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="R118" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="S118" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="T118" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="U118" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="V118" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="W118" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="X118" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y118" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z118" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA118" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB118" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC118" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD118" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE118" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF118" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG118" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH118" s="16" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="119" spans="1:34">
       <c r="A119" s="17"/>
@@ -10240,40 +11358,6830 @@
       <c r="AH120" s="17"/>
     </row>
     <row r="121" spans="1:34">
-      <c r="A121" s="17"/>
-      <c r="B121" s="17"/>
-      <c r="C121" s="17"/>
-      <c r="D121" s="17"/>
-      <c r="E121" s="17"/>
-      <c r="F121" s="17"/>
-      <c r="G121" s="17"/>
-      <c r="H121" s="17"/>
-      <c r="I121" s="17"/>
-      <c r="J121" s="17"/>
-      <c r="K121" s="17"/>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="17"/>
-      <c r="O121" s="17"/>
-      <c r="P121" s="17"/>
-      <c r="Q121" s="17"/>
-      <c r="R121" s="17"/>
-      <c r="S121" s="17"/>
-      <c r="T121" s="17"/>
-      <c r="U121" s="17"/>
-      <c r="V121" s="17"/>
-      <c r="W121" s="17"/>
-      <c r="X121" s="17"/>
-      <c r="Y121" s="17"/>
-      <c r="Z121" s="17"/>
-      <c r="AA121" s="17"/>
-      <c r="AB121" s="17"/>
-      <c r="AC121" s="17"/>
-      <c r="AD121" s="17"/>
-      <c r="AE121" s="17"/>
-      <c r="AF121" s="17"/>
-      <c r="AG121" s="17"/>
-      <c r="AH121" s="17"/>
+      <c r="A121" t="s">
+        <v>29</v>
+      </c>
+      <c r="D121" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" spans="1:34">
+      <c r="A122">
+        <v>0</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
+      <c r="D122">
+        <v>3</v>
+      </c>
+      <c r="E122">
+        <v>4</v>
+      </c>
+      <c r="F122">
+        <v>5</v>
+      </c>
+      <c r="G122">
+        <v>6</v>
+      </c>
+      <c r="H122">
+        <v>7</v>
+      </c>
+      <c r="I122">
+        <v>8</v>
+      </c>
+      <c r="J122">
+        <v>9</v>
+      </c>
+      <c r="K122">
+        <v>10</v>
+      </c>
+      <c r="L122">
+        <v>11</v>
+      </c>
+      <c r="M122">
+        <v>12</v>
+      </c>
+      <c r="N122">
+        <v>13</v>
+      </c>
+      <c r="O122">
+        <v>14</v>
+      </c>
+      <c r="P122">
+        <v>15</v>
+      </c>
+      <c r="Q122">
+        <v>16</v>
+      </c>
+      <c r="R122">
+        <v>17</v>
+      </c>
+      <c r="S122">
+        <v>18</v>
+      </c>
+      <c r="T122">
+        <v>19</v>
+      </c>
+      <c r="U122">
+        <v>20</v>
+      </c>
+      <c r="V122">
+        <v>21</v>
+      </c>
+      <c r="W122">
+        <v>22</v>
+      </c>
+      <c r="X122">
+        <v>23</v>
+      </c>
+      <c r="Y122">
+        <v>24</v>
+      </c>
+      <c r="Z122">
+        <v>25</v>
+      </c>
+      <c r="AA122">
+        <v>26</v>
+      </c>
+      <c r="AB122">
+        <v>27</v>
+      </c>
+      <c r="AC122">
+        <v>28</v>
+      </c>
+      <c r="AD122">
+        <v>29</v>
+      </c>
+      <c r="AE122">
+        <v>30</v>
+      </c>
+      <c r="AF122">
+        <v>31</v>
+      </c>
+      <c r="AG122">
+        <v>32</v>
+      </c>
+      <c r="AH122">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="123" spans="1:34">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+      <c r="O123" s="1"/>
+      <c r="P123" s="1"/>
+      <c r="Q123" s="1"/>
+      <c r="R123" s="1"/>
+      <c r="S123" s="1"/>
+      <c r="T123" s="1"/>
+      <c r="U123" s="1"/>
+      <c r="V123" s="1"/>
+      <c r="W123" s="1"/>
+      <c r="X123" s="1"/>
+      <c r="Y123" s="1"/>
+      <c r="Z123" s="1"/>
+      <c r="AA123" s="1"/>
+      <c r="AB123" s="1"/>
+      <c r="AC123" s="1"/>
+      <c r="AD123" s="1"/>
+      <c r="AE123" s="1"/>
+      <c r="AF123" s="1"/>
+      <c r="AG123" s="1"/>
+      <c r="AH123" s="1"/>
+    </row>
+    <row r="124" spans="1:34">
+      <c r="A124" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B124" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C124" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D124" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E124" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F124" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G124" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H124" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I124" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J124" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K124" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L124" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="M124" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="N124" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="O124" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P124" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q124" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="R124" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="S124" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="T124" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="U124" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="V124" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="W124" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="X124" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y124" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z124" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA124" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB124" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC124" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD124" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE124" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF124" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG124" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH124" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:34">
+      <c r="A125" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I125" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J125" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K125" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L125" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M125" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N125" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O125" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P125" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q125" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R125" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S125" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T125" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U125" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V125" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W125" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X125" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y125" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z125" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA125" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB125" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC125" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD125" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE125" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF125" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG125" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH125" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:34">
+      <c r="A126" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I126" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J126" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K126" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L126" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M126" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N126" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O126" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P126" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q126" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R126" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S126" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T126" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U126" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V126" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W126" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X126" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y126" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z126" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA126" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB126" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC126" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD126" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE126" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF126" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG126" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH126" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:34">
+      <c r="A127" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J127" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K127" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L127" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M127" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N127" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O127" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P127" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q127" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R127" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S127" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T127" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U127" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V127" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W127" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X127" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y127" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z127" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA127" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB127" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC127" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD127" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE127" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF127" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG127" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH127" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:34">
+      <c r="A128" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I128" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J128" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K128" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L128" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M128" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N128" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O128" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P128" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q128" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="R128" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S128" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T128" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U128" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V128" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W128" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X128" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y128" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z128" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA128" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB128" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC128" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD128" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE128" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF128" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG128" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH128" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:34">
+      <c r="A129" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H129" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I129" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J129" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K129" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L129" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M129" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N129" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O129" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P129" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q129" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R129" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S129" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T129" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U129" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V129" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W129" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X129" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y129" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z129" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA129" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB129" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC129" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD129" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE129" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF129" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG129" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH129" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:34">
+      <c r="A130" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I130" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J130" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K130" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L130" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M130" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N130" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O130" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P130" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q130" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="R130" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="S130" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="T130" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U130" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V130" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W130" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X130" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y130" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z130" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA130" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB130" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC130" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD130" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE130" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF130" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG130" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH130" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:34">
+      <c r="A131" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I131" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J131" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K131" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L131" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M131" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N131" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O131" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P131" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q131" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R131" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S131" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T131" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U131" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V131" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W131" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X131" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y131" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z131" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA131" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB131" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC131" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD131" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE131" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF131" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG131" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH131" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:34">
+      <c r="A132" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I132" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J132" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K132" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L132" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M132" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N132" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O132" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P132" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q132" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R132" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S132" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T132" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U132" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V132" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W132" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X132" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y132" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z132" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA132" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB132" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC132" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD132" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE132" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF132" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG132" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH132" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:34">
+      <c r="A133" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G133" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H133" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I133" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J133" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K133" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L133" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M133" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N133" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O133" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P133" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q133" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R133" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S133" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T133" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U133" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V133" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W133" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X133" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y133" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z133" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA133" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB133" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC133" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD133" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE133" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF133" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG133" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH133" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:34">
+      <c r="A134" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J134" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K134" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L134" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M134" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N134" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O134" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P134" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q134" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="R134" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="S134" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="T134" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="U134" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="V134" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W134" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X134" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y134" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z134" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA134" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB134" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC134" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD134" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE134" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF134" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG134" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH134" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:34">
+      <c r="A135" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I135" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J135" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K135" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L135" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M135" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N135" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O135" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P135" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q135" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R135" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S135" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T135" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U135" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V135" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W135" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X135" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y135" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z135" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA135" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB135" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC135" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD135" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE135" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF135" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG135" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH135" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:34">
+      <c r="A136" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I136" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J136" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K136" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L136" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M136" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N136" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O136" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P136" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q136" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R136" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S136" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T136" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U136" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V136" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W136" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X136" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y136" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z136" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA136" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB136" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC136" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD136" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE136" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF136" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG136" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH136" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:34">
+      <c r="A137" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G137" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H137" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I137" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J137" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K137" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L137" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M137" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N137" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O137" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P137" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q137" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="R137" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="S137" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="T137" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="U137" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="V137" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="W137" s="18"/>
+      <c r="X137" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y137" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z137" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA137" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB137" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC137" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD137" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE137" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF137" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG137" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH137" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:34">
+      <c r="A138" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B138" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C138" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D138" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E138" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F138" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G138" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H138" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I138" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J138" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K138" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L138" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M138" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N138" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="O138" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P138" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q138" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="R138" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="S138" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="T138" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="U138" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="V138" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="W138" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="X138" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y138" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z138" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA138" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB138" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC138" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD138" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE138" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF138" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG138" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH138" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="1:34">
+      <c r="A141" t="s">
+        <v>31</v>
+      </c>
+      <c r="D141" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="142" spans="1:34">
+      <c r="A142">
+        <v>0</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142">
+        <v>2</v>
+      </c>
+      <c r="D142">
+        <v>3</v>
+      </c>
+      <c r="E142">
+        <v>4</v>
+      </c>
+      <c r="F142">
+        <v>5</v>
+      </c>
+      <c r="G142">
+        <v>6</v>
+      </c>
+      <c r="H142">
+        <v>7</v>
+      </c>
+      <c r="I142">
+        <v>8</v>
+      </c>
+      <c r="J142">
+        <v>9</v>
+      </c>
+      <c r="K142">
+        <v>10</v>
+      </c>
+      <c r="L142">
+        <v>11</v>
+      </c>
+      <c r="M142">
+        <v>12</v>
+      </c>
+      <c r="N142">
+        <v>13</v>
+      </c>
+      <c r="O142">
+        <v>14</v>
+      </c>
+      <c r="P142">
+        <v>15</v>
+      </c>
+      <c r="Q142">
+        <v>16</v>
+      </c>
+      <c r="R142">
+        <v>17</v>
+      </c>
+      <c r="S142">
+        <v>18</v>
+      </c>
+      <c r="T142">
+        <v>19</v>
+      </c>
+      <c r="U142">
+        <v>20</v>
+      </c>
+      <c r="V142">
+        <v>21</v>
+      </c>
+      <c r="W142">
+        <v>22</v>
+      </c>
+      <c r="X142">
+        <v>23</v>
+      </c>
+      <c r="Y142">
+        <v>24</v>
+      </c>
+      <c r="Z142">
+        <v>25</v>
+      </c>
+      <c r="AA142">
+        <v>26</v>
+      </c>
+      <c r="AB142">
+        <v>27</v>
+      </c>
+      <c r="AC142">
+        <v>28</v>
+      </c>
+      <c r="AD142">
+        <v>29</v>
+      </c>
+      <c r="AE142">
+        <v>30</v>
+      </c>
+      <c r="AF142">
+        <v>31</v>
+      </c>
+      <c r="AG142">
+        <v>32</v>
+      </c>
+      <c r="AH142">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="143" spans="1:34">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+      <c r="N143" s="1"/>
+      <c r="O143" s="1"/>
+      <c r="P143" s="1"/>
+      <c r="Q143" s="1"/>
+      <c r="R143" s="1"/>
+      <c r="S143" s="1"/>
+      <c r="T143" s="1"/>
+      <c r="U143" s="1"/>
+      <c r="V143" s="1"/>
+      <c r="W143" s="1"/>
+      <c r="X143" s="1"/>
+      <c r="Y143" s="1"/>
+      <c r="Z143" s="1"/>
+      <c r="AA143" s="1"/>
+      <c r="AB143" s="1"/>
+      <c r="AC143" s="1"/>
+      <c r="AD143" s="1"/>
+      <c r="AE143" s="1"/>
+      <c r="AF143" s="1"/>
+      <c r="AG143" s="1"/>
+      <c r="AH143" s="1"/>
+    </row>
+    <row r="144" spans="1:34">
+      <c r="A144" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B144" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C144" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D144" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E144" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F144" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G144" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H144" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I144" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J144" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K144" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L144" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M144" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N144" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="O144" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P144" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q144" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="R144" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="S144" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="T144" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="U144" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="V144" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="W144" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="X144" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y144" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z144" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA144" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB144" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC144" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD144" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE144" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF144" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG144" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH144" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" spans="1:34">
+      <c r="A145" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H145" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I145" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J145" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K145" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L145" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M145" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N145" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O145" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P145" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q145" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R145" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S145" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T145" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U145" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V145" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W145" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X145" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y145" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z145" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA145" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB145" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC145" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD145" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE145" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF145" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG145" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH145" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="1:34">
+      <c r="A146" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H146" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I146" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J146" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K146" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L146" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M146" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N146" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O146" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P146" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q146" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R146" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S146" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T146" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U146" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V146" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W146" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X146" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y146" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z146" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA146" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB146" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC146" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD146" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE146" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF146" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG146" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH146" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147" spans="1:34">
+      <c r="A147" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E147" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G147" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H147" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I147" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J147" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K147" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L147" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M147" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N147" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O147" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P147" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q147" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R147" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S147" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T147" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U147" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V147" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W147" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X147" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y147" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z147" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA147" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB147" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC147" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD147" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE147" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF147" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG147" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH147" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="1:34">
+      <c r="A148" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B148" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C148" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D148" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E148" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F148" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G148" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H148" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I148" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J148" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K148" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L148" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M148" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N148" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O148" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P148" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q148" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R148" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S148" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="T148" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U148" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V148" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W148" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X148" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y148" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z148" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA148" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB148" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC148" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD148" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE148" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF148" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG148" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH148" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149" spans="1:34">
+      <c r="A149" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B149" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C149" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D149" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E149" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F149" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G149" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I149" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J149" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K149" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L149" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M149" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N149" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O149" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P149" s="18"/>
+      <c r="Q149" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R149" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="S149" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T149" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U149" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V149" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W149" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X149" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y149" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z149" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA149" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB149" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC149" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD149" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE149" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF149" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG149" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH149" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150" spans="1:34">
+      <c r="A150" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H150" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I150" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J150" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K150" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L150" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M150" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N150" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O150" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P150" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q150" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="R150" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="S150" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="T150" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U150" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V150" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W150" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X150" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y150" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z150" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA150" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB150" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC150" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD150" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE150" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF150" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG150" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH150" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151" spans="1:34">
+      <c r="A151" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H151" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I151" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J151" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K151" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L151" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M151" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N151" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O151" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P151" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q151" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="R151" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S151" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="T151" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="U151" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V151" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W151" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X151" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y151" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z151" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA151" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB151" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC151" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD151" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE151" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF151" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG151" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH151" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" spans="1:34">
+      <c r="A152" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H152" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I152" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J152" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K152" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L152" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M152" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N152" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O152" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P152" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q152" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="R152" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="S152" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="T152" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="U152" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="V152" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W152" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X152" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y152" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z152" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA152" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB152" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC152" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD152" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE152" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF152" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG152" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH152" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="1:34">
+      <c r="A153" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B153" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C153" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D153" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H153" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I153" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J153" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K153" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L153" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M153" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N153" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O153" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P153" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q153" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="R153" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="S153" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="T153" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U153" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="V153" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W153" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X153" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y153" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z153" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA153" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB153" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC153" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD153" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE153" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF153" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG153" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH153" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154" spans="1:34">
+      <c r="A154" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B154" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C154" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D154" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H154" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I154" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J154" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K154" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L154" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M154" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N154" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O154" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P154" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q154" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R154" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S154" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="T154" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U154" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="V154" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W154" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X154" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y154" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z154" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA154" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB154" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC154" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD154" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE154" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF154" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG154" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH154" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155" spans="1:34">
+      <c r="A155" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H155" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I155" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J155" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K155" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L155" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M155" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N155" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O155" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P155" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q155" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="R155" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="S155" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T155" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U155" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V155" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W155" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X155" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y155" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z155" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA155" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB155" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC155" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD155" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE155" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF155" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG155" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH155" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156" spans="1:34">
+      <c r="A156" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H156" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I156" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J156" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K156" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L156" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M156" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N156" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O156" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P156" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q156" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R156" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S156" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T156" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U156" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V156" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W156" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="X156" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y156" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z156" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA156" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB156" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC156" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD156" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE156" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF156" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG156" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH156" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157" spans="1:34">
+      <c r="A157" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C157" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D157" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E157" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F157" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G157" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H157" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I157" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J157" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K157" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L157" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M157" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="N157" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="O157" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="P157" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q157" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="R157" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="S157" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="T157" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="U157" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="V157" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="W157" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="X157" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y157" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z157" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA157" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB157" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC157" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD157" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE157" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF157" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG157" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH157" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158" spans="1:34">
+      <c r="A158" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B158" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C158" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D158" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E158" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F158" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G158" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H158" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I158" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J158" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K158" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L158" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M158" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N158" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="O158" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P158" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q158" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="R158" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="S158" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="T158" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="U158" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="V158" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="W158" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="X158" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y158" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z158" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA158" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB158" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC158" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD158" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE158" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF158" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG158" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH158" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="161" spans="1:34">
+      <c r="A161" t="s">
+        <v>33</v>
+      </c>
+      <c r="D161" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="162" spans="1:34">
+      <c r="A162">
+        <v>0</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162">
+        <v>2</v>
+      </c>
+      <c r="D162">
+        <v>3</v>
+      </c>
+      <c r="E162">
+        <v>4</v>
+      </c>
+      <c r="F162">
+        <v>5</v>
+      </c>
+      <c r="G162">
+        <v>6</v>
+      </c>
+      <c r="H162">
+        <v>7</v>
+      </c>
+      <c r="I162">
+        <v>8</v>
+      </c>
+      <c r="J162">
+        <v>9</v>
+      </c>
+      <c r="K162">
+        <v>10</v>
+      </c>
+      <c r="L162">
+        <v>11</v>
+      </c>
+      <c r="M162">
+        <v>12</v>
+      </c>
+      <c r="N162">
+        <v>13</v>
+      </c>
+      <c r="O162">
+        <v>14</v>
+      </c>
+      <c r="P162">
+        <v>15</v>
+      </c>
+      <c r="Q162">
+        <v>16</v>
+      </c>
+      <c r="R162">
+        <v>17</v>
+      </c>
+      <c r="S162">
+        <v>18</v>
+      </c>
+      <c r="T162">
+        <v>19</v>
+      </c>
+      <c r="U162">
+        <v>20</v>
+      </c>
+      <c r="V162">
+        <v>21</v>
+      </c>
+      <c r="W162">
+        <v>22</v>
+      </c>
+      <c r="X162">
+        <v>23</v>
+      </c>
+      <c r="Y162">
+        <v>24</v>
+      </c>
+      <c r="Z162">
+        <v>25</v>
+      </c>
+      <c r="AA162">
+        <v>26</v>
+      </c>
+      <c r="AB162">
+        <v>27</v>
+      </c>
+      <c r="AC162">
+        <v>28</v>
+      </c>
+      <c r="AD162">
+        <v>29</v>
+      </c>
+      <c r="AE162">
+        <v>30</v>
+      </c>
+      <c r="AF162">
+        <v>31</v>
+      </c>
+      <c r="AG162">
+        <v>32</v>
+      </c>
+      <c r="AH162">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="163" spans="1:34">
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
+      <c r="I163" s="1"/>
+      <c r="J163" s="1"/>
+      <c r="K163" s="1"/>
+      <c r="L163" s="1"/>
+      <c r="M163" s="1"/>
+      <c r="N163" s="1"/>
+      <c r="O163" s="1"/>
+      <c r="P163" s="1"/>
+      <c r="Q163" s="1"/>
+      <c r="R163" s="1"/>
+      <c r="S163" s="1"/>
+      <c r="T163" s="1"/>
+      <c r="U163" s="1"/>
+      <c r="V163" s="1"/>
+      <c r="W163" s="1"/>
+      <c r="X163" s="1"/>
+      <c r="Y163" s="1"/>
+      <c r="Z163" s="1"/>
+      <c r="AA163" s="1"/>
+      <c r="AB163" s="1"/>
+      <c r="AC163" s="1"/>
+      <c r="AD163" s="1"/>
+      <c r="AE163" s="1"/>
+      <c r="AF163" s="1"/>
+      <c r="AG163" s="1"/>
+      <c r="AH163" s="1"/>
+    </row>
+    <row r="164" spans="1:34">
+      <c r="A164" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G164" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H164" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I164" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J164" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K164" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L164" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M164" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N164" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O164" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P164" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q164" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R164" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="S164" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="T164" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="U164" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="V164" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="W164" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="X164" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y164" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z164" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA164" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB164" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC164" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD164" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE164" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF164" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG164" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH164" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165" spans="1:34">
+      <c r="A165" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C165" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D165" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E165" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F165" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G165" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H165" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I165" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J165" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K165" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L165" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M165" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N165" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O165" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P165" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q165" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R165" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="S165" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="T165" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="U165" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="V165" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="W165" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="X165" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y165" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z165" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA165" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB165" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC165" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD165" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE165" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF165" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG165" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH165" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166" spans="1:34">
+      <c r="A166" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B166" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F166" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G166" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H166" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I166" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J166" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K166" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L166" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M166" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N166" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O166" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P166" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q166" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R166" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="S166" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="T166" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="U166" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="V166" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="W166" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="X166" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y166" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z166" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA166" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB166" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC166" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD166" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE166" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF166" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG166" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH166" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="167" spans="1:34">
+      <c r="A167" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G167" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H167" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I167" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J167" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K167" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L167" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M167" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N167" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O167" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P167" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q167" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R167" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S167" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T167" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U167" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V167" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W167" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X167" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y167" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z167" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA167" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB167" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC167" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD167" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE167" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF167" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG167" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH167" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="168" spans="1:34">
+      <c r="A168" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G168" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H168" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I168" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J168" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K168" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L168" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M168" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N168" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O168" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P168" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q168" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R168" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S168" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T168" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U168" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V168" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W168" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X168" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y168" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z168" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA168" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB168" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC168" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD168" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE168" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF168" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG168" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH168" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169" spans="1:34">
+      <c r="A169" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F169" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G169" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H169" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I169" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J169" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K169" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L169" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M169" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N169" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O169" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P169" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q169" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R169" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S169" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T169" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U169" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V169" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W169" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X169" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y169" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z169" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA169" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB169" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC169" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD169" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE169" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF169" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG169" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH169" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="170" spans="1:34">
+      <c r="A170" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F170" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G170" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H170" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I170" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J170" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K170" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L170" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M170" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N170" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O170" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P170" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q170" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R170" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S170" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T170" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U170" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V170" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W170" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X170" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y170" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z170" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA170" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB170" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC170" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD170" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE170" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF170" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG170" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH170" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="171" spans="1:34">
+      <c r="A171" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F171" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G171" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H171" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I171" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J171" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K171" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L171" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M171" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N171" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O171" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P171" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q171" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R171" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S171" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T171" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U171" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V171" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W171" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X171" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y171" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z171" s="18"/>
+      <c r="AA171" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB171" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC171" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD171" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE171" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF171" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG171" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH171" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172" spans="1:34">
+      <c r="A172" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G172" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H172" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I172" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J172" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K172" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L172" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M172" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N172" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="O172" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P172" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q172" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R172" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S172" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="T172" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U172" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V172" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W172" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X172" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y172" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z172" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA172" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB172" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC172" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD172" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE172" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF172" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG172" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH172" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="173" spans="1:34">
+      <c r="A173" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G173" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H173" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I173" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J173" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K173" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L173" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M173" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N173" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O173" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P173" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q173" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R173" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S173" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="T173" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U173" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V173" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W173" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X173" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y173" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z173" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA173" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB173" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC173" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD173" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE173" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF173" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG173" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH173" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="174" spans="1:34">
+      <c r="A174" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G174" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H174" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I174" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J174" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K174" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L174" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M174" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N174" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O174" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P174" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q174" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R174" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S174" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="T174" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U174" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V174" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W174" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X174" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y174" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z174" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA174" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB174" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC174" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD174" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE174" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF174" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG174" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH174" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="175" spans="1:34">
+      <c r="A175" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G175" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H175" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I175" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J175" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K175" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L175" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M175" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N175" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O175" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P175" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q175" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R175" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S175" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="T175" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="U175" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V175" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W175" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X175" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y175" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z175" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA175" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB175" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC175" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD175" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE175" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF175" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG175" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH175" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="176" spans="1:34">
+      <c r="A176" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G176" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H176" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I176" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J176" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K176" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L176" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M176" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="N176" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O176" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P176" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q176" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R176" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S176" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="T176" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="U176" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V176" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W176" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X176" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y176" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z176" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA176" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB176" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC176" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD176" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE176" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF176" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG176" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH176" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="177" spans="1:34">
+      <c r="A177" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D177" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E177" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F177" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G177" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H177" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I177" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J177" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K177" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L177" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M177" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N177" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O177" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P177" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q177" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="R177" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="S177" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="T177" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="U177" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="V177" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="W177" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="X177" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y177" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z177" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA177" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB177" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC177" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD177" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE177" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF177" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG177" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH177" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178" spans="1:34">
+      <c r="A178" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F178" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G178" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H178" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I178" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J178" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K178" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L178" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M178" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N178" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O178" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P178" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q178" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R178" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="S178" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="T178" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="U178" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="V178" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="W178" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="X178" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y178" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z178" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA178" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB178" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC178" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD178" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE178" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF178" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG178" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH178" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="181" spans="1:34">
+      <c r="A181" t="s">
+        <v>34</v>
+      </c>
+      <c r="D181" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="182" spans="1:34">
+      <c r="A182">
+        <v>0</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="C182">
+        <v>2</v>
+      </c>
+      <c r="D182">
+        <v>3</v>
+      </c>
+      <c r="E182">
+        <v>4</v>
+      </c>
+      <c r="F182">
+        <v>5</v>
+      </c>
+      <c r="G182">
+        <v>6</v>
+      </c>
+      <c r="H182">
+        <v>7</v>
+      </c>
+      <c r="I182">
+        <v>8</v>
+      </c>
+      <c r="J182">
+        <v>9</v>
+      </c>
+      <c r="K182">
+        <v>10</v>
+      </c>
+      <c r="L182">
+        <v>11</v>
+      </c>
+      <c r="M182">
+        <v>12</v>
+      </c>
+      <c r="N182">
+        <v>13</v>
+      </c>
+      <c r="O182">
+        <v>14</v>
+      </c>
+      <c r="P182">
+        <v>15</v>
+      </c>
+      <c r="Q182">
+        <v>16</v>
+      </c>
+      <c r="R182">
+        <v>17</v>
+      </c>
+      <c r="S182">
+        <v>18</v>
+      </c>
+      <c r="T182">
+        <v>19</v>
+      </c>
+      <c r="U182">
+        <v>20</v>
+      </c>
+      <c r="V182">
+        <v>21</v>
+      </c>
+      <c r="W182">
+        <v>22</v>
+      </c>
+      <c r="X182">
+        <v>23</v>
+      </c>
+      <c r="Y182">
+        <v>24</v>
+      </c>
+      <c r="Z182">
+        <v>25</v>
+      </c>
+      <c r="AA182">
+        <v>26</v>
+      </c>
+      <c r="AB182">
+        <v>27</v>
+      </c>
+      <c r="AC182">
+        <v>28</v>
+      </c>
+      <c r="AD182">
+        <v>29</v>
+      </c>
+      <c r="AE182">
+        <v>30</v>
+      </c>
+      <c r="AF182">
+        <v>31</v>
+      </c>
+      <c r="AG182">
+        <v>32</v>
+      </c>
+      <c r="AH182">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="183" spans="1:34">
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1"/>
+      <c r="G183" s="1"/>
+      <c r="H183" s="1"/>
+      <c r="I183" s="1"/>
+      <c r="J183" s="1"/>
+      <c r="K183" s="1"/>
+      <c r="L183" s="1"/>
+      <c r="M183" s="1"/>
+      <c r="N183" s="1"/>
+      <c r="O183" s="1"/>
+      <c r="P183" s="1"/>
+      <c r="Q183" s="1"/>
+      <c r="R183" s="1"/>
+      <c r="S183" s="1"/>
+      <c r="T183" s="1"/>
+      <c r="U183" s="1"/>
+      <c r="V183" s="1"/>
+      <c r="W183" s="1"/>
+      <c r="X183" s="1"/>
+      <c r="Y183" s="1"/>
+      <c r="Z183" s="1"/>
+      <c r="AA183" s="1"/>
+      <c r="AB183" s="1"/>
+      <c r="AC183" s="1"/>
+      <c r="AD183" s="1"/>
+      <c r="AE183" s="1"/>
+      <c r="AF183" s="1"/>
+      <c r="AG183" s="1"/>
+      <c r="AH183" s="1"/>
+    </row>
+    <row r="184" spans="1:34">
+      <c r="A184" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B184" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C184" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D184" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E184" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F184" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G184" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H184" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I184" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J184" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K184" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L184" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M184" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N184" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="O184" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P184" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q184" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="R184" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="S184" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="T184" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="U184" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="V184" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="W184" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="X184" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y184" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z184" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA184" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB184" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC184" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD184" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE184" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF184" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG184" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH184" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185" spans="1:34">
+      <c r="A185" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F185" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G185" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H185" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I185" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J185" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K185" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L185" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M185" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N185" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O185" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P185" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q185" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R185" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S185" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T185" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U185" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V185" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W185" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X185" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y185" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z185" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA185" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB185" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC185" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD185" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE185" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF185" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG185" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH185" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:34">
+      <c r="A186" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G186" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H186" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I186" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J186" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K186" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L186" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M186" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N186" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O186" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P186" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q186" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R186" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S186" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T186" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U186" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V186" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W186" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X186" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y186" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z186" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA186" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB186" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC186" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD186" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE186" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF186" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG186" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH186" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:34">
+      <c r="A187" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F187" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G187" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H187" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I187" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J187" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K187" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L187" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M187" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N187" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O187" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P187" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q187" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R187" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S187" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T187" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U187" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V187" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W187" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X187" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y187" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z187" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA187" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB187" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC187" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD187" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE187" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF187" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG187" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH187" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:34">
+      <c r="A188" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F188" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G188" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H188" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I188" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J188" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K188" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L188" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M188" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N188" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O188" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P188" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q188" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R188" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S188" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T188" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U188" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V188" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W188" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X188" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y188" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z188" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA188" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB188" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC188" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD188" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE188" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF188" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG188" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH188" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:34">
+      <c r="A189" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F189" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G189" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H189" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I189" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J189" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K189" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L189" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M189" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N189" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O189" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P189" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q189" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R189" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S189" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T189" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U189" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V189" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W189" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X189" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y189" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z189" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA189" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB189" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC189" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD189" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE189" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF189" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG189" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH189" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:34">
+      <c r="A190" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F190" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G190" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H190" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I190" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J190" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K190" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L190" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M190" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N190" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O190" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P190" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q190" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R190" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S190" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T190" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U190" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V190" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W190" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X190" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y190" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z190" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA190" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB190" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC190" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD190" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE190" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF190" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG190" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH190" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:34">
+      <c r="A191" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F191" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G191" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H191" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I191" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J191" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K191" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L191" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M191" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N191" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O191" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P191" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q191" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R191" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S191" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T191" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U191" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V191" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W191" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X191" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y191" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z191" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA191" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB191" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC191" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD191" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE191" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF191" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG191" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH191" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:34">
+      <c r="A192" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F192" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G192" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H192" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I192" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J192" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K192" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L192" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M192" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N192" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O192" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P192" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q192" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R192" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S192" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T192" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U192" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V192" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W192" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X192" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y192" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z192" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA192" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB192" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC192" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD192" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE192" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF192" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG192" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH192" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:34">
+      <c r="A193" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F193" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G193" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H193" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I193" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J193" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K193" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L193" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M193" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N193" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O193" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P193" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q193" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R193" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S193" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T193" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U193" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V193" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W193" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X193" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y193" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z193" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA193" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB193" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC193" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD193" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE193" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF193" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG193" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH193" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:34">
+      <c r="A194" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F194" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G194" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H194" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I194" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J194" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K194" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L194" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M194" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N194" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O194" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P194" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q194" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R194" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S194" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T194" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U194" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V194" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W194" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X194" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y194" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z194" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA194" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB194" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC194" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD194" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE194" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF194" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG194" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH194" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:34">
+      <c r="A195" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F195" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G195" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H195" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I195" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J195" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K195" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L195" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M195" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N195" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O195" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P195" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q195" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R195" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S195" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T195" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U195" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V195" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W195" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X195" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y195" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z195" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA195" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB195" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC195" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD195" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE195" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF195" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG195" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH195" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:34">
+      <c r="A196" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F196" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G196" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H196" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I196" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J196" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K196" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L196" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M196" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N196" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O196" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P196" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q196" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R196" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S196" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T196" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U196" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V196" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W196" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X196" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y196" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z196" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA196" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB196" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC196" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD196" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE196" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF196" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG196" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH196" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:34">
+      <c r="A197" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F197" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G197" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H197" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I197" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J197" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K197" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L197" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M197" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N197" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O197" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P197" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q197" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R197" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S197" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T197" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U197" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V197" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W197" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X197" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y197" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z197" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA197" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB197" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC197" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD197" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE197" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF197" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG197" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH197" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:34">
+      <c r="A198" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B198" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C198" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D198" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E198" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F198" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G198" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H198" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I198" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J198" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K198" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L198" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M198" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N198" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="O198" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P198" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q198" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="R198" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="S198" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="T198" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="U198" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="V198" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="W198" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="X198" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y198" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z198" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA198" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB198" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC198" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD198" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE198" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF198" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG198" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH198" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
